--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -5149,7 +5149,11 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K87" s="19" t="n"/>
+      <c r="K87" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L87" s="19" t="inlineStr">
         <is>
           <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -12950,7 +12950,11 @@
         </is>
       </c>
       <c r="J234" s="13" t="n"/>
-      <c r="K234" s="19" t="n"/>
+      <c r="K234" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
+        </is>
+      </c>
       <c r="L234" s="19" t="inlineStr">
         <is>
           <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
@@ -13734,28 +13738,28 @@
     <row r="250">
       <c r="A250" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B250" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C250" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D250" s="18" t="inlineStr">
         <is>
-          <t>有關最佳實踐，請參閱基線高可用性區域冗餘 Web 應用程式體系結構</t>
+          <t>確保源僅從 Azure Front Door 實例獲取流量。</t>
         </is>
       </c>
       <c r="E250" s="18" t="n"/>
       <c r="F250" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -13773,7 +13777,7 @@
       <c r="K250" s="19" t="n"/>
       <c r="L250" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M250" s="20" t="n"/>
@@ -13785,28 +13789,28 @@
     <row r="251">
       <c r="A251" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B251" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C251" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D251" s="18" t="inlineStr">
         <is>
-          <t>使用高級層和標準層。這些層支援暫存槽和自動備份。</t>
+          <t>您應該對發往後端伺服器的流量進行加密。</t>
         </is>
       </c>
       <c r="E251" s="18" t="n"/>
       <c r="F251" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -13824,7 +13828,7 @@
       <c r="K251" s="19" t="n"/>
       <c r="L251" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M251" s="20" t="n"/>
@@ -13836,22 +13840,22 @@
     <row r="252">
       <c r="A252" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B252" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C252" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D252" s="18" t="inlineStr">
         <is>
-          <t>利用區域適用的可用性區域（需要高級 v2 或 v3 層）</t>
+          <t>您應該使用 Web 應用程式防火牆。</t>
         </is>
       </c>
       <c r="E252" s="18" t="n"/>
@@ -13875,7 +13879,7 @@
       <c r="K252" s="19" t="n"/>
       <c r="L252" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M252" s="20" t="n"/>
@@ -13887,22 +13891,22 @@
     <row r="253">
       <c r="A253" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B253" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C253" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D253" s="18" t="inlineStr">
         <is>
-          <t>實施健康檢查</t>
+          <t>將 HTTP 重定向到 HTTPS</t>
         </is>
       </c>
       <c r="E253" s="18" t="n"/>
@@ -13926,7 +13930,7 @@
       <c r="K253" s="19" t="n"/>
       <c r="L253" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M253" s="20" t="n"/>
@@ -13953,13 +13957,13 @@
       </c>
       <c r="D254" s="18" t="inlineStr">
         <is>
-          <t>請參閱 Azure 應用服務的備份和還原最佳做法</t>
+          <t>有關最佳實踐，請參閱基線高可用性區域冗餘 Web 應用程式體系結構</t>
         </is>
       </c>
       <c r="E254" s="18" t="n"/>
       <c r="F254" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -13977,7 +13981,7 @@
       <c r="K254" s="19" t="n"/>
       <c r="L254" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M254" s="20" t="n"/>
@@ -14004,13 +14008,13 @@
       </c>
       <c r="D255" s="18" t="inlineStr">
         <is>
-          <t>實現 Azure 應用服務可靠性最佳做法</t>
+          <t>使用高級層和標準層。這些層支援暫存槽和自動備份。</t>
         </is>
       </c>
       <c r="E255" s="18" t="n"/>
       <c r="F255" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -14028,7 +14032,7 @@
       <c r="K255" s="19" t="n"/>
       <c r="L255" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M255" s="20" t="n"/>
@@ -14055,13 +14059,13 @@
       </c>
       <c r="D256" s="18" t="inlineStr">
         <is>
-          <t>熟悉如何在災難期間將應用服務應用移動到另一個區域</t>
+          <t>利用區域適用的可用性區域（需要高級 v2 或 v3 層）</t>
         </is>
       </c>
       <c r="E256" s="18" t="n"/>
       <c r="F256" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -14079,7 +14083,7 @@
       <c r="K256" s="19" t="n"/>
       <c r="L256" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M256" s="20" t="n"/>
@@ -14106,13 +14110,13 @@
       </c>
       <c r="D257" s="18" t="inlineStr">
         <is>
-          <t>熟悉 Azure 應用服務中的可靠性支援</t>
+          <t>實施健康檢查</t>
         </is>
       </c>
       <c r="E257" s="18" t="n"/>
       <c r="F257" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -14130,7 +14134,7 @@
       <c r="K257" s="19" t="n"/>
       <c r="L257" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M257" s="20" t="n"/>
@@ -14157,13 +14161,13 @@
       </c>
       <c r="D258" s="18" t="inlineStr">
         <is>
-          <t>確保為在應用服務計劃上運行的函數應用啟用“Always On”</t>
+          <t>請參閱 Azure 應用服務的備份和還原最佳做法</t>
         </is>
       </c>
       <c r="E258" s="18" t="n"/>
       <c r="F258" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -14181,7 +14185,7 @@
       <c r="K258" s="19" t="n"/>
       <c r="L258" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M258" s="20" t="n"/>
@@ -14208,13 +14212,13 @@
       </c>
       <c r="D259" s="18" t="inlineStr">
         <is>
-          <t>使用運行狀況檢查監視應用服務實例</t>
+          <t>實現 Azure 應用服務可靠性最佳做法</t>
         </is>
       </c>
       <c r="E259" s="18" t="n"/>
       <c r="F259" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -14232,7 +14236,7 @@
       <c r="K259" s="19" t="n"/>
       <c r="L259" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M259" s="20" t="n"/>
@@ -14259,13 +14263,13 @@
       </c>
       <c r="D260" s="18" t="inlineStr">
         <is>
-          <t>使用 Application Insights 可用性測試監視 Web 應用或網站的可用性和回應能力</t>
+          <t>熟悉如何在災難期間將應用服務應用移動到另一個區域</t>
         </is>
       </c>
       <c r="E260" s="18" t="n"/>
       <c r="F260" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -14283,7 +14287,7 @@
       <c r="K260" s="19" t="n"/>
       <c r="L260" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M260" s="20" t="n"/>
@@ -14310,13 +14314,13 @@
       </c>
       <c r="D261" s="18" t="inlineStr">
         <is>
-          <t>使用 Application Insights 標準測試監視 Web 應用或網站的可用性和回應能力</t>
+          <t>熟悉 Azure 應用服務中的可靠性支援</t>
         </is>
       </c>
       <c r="E261" s="18" t="n"/>
       <c r="F261" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -14334,7 +14338,7 @@
       <c r="K261" s="19" t="n"/>
       <c r="L261" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M261" s="20" t="n"/>
@@ -14351,7 +14355,7 @@
       </c>
       <c r="B262" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C262" s="18" t="inlineStr">
@@ -14361,17 +14365,13 @@
       </c>
       <c r="D262" s="18" t="inlineStr">
         <is>
-          <t>使用 Key Vault 儲存機密</t>
-        </is>
-      </c>
-      <c r="E262" s="18" t="inlineStr">
-        <is>
-          <t>使用 Azure Key Vault 儲存應用程式所需的任何機密。 Key Vault 為儲存機密提供安全且經過審核的環境，並通過 Key Vault SDK 或應用服務 Key Vault 引用與應用服務很好地集成。</t>
-        </is>
-      </c>
+          <t>確保為在應用服務計劃上運行的函數應用啟用“Always On”</t>
+        </is>
+      </c>
+      <c r="E262" s="18" t="n"/>
       <c r="F262" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -14389,7 +14389,7 @@
       <c r="K262" s="19" t="n"/>
       <c r="L262" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M262" s="20" t="n"/>
@@ -14406,7 +14406,7 @@
       </c>
       <c r="B263" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C263" s="18" t="inlineStr">
@@ -14416,17 +14416,13 @@
       </c>
       <c r="D263" s="18" t="inlineStr">
         <is>
-          <t>使用託管標識連接到 Key VaultUse Managed Identity to connect to Key Vault</t>
-        </is>
-      </c>
-      <c r="E263" s="18" t="inlineStr">
-        <is>
-          <t>使用託管標識通過 Key Vault SDK 或透過應用服務 Key Vault 引用連接到 Key Vault。</t>
-        </is>
-      </c>
+          <t>使用運行狀況檢查監視應用服務實例</t>
+        </is>
+      </c>
+      <c r="E263" s="18" t="n"/>
       <c r="F263" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -14444,7 +14440,7 @@
       <c r="K263" s="19" t="n"/>
       <c r="L263" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M263" s="20" t="n"/>
@@ -14461,7 +14457,7 @@
       </c>
       <c r="B264" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C264" s="18" t="inlineStr">
@@ -14471,17 +14467,13 @@
       </c>
       <c r="D264" s="18" t="inlineStr">
         <is>
-          <t>使用 Key Vault 儲存 TLS 證書。</t>
-        </is>
-      </c>
-      <c r="E264" s="18" t="inlineStr">
-        <is>
-          <t>將應用服務 TLS 證書存儲在 Key Vault 中。</t>
-        </is>
-      </c>
+          <t>使用 Application Insights 可用性測試監視 Web 應用或網站的可用性和回應能力</t>
+        </is>
+      </c>
+      <c r="E264" s="18" t="n"/>
       <c r="F264" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -14499,7 +14491,7 @@
       <c r="K264" s="19" t="n"/>
       <c r="L264" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M264" s="20" t="n"/>
@@ -14516,7 +14508,7 @@
       </c>
       <c r="B265" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C265" s="18" t="inlineStr">
@@ -14526,17 +14518,13 @@
       </c>
       <c r="D265" s="18" t="inlineStr">
         <is>
-          <t>隔離處理敏感信息的系統</t>
-        </is>
-      </c>
-      <c r="E265" s="18" t="inlineStr">
-        <is>
-          <t>處理敏感信息的系統應隔離。 為此，請使用單獨的應用服務計劃或應用服務環境，並考慮使用不同的訂閱或管理組。</t>
-        </is>
-      </c>
+          <t>使用 Application Insights 標準測試監視 Web 應用或網站的可用性和回應能力</t>
+        </is>
+      </c>
+      <c r="E265" s="18" t="n"/>
       <c r="F265" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -14554,7 +14542,7 @@
       <c r="K265" s="19" t="n"/>
       <c r="L265" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M265" s="20" t="n"/>
@@ -14581,17 +14569,17 @@
       </c>
       <c r="D266" s="18" t="inlineStr">
         <is>
-          <t>不要將敏感數據存儲在本地磁碟上</t>
+          <t>使用 Key Vault 儲存機密</t>
         </is>
       </c>
       <c r="E266" s="18" t="inlineStr">
         <is>
-          <t>應用服務上的本地磁碟未加密，敏感數據不應存儲在這些磁碟上。 （例如：D：\\Local 和 %TMP%）。</t>
+          <t>使用 Azure Key Vault 儲存應用程式所需的任何機密。 Key Vault 為儲存機密提供安全且經過審核的環境，並通過 Key Vault SDK 或應用服務 Key Vault 引用與應用服務很好地集成。</t>
         </is>
       </c>
       <c r="F266" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -14609,7 +14597,7 @@
       <c r="K266" s="19" t="n"/>
       <c r="L266" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M266" s="20" t="n"/>
@@ -14636,17 +14624,17 @@
       </c>
       <c r="D267" s="18" t="inlineStr">
         <is>
-          <t>使用已建立的身份提供程式進行身份驗證</t>
+          <t>使用託管標識連接到 Key VaultUse Managed Identity to connect to Key Vault</t>
         </is>
       </c>
       <c r="E267" s="18" t="inlineStr">
         <is>
-          <t>對於經過身份驗證的 Web 應用程式，請使用成熟的標識提供者，例如 Azure AD 或 Azure AD B2C。 利用所選的應用程式框架與此提供程式整合，或使用應用服務身份驗證/授權功能。</t>
+          <t>使用託管標識通過 Key Vault SDK 或透過應用服務 Key Vault 引用連接到 Key Vault。</t>
         </is>
       </c>
       <c r="F267" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -14664,7 +14652,7 @@
       <c r="K267" s="19" t="n"/>
       <c r="L267" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M267" s="20" t="n"/>
@@ -14691,12 +14679,12 @@
       </c>
       <c r="D268" s="18" t="inlineStr">
         <is>
-          <t>從受信任的環境部署</t>
+          <t>使用 Key Vault 儲存 TLS 證書。</t>
         </is>
       </c>
       <c r="E268" s="18" t="inlineStr">
         <is>
-          <t>將代碼從受控且受信任的環境（例如管理良好且安全的 DevOps 部署管道）部署到應用服務。這樣可以避免未經版本控制和驗證從惡意主機部署的代碼。</t>
+          <t>將應用服務 TLS 證書存儲在 Key Vault 中。</t>
         </is>
       </c>
       <c r="F268" s="18" t="inlineStr">
@@ -14719,7 +14707,7 @@
       <c r="K268" s="19" t="n"/>
       <c r="L268" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M268" s="20" t="n"/>
@@ -14746,17 +14734,17 @@
       </c>
       <c r="D269" s="18" t="inlineStr">
         <is>
-          <t>禁用基本身份驗證</t>
+          <t>隔離處理敏感信息的系統</t>
         </is>
       </c>
       <c r="E269" s="18" t="inlineStr">
         <is>
-          <t>禁用 FTP/FTPS 和 WebDeploy/SCM 的基本身份驗證。 這將禁止訪問這些服務，並強制使用 Azure AD 安全終結點進行部署。 請注意，還可以使用 Azure AD 憑據打開 SCM 網站。</t>
+          <t>處理敏感信息的系統應隔離。 為此，請使用單獨的應用服務計劃或應用服務環境，並考慮使用不同的訂閱或管理組。</t>
         </is>
       </c>
       <c r="F269" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -14774,7 +14762,7 @@
       <c r="K269" s="19" t="n"/>
       <c r="L269" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M269" s="20" t="n"/>
@@ -14801,17 +14789,17 @@
       </c>
       <c r="D270" s="18" t="inlineStr">
         <is>
-          <t>使用託管標識連接到資源</t>
+          <t>不要將敏感數據存儲在本地磁碟上</t>
         </is>
       </c>
       <c r="E270" s="18" t="inlineStr">
         <is>
-          <t>如果可能，請使用託管標識連接到 Azure AD 受保護的資源。 如果無法做到這一點，請將機密存儲在 Key Vault 中，並改用託管標識連接到 Key Vault。</t>
+          <t>應用服務上的本地磁碟未加密，敏感數據不應存儲在這些磁碟上。 （例如：D：\\Local 和 %TMP%）。</t>
         </is>
       </c>
       <c r="F270" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -14829,7 +14817,7 @@
       <c r="K270" s="19" t="n"/>
       <c r="L270" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M270" s="20" t="n"/>
@@ -14856,17 +14844,17 @@
       </c>
       <c r="D271" s="18" t="inlineStr">
         <is>
-          <t>使用託管標識拉取容器</t>
+          <t>使用已建立的身份提供程式進行身份驗證</t>
         </is>
       </c>
       <c r="E271" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure 容器註冊表中儲存的映像，請使用託管標識拉取這些映像。</t>
+          <t>對於經過身份驗證的 Web 應用程式，請使用成熟的標識提供者，例如 Azure AD 或 Azure AD B2C。 利用所選的應用程式框架與此提供程式整合，或使用應用服務身份驗證/授權功能。</t>
         </is>
       </c>
       <c r="F271" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -14884,7 +14872,7 @@
       <c r="K271" s="19" t="n"/>
       <c r="L271" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M271" s="20" t="n"/>
@@ -14911,17 +14899,17 @@
       </c>
       <c r="D272" s="18" t="inlineStr">
         <is>
-          <t>將應用服務運行時日誌發送到Log Analytics</t>
+          <t>從受信任的環境部署</t>
         </is>
       </c>
       <c r="E272" s="18" t="inlineStr">
         <is>
-          <t>通過配置應用服務的診斷設置，可以將所有遙測數據發送到Log Analytics，作為日誌記錄和監視的中心目標。這允許你監視應用服務的運行時活動，例如 HTTP 日誌、應用程式日誌、平臺日誌等。</t>
+          <t>將代碼從受控且受信任的環境（例如管理良好且安全的 DevOps 部署管道）部署到應用服務。這樣可以避免未經版本控制和驗證從惡意主機部署的代碼。</t>
         </is>
       </c>
       <c r="F272" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -14939,7 +14927,7 @@
       <c r="K272" s="19" t="n"/>
       <c r="L272" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M272" s="20" t="n"/>
@@ -14966,17 +14954,17 @@
       </c>
       <c r="D273" s="18" t="inlineStr">
         <is>
-          <t>將應用服務活動日誌發送到Log Analytics</t>
+          <t>禁用基本身份驗證</t>
         </is>
       </c>
       <c r="E273" s="18" t="inlineStr">
         <is>
-          <t>設置診斷設置，將活動日誌發送到Log Analytics，作為日誌記錄和監視的中心目標。這樣，你就可以監視應用服務資源本身上的控制平面活動。</t>
+          <t>禁用 FTP/FTPS 和 WebDeploy/SCM 的基本身份驗證。 這將禁止訪問這些服務，並強制使用 Azure AD 安全終結點進行部署。 請注意，還可以使用 Azure AD 憑據打開 SCM 網站。</t>
         </is>
       </c>
       <c r="F273" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -14994,7 +14982,7 @@
       <c r="K273" s="19" t="n"/>
       <c r="L273" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M273" s="20" t="n"/>
@@ -15021,17 +15009,17 @@
       </c>
       <c r="D274" s="18" t="inlineStr">
         <is>
-          <t>應控制出站網路訪問</t>
+          <t>使用託管標識連接到資源</t>
         </is>
       </c>
       <c r="E274" s="18" t="inlineStr">
         <is>
-          <t>使用區域 VNet 集成、網路安全組和 UDR 的組合來控制出站網路訪問。 流量應路由到 NVA，例如 Azure 防火牆。 確保監控防火牆的日誌。</t>
+          <t>如果可能，請使用託管標識連接到 Azure AD 受保護的資源。 如果無法做到這一點，請將機密存儲在 Key Vault 中，並改用託管標識連接到 Key Vault。</t>
         </is>
       </c>
       <c r="F274" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -15049,7 +15037,7 @@
       <c r="K274" s="19" t="n"/>
       <c r="L274" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M274" s="20" t="n"/>
@@ -15076,17 +15064,17 @@
       </c>
       <c r="D275" s="18" t="inlineStr">
         <is>
-          <t>確保與互聯網位址的出站通信具有穩定的IP</t>
+          <t>使用託管標識拉取容器</t>
         </is>
       </c>
       <c r="E275" s="18" t="inlineStr">
         <is>
-          <t>可以使用 VNet 集成並使用 VNet NAT 閘道或 NVA（如 Azure 防火牆）來提供穩定的出站 IP。 這允許接收方根據需要根據IP列出允許清單。 請注意，對於與 Azure 服務的通信，通常不需要依賴於 IP 位址，應改用服務終結點等機制。 （此外，在接收端使用專用終結點可避免發生 SNAT，並提供穩定的出站 IP 範圍。</t>
+          <t>如果使用 Azure 容器註冊表中儲存的映像，請使用託管標識拉取這些映像。</t>
         </is>
       </c>
       <c r="F275" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -15104,7 +15092,7 @@
       <c r="K275" s="19" t="n"/>
       <c r="L275" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M275" s="20" t="n"/>
@@ -15131,17 +15119,17 @@
       </c>
       <c r="D276" s="18" t="inlineStr">
         <is>
-          <t>應控制入站網路訪問</t>
+          <t>將應用服務運行時日誌發送到Log Analytics</t>
         </is>
       </c>
       <c r="E276" s="18" t="inlineStr">
         <is>
-          <t>使用應用服務訪問限制、服務終結點或專用終結點的組合來控制入站網路訪問。對於 Web 應用本身和 SCM 網站，可能需要和配置不同的訪問限制。</t>
+          <t>通過配置應用服務的診斷設置，可以將所有遙測數據發送到Log Analytics，作為日誌記錄和監視的中心目標。這允許你監視應用服務的運行時活動，例如 HTTP 日誌、應用程式日誌、平臺日誌等。</t>
         </is>
       </c>
       <c r="F276" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -15159,7 +15147,7 @@
       <c r="K276" s="19" t="n"/>
       <c r="L276" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M276" s="20" t="n"/>
@@ -15186,17 +15174,17 @@
       </c>
       <c r="D277" s="18" t="inlineStr">
         <is>
-          <t>在應用服務前面使用 WAF</t>
+          <t>將應用服務活動日誌發送到Log Analytics</t>
         </is>
       </c>
       <c r="E277" s="18" t="inlineStr">
         <is>
-          <t>使用 Web 應用程式防火牆（如應用程式閘道或 Azure Front Door）防範惡意入站流量。 請務必監控 WAF 的日誌。</t>
+          <t>設置診斷設置，將活動日誌發送到Log Analytics，作為日誌記錄和監視的中心目標。這樣，你就可以監視應用服務資源本身上的控制平面活動。</t>
         </is>
       </c>
       <c r="F277" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -15214,7 +15202,7 @@
       <c r="K277" s="19" t="n"/>
       <c r="L277" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M277" s="20" t="n"/>
@@ -15241,17 +15229,17 @@
       </c>
       <c r="D278" s="18" t="inlineStr">
         <is>
-          <t>避免繞過 WAF</t>
+          <t>應控制出站網路訪問</t>
         </is>
       </c>
       <c r="E278" s="18" t="inlineStr">
         <is>
-          <t>確保僅鎖定對 WAF 的訪問，從而無法繞過 WAF。 結合使用訪問限制、服務終結點和專用終結點。</t>
+          <t>使用區域 VNet 集成、網路安全組和 UDR 的組合來控制出站網路訪問。 流量應路由到 NVA，例如 Azure 防火牆。 確保監控防火牆的日誌。</t>
         </is>
       </c>
       <c r="F278" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -15269,7 +15257,7 @@
       <c r="K278" s="19" t="n"/>
       <c r="L278" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M278" s="20" t="n"/>
@@ -15296,17 +15284,17 @@
       </c>
       <c r="D279" s="18" t="inlineStr">
         <is>
-          <t>將最低 TLS 策略設置為 1.2</t>
+          <t>確保與互聯網位址的出站通信具有穩定的IP</t>
         </is>
       </c>
       <c r="E279" s="18" t="inlineStr">
         <is>
-          <t>在應用服務配置中將最低 TLS 策略設置為 1.2。</t>
+          <t>可以使用 VNet 集成並使用 VNet NAT 閘道或 NVA（如 Azure 防火牆）來提供穩定的出站 IP。 這允許接收方根據需要根據IP列出允許清單。 請注意，對於與 Azure 服務的通信，通常不需要依賴於 IP 位址，應改用服務終結點等機制。 （此外，在接收端使用專用終結點可避免發生 SNAT，並提供穩定的出站 IP 範圍。</t>
         </is>
       </c>
       <c r="F279" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -15321,14 +15309,10 @@
         </is>
       </c>
       <c r="J279" s="13" t="n"/>
-      <c r="K279" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K279" s="19" t="n"/>
       <c r="L279" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M279" s="20" t="n"/>
@@ -15355,12 +15339,12 @@
       </c>
       <c r="D280" s="18" t="inlineStr">
         <is>
-          <t>僅使用 HTTPS</t>
+          <t>應控制入站網路訪問</t>
         </is>
       </c>
       <c r="E280" s="18" t="inlineStr">
         <is>
-          <t>將應用服務配置為僅使用 HTTPS。 這會導致應用服務從 HTTP 重定向到 HTTPS。 強烈建議在代碼或 WAF 中使用 HTTP 嚴格傳輸安全性 （HSTS），這會通知瀏覽器只能使用 HTTPS 訪問網站。</t>
+          <t>使用應用服務訪問限制、服務終結點或專用終結點的組合來控制入站網路訪問。對於 Web 應用本身和 SCM 網站，可能需要和配置不同的訪問限制。</t>
         </is>
       </c>
       <c r="F280" s="18" t="inlineStr">
@@ -15380,14 +15364,10 @@
         </is>
       </c>
       <c r="J280" s="13" t="n"/>
-      <c r="K280" s="19" t="inlineStr">
-        <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K280" s="19" t="n"/>
       <c r="L280" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M280" s="20" t="n"/>
@@ -15414,12 +15394,12 @@
       </c>
       <c r="D281" s="18" t="inlineStr">
         <is>
-          <t>不得將通配符用於 CORS</t>
+          <t>在應用服務前面使用 WAF</t>
         </is>
       </c>
       <c r="E281" s="18" t="inlineStr">
         <is>
-          <t>不要在 CORS 配置中使用通配符，因為這允許所有源訪問服務（從而破壞 CORS 的目的）。具體而言，僅允許您希望能夠訪問服務的源。</t>
+          <t>使用 Web 應用程式防火牆（如應用程式閘道或 Azure Front Door）防範惡意入站流量。 請務必監控 WAF 的日誌。</t>
         </is>
       </c>
       <c r="F281" s="18" t="inlineStr">
@@ -15442,7 +15422,7 @@
       <c r="K281" s="19" t="n"/>
       <c r="L281" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M281" s="20" t="n"/>
@@ -15469,12 +15449,12 @@
       </c>
       <c r="D282" s="18" t="inlineStr">
         <is>
-          <t>關閉遠端調試</t>
+          <t>避免繞過 WAF</t>
         </is>
       </c>
       <c r="E282" s="18" t="inlineStr">
         <is>
-          <t>不得在生產環境中啟用遠端調試，因為這會在服務上打開其他埠，從而增加攻擊面。請注意，該服務會在 48 小時後自動轉為遠端調試。</t>
+          <t>確保僅鎖定對 WAF 的訪問，從而無法繞過 WAF。 結合使用訪問限制、服務終結點和專用終結點。</t>
         </is>
       </c>
       <c r="F282" s="18" t="inlineStr">
@@ -15494,14 +15474,10 @@
         </is>
       </c>
       <c r="J282" s="13" t="n"/>
-      <c r="K282" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K282" s="19" t="n"/>
       <c r="L282" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M282" s="20" t="n"/>
@@ -15528,12 +15504,12 @@
       </c>
       <c r="D283" s="18" t="inlineStr">
         <is>
-          <t>啟用 Defender for Cloud - Defender for App Service</t>
+          <t>將最低 TLS 策略設置為 1.2</t>
         </is>
       </c>
       <c r="E283" s="18" t="inlineStr">
         <is>
-          <t>啟用 Defender for App Service。 這（除其他威脅外）檢測與已知惡意IP位址的通信。 在操作過程中查看 Defender for App Service 中的建議。</t>
+          <t>在應用服務配置中將最低 TLS 策略設置為 1.2。</t>
         </is>
       </c>
       <c r="F283" s="18" t="inlineStr">
@@ -15553,10 +15529,14 @@
         </is>
       </c>
       <c r="J283" s="13" t="n"/>
-      <c r="K283" s="19" t="n"/>
+      <c r="K283" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L283" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M283" s="20" t="n"/>
@@ -15583,17 +15563,17 @@
       </c>
       <c r="D284" s="18" t="inlineStr">
         <is>
-          <t>在 WAF VNet 上啟用 DDOS 保護標準</t>
+          <t>僅使用 HTTPS</t>
         </is>
       </c>
       <c r="E284" s="18" t="inlineStr">
         <is>
-          <t>Azure 在其網路上提供 DDoS 基本保護，可以通過智慧 DDoS 標準功能進行改進，該功能可以瞭解正常的流量模式並檢測異常行為。DDoS 標準適用於虛擬網路，因此必須為應用前面的網路資源（例如應用程式閘道或 NVA）配置它。</t>
+          <t>將應用服務配置為僅使用 HTTPS。 這會導致應用服務從 HTTP 重定向到 HTTPS。 強烈建議在代碼或 WAF 中使用 HTTP 嚴格傳輸安全性 （HSTS），這會通知瀏覽器只能使用 HTTPS 訪問網站。</t>
         </is>
       </c>
       <c r="F284" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -15608,10 +15588,14 @@
         </is>
       </c>
       <c r="J284" s="13" t="n"/>
-      <c r="K284" s="19" t="n"/>
+      <c r="K284" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L284" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M284" s="20" t="n"/>
@@ -15638,17 +15622,17 @@
       </c>
       <c r="D285" s="18" t="inlineStr">
         <is>
-          <t>通過虛擬網路拉取容器</t>
+          <t>不得將通配符用於 CORS</t>
         </is>
       </c>
       <c r="E285" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure 容器註冊表中儲存的映像，請使用其專用終結點和應用設置“WEBSITE_PULL_IMAGE_OVER_VNET”通過虛擬網络從 Azure 容器註冊表拉取這些映射。</t>
+          <t>不要在 CORS 配置中使用通配符，因為這允許所有源訪問服務（從而破壞 CORS 的目的）。具體而言，僅允許您希望能夠訪問服務的源。</t>
         </is>
       </c>
       <c r="F285" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -15666,7 +15650,7 @@
       <c r="K285" s="19" t="n"/>
       <c r="L285" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M285" s="20" t="n"/>
@@ -15693,17 +15677,17 @@
       </c>
       <c r="D286" s="18" t="inlineStr">
         <is>
-          <t>進行滲透測試</t>
+          <t>關閉遠端調試</t>
         </is>
       </c>
       <c r="E286" s="18" t="inlineStr">
         <is>
-          <t>按照參與的滲透測試規則對 Web 應用程式進行滲透測試。</t>
+          <t>不得在生產環境中啟用遠端調試，因為這會在服務上打開其他埠，從而增加攻擊面。請注意，該服務會在 48 小時後自動轉為遠端調試。</t>
         </is>
       </c>
       <c r="F286" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -15718,10 +15702,14 @@
         </is>
       </c>
       <c r="J286" s="13" t="n"/>
-      <c r="K286" s="19" t="n"/>
+      <c r="K286" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L286" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M286" s="20" t="n"/>
@@ -15748,12 +15736,12 @@
       </c>
       <c r="D287" s="18" t="inlineStr">
         <is>
-          <t>部署經過驗證的代碼</t>
+          <t>啟用 Defender for Cloud - Defender for App Service</t>
         </is>
       </c>
       <c r="E287" s="18" t="inlineStr">
         <is>
-          <t>部署根據 DevSecOps 實踐驗證和掃描漏洞的受信任代碼。</t>
+          <t>啟用 Defender for App Service。 這（除其他威脅外）檢測與已知惡意IP位址的通信。 在操作過程中查看 Defender for App Service 中的建議。</t>
         </is>
       </c>
       <c r="F287" s="18" t="inlineStr">
@@ -15776,7 +15764,7 @@
       <c r="K287" s="19" t="n"/>
       <c r="L287" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M287" s="20" t="n"/>
@@ -15803,17 +15791,17 @@
       </c>
       <c r="D288" s="18" t="inlineStr">
         <is>
-          <t>使用最新的平臺、語言、協定和框架</t>
+          <t>在 WAF VNet 上啟用 DDOS 保護標準</t>
         </is>
       </c>
       <c r="E288" s="18" t="inlineStr">
         <is>
-          <t>使用最新版本的受支援平臺、程式設計語言、協定和框架。</t>
+          <t>Azure 在其網路上提供 DDoS 基本保護，可以通過智慧 DDoS 標準功能進行改進，該功能可以瞭解正常的流量模式並檢測異常行為。DDoS 標準適用於虛擬網路，因此必須為應用前面的網路資源（例如應用程式閘道或 NVA）配置它。</t>
         </is>
       </c>
       <c r="F288" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -15831,7 +15819,7 @@
       <c r="K288" s="19" t="n"/>
       <c r="L288" s="19" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M288" s="20" t="n"/>
@@ -15843,28 +15831,32 @@
     <row r="289">
       <c r="A289" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B289" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C289" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D289" s="18" t="inlineStr">
         <is>
-          <t>如果 AKS Windows 工作負載需要，可以使用 HostProcess 容器</t>
-        </is>
-      </c>
-      <c r="E289" s="18" t="n"/>
+          <t>通過虛擬網路拉取容器</t>
+        </is>
+      </c>
+      <c r="E289" s="18" t="inlineStr">
+        <is>
+          <t>如果使用 Azure 容器註冊表中儲存的映像，請使用其專用終結點和應用設置“WEBSITE_PULL_IMAGE_OVER_VNET”通過虛擬網络從 Azure 容器註冊表拉取這些映射。</t>
+        </is>
+      </c>
       <c r="F289" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -15882,7 +15874,7 @@
       <c r="K289" s="19" t="n"/>
       <c r="L289" s="19" t="inlineStr">
         <is>
-          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M289" s="20" t="n"/>
@@ -15894,28 +15886,32 @@
     <row r="290">
       <c r="A290" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B290" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C290" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D290" s="18" t="inlineStr">
         <is>
-          <t>如果運行事件驅動的工作負載，請使用KEDA</t>
-        </is>
-      </c>
-      <c r="E290" s="18" t="n"/>
+          <t>進行滲透測試</t>
+        </is>
+      </c>
+      <c r="E290" s="18" t="inlineStr">
+        <is>
+          <t>按照參與的滲透測試規則對 Web 應用程式進行滲透測試。</t>
+        </is>
+      </c>
       <c r="F290" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -15933,7 +15929,7 @@
       <c r="K290" s="19" t="n"/>
       <c r="L290" s="19" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M290" s="20" t="n"/>
@@ -15945,28 +15941,32 @@
     <row r="291">
       <c r="A291" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B291" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C291" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D291" s="18" t="inlineStr">
         <is>
-          <t>使用 Dapr 簡化微服務開發</t>
-        </is>
-      </c>
-      <c r="E291" s="18" t="n"/>
+          <t>部署經過驗證的代碼</t>
+        </is>
+      </c>
+      <c r="E291" s="18" t="inlineStr">
+        <is>
+          <t>部署根據 DevSecOps 實踐驗證和掃描漏洞的受信任代碼。</t>
+        </is>
+      </c>
       <c r="F291" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -15984,7 +15984,7 @@
       <c r="K291" s="19" t="n"/>
       <c r="L291" s="19" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M291" s="20" t="n"/>
@@ -15996,25 +15996,29 @@
     <row r="292">
       <c r="A292" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B292" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C292" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D292" s="18" t="inlineStr">
         <is>
-          <t>使用 SLA 支援的 AKS 產品/服務</t>
-        </is>
-      </c>
-      <c r="E292" s="18" t="n"/>
+          <t>使用最新的平臺、語言、協定和框架</t>
+        </is>
+      </c>
+      <c r="E292" s="18" t="inlineStr">
+        <is>
+          <t>使用最新版本的受支援平臺、程式設計語言、協定和框架。</t>
+        </is>
+      </c>
       <c r="F292" s="18" t="inlineStr">
         <is>
           <t>高</t>
@@ -16032,14 +16036,10 @@
         </is>
       </c>
       <c r="J292" s="13" t="n"/>
-      <c r="K292" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K292" s="19" t="n"/>
       <c r="L292" s="19" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M292" s="20" t="n"/>
@@ -16066,7 +16066,7 @@
       </c>
       <c r="D293" s="18" t="inlineStr">
         <is>
-          <t>在容器和部署定義中使用中斷預算</t>
+          <t>如果 AKS Windows 工作負載需要，可以使用 HostProcess 容器</t>
         </is>
       </c>
       <c r="E293" s="18" t="n"/>
@@ -16090,7 +16090,7 @@
       <c r="K293" s="19" t="n"/>
       <c r="L293" s="19" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M293" s="20" t="n"/>
@@ -16107,23 +16107,23 @@
       </c>
       <c r="B294" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C294" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D294" s="18" t="inlineStr">
         <is>
-          <t>如果使用專用註冊表，請配置區域複製以將映像存儲在多個區域中</t>
+          <t>如果運行事件驅動的工作負載，請使用KEDA</t>
         </is>
       </c>
       <c r="E294" s="18" t="n"/>
       <c r="F294" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -16141,7 +16141,7 @@
       <c r="K294" s="19" t="n"/>
       <c r="L294" s="19" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M294" s="20" t="n"/>
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B295" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C295" s="18" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="D295" s="18" t="inlineStr">
         <is>
-          <t>使用外部應用（如 kubecost）將成本分配給不同的使用者</t>
+          <t>使用 Dapr 簡化微服務開發</t>
         </is>
       </c>
       <c r="E295" s="18" t="n"/>
@@ -16192,7 +16192,7 @@
       <c r="K295" s="19" t="n"/>
       <c r="L295" s="19" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M295" s="20" t="n"/>
@@ -16209,7 +16209,7 @@
       </c>
       <c r="B296" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C296" s="18" t="inlineStr">
@@ -16219,13 +16219,13 @@
       </c>
       <c r="D296" s="18" t="inlineStr">
         <is>
-          <t>使用縮減模式刪除/取消分配節點</t>
+          <t>使用 SLA 支援的 AKS 產品/服務</t>
         </is>
       </c>
       <c r="E296" s="18" t="n"/>
       <c r="F296" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -16240,10 +16240,14 @@
         </is>
       </c>
       <c r="J296" s="13" t="n"/>
-      <c r="K296" s="19" t="n"/>
+      <c r="K296" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L296" s="19" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M296" s="20" t="n"/>
@@ -16260,7 +16264,7 @@
       </c>
       <c r="B297" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C297" s="18" t="inlineStr">
@@ -16270,13 +16274,13 @@
       </c>
       <c r="D297" s="18" t="inlineStr">
         <is>
-          <t>需要時，請在 AKS 群集上使用多實例分組 GPU</t>
+          <t>在容器和部署定義中使用中斷預算</t>
         </is>
       </c>
       <c r="E297" s="18" t="n"/>
       <c r="F297" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -16294,7 +16298,7 @@
       <c r="K297" s="19" t="n"/>
       <c r="L297" s="19" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M297" s="20" t="n"/>
@@ -16311,23 +16315,23 @@
       </c>
       <c r="B298" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C298" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D298" s="18" t="inlineStr">
         <is>
-          <t>如果運行開發/測試群集，請使用 NodePool Start/Stop</t>
+          <t>如果使用專用註冊表，請配置區域複製以將映像存儲在多個區域中</t>
         </is>
       </c>
       <c r="E298" s="18" t="n"/>
       <c r="F298" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -16345,7 +16349,7 @@
       <c r="K298" s="19" t="n"/>
       <c r="L298" s="19" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M298" s="20" t="n"/>
@@ -16362,7 +16366,7 @@
       </c>
       <c r="B299" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C299" s="18" t="inlineStr">
@@ -16372,13 +16376,13 @@
       </c>
       <c r="D299" s="18" t="inlineStr">
         <is>
-          <t>使用適用於 Kubernetes 的 Azure Policy 確保群集符合性</t>
+          <t>使用外部應用（如 kubecost）將成本分配給不同的使用者</t>
         </is>
       </c>
       <c r="E299" s="18" t="n"/>
       <c r="F299" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -16393,14 +16397,10 @@
         </is>
       </c>
       <c r="J299" s="13" t="n"/>
-      <c r="K299" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K299" s="19" t="n"/>
       <c r="L299" s="19" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M299" s="20" t="n"/>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="B300" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C300" s="18" t="inlineStr">
@@ -16427,13 +16427,13 @@
       </c>
       <c r="D300" s="18" t="inlineStr">
         <is>
-          <t>使用使用者/系統節點池將應用程式與控制平面分開</t>
+          <t>使用縮減模式刪除/取消分配節點</t>
         </is>
       </c>
       <c r="E300" s="18" t="n"/>
       <c r="F300" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -16448,14 +16448,10 @@
         </is>
       </c>
       <c r="J300" s="13" t="n"/>
-      <c r="K300" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
-        </is>
-      </c>
+      <c r="K300" s="19" t="n"/>
       <c r="L300" s="19" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M300" s="20" t="n"/>
@@ -16472,7 +16468,7 @@
       </c>
       <c r="B301" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C301" s="18" t="inlineStr">
@@ -16482,13 +16478,13 @@
       </c>
       <c r="D301" s="18" t="inlineStr">
         <is>
-          <t>向系統節點池添加污點以使其專用</t>
+          <t>需要時，請在 AKS 群集上使用多實例分組 GPU</t>
         </is>
       </c>
       <c r="E301" s="18" t="n"/>
       <c r="F301" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -16506,7 +16502,7 @@
       <c r="K301" s="19" t="n"/>
       <c r="L301" s="19" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M301" s="20" t="n"/>
@@ -16523,7 +16519,7 @@
       </c>
       <c r="B302" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C302" s="18" t="inlineStr">
@@ -16533,13 +16529,13 @@
       </c>
       <c r="D302" s="18" t="inlineStr">
         <is>
-          <t>對映像使用專用註冊表，例如 ACR</t>
+          <t>如果運行開發/測試群集，請使用 NodePool Start/Stop</t>
         </is>
       </c>
       <c r="E302" s="18" t="n"/>
       <c r="F302" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -16557,7 +16553,7 @@
       <c r="K302" s="19" t="n"/>
       <c r="L302" s="19" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M302" s="20" t="n"/>
@@ -16579,12 +16575,12 @@
       </c>
       <c r="C303" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D303" s="18" t="inlineStr">
         <is>
-          <t>掃描映像以查找漏洞</t>
+          <t>使用適用於 Kubernetes 的 Azure Policy 確保群集符合性</t>
         </is>
       </c>
       <c r="E303" s="18" t="n"/>
@@ -16605,10 +16601,14 @@
         </is>
       </c>
       <c r="J303" s="13" t="n"/>
-      <c r="K303" s="19" t="n"/>
+      <c r="K303" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L303" s="19" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M303" s="20" t="n"/>
@@ -16635,13 +16635,13 @@
       </c>
       <c r="D304" s="18" t="inlineStr">
         <is>
-          <t>定義應用分離要求（命名空間/節點池/集群）</t>
+          <t>使用使用者/系統節點池將應用程式與控制平面分開</t>
         </is>
       </c>
       <c r="E304" s="18" t="n"/>
       <c r="F304" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -16656,10 +16656,14 @@
         </is>
       </c>
       <c r="J304" s="13" t="n"/>
-      <c r="K304" s="19" t="n"/>
+      <c r="K304" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
+        </is>
+      </c>
       <c r="L304" s="19" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M304" s="20" t="n"/>
@@ -16686,13 +16690,13 @@
       </c>
       <c r="D305" s="18" t="inlineStr">
         <is>
-          <t>使用 CSI 機密存儲驅動程式將機密存儲在 Azure Key Vault 中</t>
+          <t>向系統節點池添加污點以使其專用</t>
         </is>
       </c>
       <c r="E305" s="18" t="n"/>
       <c r="F305" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -16710,7 +16714,7 @@
       <c r="K305" s="19" t="n"/>
       <c r="L305" s="19" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M305" s="20" t="n"/>
@@ -16737,13 +16741,13 @@
       </c>
       <c r="D306" s="18" t="inlineStr">
         <is>
-          <t>如果將服務主體用於群集，請定期刷新憑據（如每季度）</t>
+          <t>對映像使用專用註冊表，例如 ACR</t>
         </is>
       </c>
       <c r="E306" s="18" t="n"/>
       <c r="F306" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -16761,7 +16765,7 @@
       <c r="K306" s="19" t="n"/>
       <c r="L306" s="19" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M306" s="20" t="n"/>
@@ -16783,12 +16787,12 @@
       </c>
       <c r="C307" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D307" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請添加金鑰管理服務 etcd 加密</t>
+          <t>掃描映像以查找漏洞</t>
         </is>
       </c>
       <c r="E307" s="18" t="n"/>
@@ -16812,7 +16816,7 @@
       <c r="K307" s="19" t="n"/>
       <c r="L307" s="19" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M307" s="20" t="n"/>
@@ -16839,13 +16843,13 @@
       </c>
       <c r="D308" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請考慮使用適用於 AKS 的機密計算</t>
+          <t>定義應用分離要求（命名空間/節點池/集群）</t>
         </is>
       </c>
       <c r="E308" s="18" t="n"/>
       <c r="F308" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -16863,7 +16867,7 @@
       <c r="K308" s="19" t="n"/>
       <c r="L308" s="19" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M308" s="20" t="n"/>
@@ -16890,7 +16894,7 @@
       </c>
       <c r="D309" s="18" t="inlineStr">
         <is>
-          <t>考慮使用 Defender for Containers</t>
+          <t>使用 CSI 機密存儲驅動程式將機密存儲在 Azure Key Vault 中</t>
         </is>
       </c>
       <c r="E309" s="18" t="n"/>
@@ -16914,7 +16918,7 @@
       <c r="K309" s="19" t="n"/>
       <c r="L309" s="19" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M309" s="20" t="n"/>
@@ -16941,7 +16945,7 @@
       </c>
       <c r="D310" s="18" t="inlineStr">
         <is>
-          <t>使用託管標識而不是服務主體</t>
+          <t>如果將服務主體用於群集，請定期刷新憑據（如每季度）</t>
         </is>
       </c>
       <c r="E310" s="18" t="n"/>
@@ -16962,14 +16966,10 @@
         </is>
       </c>
       <c r="J310" s="13" t="n"/>
-      <c r="K310" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K310" s="19" t="n"/>
       <c r="L310" s="19" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M310" s="20" t="n"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="D311" s="18" t="inlineStr">
         <is>
-          <t>將身份驗證與 AAD（使用託管集成）集成</t>
+          <t>如果需要，請添加金鑰管理服務 etcd 加密</t>
         </is>
       </c>
       <c r="E311" s="18" t="n"/>
@@ -17017,14 +17017,10 @@
         </is>
       </c>
       <c r="J311" s="13" t="n"/>
-      <c r="K311" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K311" s="19" t="n"/>
       <c r="L311" s="19" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M311" s="20" t="n"/>
@@ -17051,13 +17047,13 @@
       </c>
       <c r="D312" s="18" t="inlineStr">
         <is>
-          <t>限制對管理員 kubeconfig （get-credentials --admin） 的訪問</t>
+          <t>如果需要，請考慮使用適用於 AKS 的機密計算</t>
         </is>
       </c>
       <c r="E312" s="18" t="n"/>
       <c r="F312" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -17075,7 +17071,7 @@
       <c r="K312" s="19" t="n"/>
       <c r="L312" s="19" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M312" s="20" t="n"/>
@@ -17102,7 +17098,7 @@
       </c>
       <c r="D313" s="18" t="inlineStr">
         <is>
-          <t>將授權與 AAD RBAC 集成</t>
+          <t>考慮使用 Defender for Containers</t>
         </is>
       </c>
       <c r="E313" s="18" t="n"/>
@@ -17126,7 +17122,7 @@
       <c r="K313" s="19" t="n"/>
       <c r="L313" s="19" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M313" s="20" t="n"/>
@@ -17153,7 +17149,7 @@
       </c>
       <c r="D314" s="18" t="inlineStr">
         <is>
-          <t>在 Kubernetes 中使用命名空間限制 RBAC 許可權</t>
+          <t>使用託管標識而不是服務主體</t>
         </is>
       </c>
       <c r="E314" s="18" t="n"/>
@@ -17174,10 +17170,14 @@
         </is>
       </c>
       <c r="J314" s="13" t="n"/>
-      <c r="K314" s="19" t="n"/>
+      <c r="K314" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L314" s="19" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M314" s="20" t="n"/>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="D315" s="18" t="inlineStr">
         <is>
-          <t>對於 Pod Identity Access Management，請使用 Azure AD 工作負載標識（預覽版）</t>
+          <t>將身份驗證與 AAD（使用託管集成）集成</t>
         </is>
       </c>
       <c r="E315" s="18" t="n"/>
@@ -17225,10 +17225,14 @@
         </is>
       </c>
       <c r="J315" s="13" t="n"/>
-      <c r="K315" s="19" t="n"/>
+      <c r="K315" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L315" s="19" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M315" s="20" t="n"/>
@@ -17255,7 +17259,7 @@
       </c>
       <c r="D316" s="18" t="inlineStr">
         <is>
-          <t>對於 AKS 非互動式登錄名，請使用 kubelogin（預覽版）</t>
+          <t>限制對管理員 kubeconfig （get-credentials --admin） 的訪問</t>
         </is>
       </c>
       <c r="E316" s="18" t="n"/>
@@ -17279,7 +17283,7 @@
       <c r="K316" s="19" t="n"/>
       <c r="L316" s="19" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M316" s="20" t="n"/>
@@ -17306,7 +17310,7 @@
       </c>
       <c r="D317" s="18" t="inlineStr">
         <is>
-          <t>禁用 AKS 本地帳戶</t>
+          <t>將授權與 AAD RBAC 集成</t>
         </is>
       </c>
       <c r="E317" s="18" t="n"/>
@@ -17327,14 +17331,10 @@
         </is>
       </c>
       <c r="J317" s="13" t="n"/>
-      <c r="K317" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K317" s="19" t="n"/>
       <c r="L317" s="19" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M317" s="20" t="n"/>
@@ -17361,13 +17361,13 @@
       </c>
       <c r="D318" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請配置 Just-in-time 群集訪問</t>
+          <t>在 Kubernetes 中使用命名空間限制 RBAC 許可權</t>
         </is>
       </c>
       <c r="E318" s="18" t="n"/>
       <c r="F318" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -17385,7 +17385,7 @@
       <c r="K318" s="19" t="n"/>
       <c r="L318" s="19" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M318" s="20" t="n"/>
@@ -17412,13 +17412,13 @@
       </c>
       <c r="D319" s="18" t="inlineStr">
         <is>
-          <t>如果需要，為 AKS 配置 AAD 條件訪問</t>
+          <t>對於 Pod Identity Access Management，請使用 Azure AD 工作負載標識（預覽版）</t>
         </is>
       </c>
       <c r="E319" s="18" t="n"/>
       <c r="F319" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -17436,7 +17436,7 @@
       <c r="K319" s="19" t="n"/>
       <c r="L319" s="19" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M319" s="20" t="n"/>
@@ -17463,13 +17463,13 @@
       </c>
       <c r="D320" s="18" t="inlineStr">
         <is>
-          <t>如果 Windows AKS 工作負載需要，請配置 gMSA</t>
+          <t>對於 AKS 非互動式登錄名，請使用 kubelogin（預覽版）</t>
         </is>
       </c>
       <c r="E320" s="18" t="n"/>
       <c r="F320" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -17487,7 +17487,7 @@
       <c r="K320" s="19" t="n"/>
       <c r="L320" s="19" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M320" s="20" t="n"/>
@@ -17514,7 +17514,7 @@
       </c>
       <c r="D321" s="18" t="inlineStr">
         <is>
-          <t>為了獲得更精細的控制，請考慮使用託管的 Kubelet 身份</t>
+          <t>禁用 AKS 本地帳戶</t>
         </is>
       </c>
       <c r="E321" s="18" t="n"/>
@@ -17535,10 +17535,14 @@
         </is>
       </c>
       <c r="J321" s="13" t="n"/>
-      <c r="K321" s="19" t="n"/>
+      <c r="K321" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L321" s="19" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M321" s="20" t="n"/>
@@ -17555,7 +17559,7 @@
       </c>
       <c r="B322" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C322" s="18" t="inlineStr">
@@ -17565,13 +17569,13 @@
       </c>
       <c r="D322" s="18" t="inlineStr">
         <is>
-          <t>如果使用 AGIC，請勿跨集群共用 AppGW</t>
+          <t>如果需要，請配置 Just-in-time 群集訪問</t>
         </is>
       </c>
       <c r="E322" s="18" t="n"/>
       <c r="F322" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -17589,7 +17593,7 @@
       <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M322" s="20" t="n"/>
@@ -17606,7 +17610,7 @@
       </c>
       <c r="B323" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C323" s="18" t="inlineStr">
@@ -17616,13 +17620,13 @@
       </c>
       <c r="D323" s="18" t="inlineStr">
         <is>
-          <t>不要使用 AKS HTTP 路由載入項，而是將託管 NGINX 入口與應用程式路由載入項一起使用。</t>
+          <t>如果需要，為 AKS 配置 AAD 條件訪問</t>
         </is>
       </c>
       <c r="E323" s="18" t="n"/>
       <c r="F323" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -17637,14 +17641,10 @@
         </is>
       </c>
       <c r="J323" s="13" t="n"/>
-      <c r="K323" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K323" s="19" t="n"/>
       <c r="L323" s="19" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M323" s="20" t="n"/>
@@ -17661,7 +17661,7 @@
       </c>
       <c r="B324" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C324" s="18" t="inlineStr">
@@ -17671,13 +17671,13 @@
       </c>
       <c r="D324" s="18" t="inlineStr">
         <is>
-          <t>對於 Windows 工作負載，請使用加速網路</t>
+          <t>如果 Windows AKS 工作負載需要，請配置 gMSA</t>
         </is>
       </c>
       <c r="E324" s="18" t="n"/>
       <c r="F324" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -17695,7 +17695,7 @@
       <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M324" s="20" t="n"/>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="B325" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C325" s="18" t="inlineStr">
@@ -17722,13 +17722,13 @@
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>使用標準 ALB（而不是基本 ALB）</t>
+          <t>為了獲得更精細的控制，請考慮使用託管的 Kubelet 身份</t>
         </is>
       </c>
       <c r="E325" s="18" t="n"/>
       <c r="F325" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -17743,14 +17743,10 @@
         </is>
       </c>
       <c r="J325" s="13" t="n"/>
-      <c r="K325" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K325" s="19" t="n"/>
       <c r="L325" s="19" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M325" s="20" t="n"/>
@@ -17767,7 +17763,7 @@
       </c>
       <c r="B326" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C326" s="18" t="inlineStr">
@@ -17777,7 +17773,7 @@
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure CNI，請考慮對 NodePool 使用不同的子網</t>
+          <t>如果使用 AGIC，請勿跨集群共用 AppGW</t>
         </is>
       </c>
       <c r="E326" s="18" t="n"/>
@@ -17801,7 +17797,7 @@
       <c r="K326" s="19" t="n"/>
       <c r="L326" s="19" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M326" s="20" t="n"/>
@@ -17818,7 +17814,7 @@
       </c>
       <c r="B327" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C327" s="18" t="inlineStr">
@@ -17828,13 +17824,13 @@
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>使用專用終結點（首選）或虛擬網路服務終結點從群集訪問 PaaS 服務</t>
+          <t>不要使用 AKS HTTP 路由載入項，而是將託管 NGINX 入口與應用程式路由載入項一起使用。</t>
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
       <c r="F327" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -17849,10 +17845,14 @@
         </is>
       </c>
       <c r="J327" s="13" t="n"/>
-      <c r="K327" s="19" t="n"/>
+      <c r="K327" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="B328" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C328" s="18" t="inlineStr">
@@ -17879,13 +17879,13 @@
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>選擇最適合你要求的 CNI 網路外掛程式（建議使用 Azure CNI）</t>
+          <t>對於 Windows 工作負載，請使用加速網路</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
       <c r="F328" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -17900,14 +17900,10 @@
         </is>
       </c>
       <c r="J328" s="13" t="n"/>
-      <c r="K328" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K328" s="19" t="n"/>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17924,7 +17920,7 @@
       </c>
       <c r="B329" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C329" s="18" t="inlineStr">
@@ -17934,7 +17930,7 @@
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure CNI，請根據每個節點的最大 Pod 數相應地調整子網的大小</t>
+          <t>使用標準 ALB（而不是基本 ALB）</t>
         </is>
       </c>
       <c r="E329" s="18" t="n"/>
@@ -17955,10 +17951,14 @@
         </is>
       </c>
       <c r="J329" s="13" t="n"/>
-      <c r="K329" s="19" t="n"/>
+      <c r="K329" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -17975,7 +17975,7 @@
       </c>
       <c r="B330" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C330" s="18" t="inlineStr">
@@ -17985,13 +17985,13 @@
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure CNI，請檢查每個節點的最大 Pod 數（預設為 30）</t>
+          <t>如果使用 Azure CNI，請考慮對 NodePool 使用不同的子網</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
       <c r="F330" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -18009,7 +18009,7 @@
       <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -18036,17 +18036,13 @@
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>如果使用專用IP LoadBalancer服務，請使用專用子網（而不是 AKS 子網）</t>
-        </is>
-      </c>
-      <c r="E331" s="18" t="inlineStr">
-        <is>
-          <t>對於內部應用，組織通常會在其防火牆中打開整個AKS子網。這也會打開對節點的網路訪問，並可能打開對 Pod 的訪問（如果使用 Azure CNI）。如果 LoadBalancer IP 位於不同的子網中，則只有此子網可供應用用戶端使用。另一個原因是，如果 AKS 子網中的 IP 位址是稀缺資源，則將其 IP 位址用於服務會降低群集的最大可伸縮性。</t>
-        </is>
-      </c>
+          <t>使用專用終結點（首選）或虛擬網路服務終結點從群集訪問 PaaS 服務</t>
+        </is>
+      </c>
+      <c r="E331" s="18" t="n"/>
       <c r="F331" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -18064,7 +18060,7 @@
       <c r="K331" s="19" t="n"/>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -18091,7 +18087,7 @@
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>相應調整服務 IP 位址範圍的大小（這將限制群集的可伸縮性）</t>
+          <t>選擇最適合你要求的 CNI 網路外掛程式（建議使用 Azure CNI）</t>
         </is>
       </c>
       <c r="E332" s="18" t="n"/>
@@ -18112,10 +18108,14 @@
         </is>
       </c>
       <c r="J332" s="13" t="n"/>
-      <c r="K332" s="19" t="n"/>
+      <c r="K332" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="B333" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C333" s="18" t="inlineStr">
@@ -18142,13 +18142,13 @@
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請添加您自己的 CNI 外掛程式</t>
+          <t>如果使用 Azure CNI，請根據每個節點的最大 Pod 數相應地調整子網的大小</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
       <c r="F333" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -18166,7 +18166,7 @@
       <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -18193,13 +18193,13 @@
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請在 AKS 中配置每個節點的公共 IP</t>
+          <t>如果使用 Azure CNI，請檢查每個節點的最大 Pod 數（預設為 30）</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
       <c r="F334" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -18217,7 +18217,7 @@
       <c r="K334" s="19" t="n"/>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="B335" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C335" s="18" t="inlineStr">
@@ -18244,13 +18244,17 @@
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>使用入口控制器公開基於 Web 的應用，而不是使用 LoadBalancer 類型的服務公開它們</t>
-        </is>
-      </c>
-      <c r="E335" s="18" t="n"/>
+          <t>如果使用專用IP LoadBalancer服務，請使用專用子網（而不是 AKS 子網）</t>
+        </is>
+      </c>
+      <c r="E335" s="18" t="inlineStr">
+        <is>
+          <t>對於內部應用，組織通常會在其防火牆中打開整個AKS子網。這也會打開對節點的網路訪問，並可能打開對 Pod 的訪問（如果使用 Azure CNI）。如果 LoadBalancer IP 位於不同的子網中，則只有此子網可供應用用戶端使用。另一個原因是，如果 AKS 子網中的 IP 位址是稀缺資源，則將其 IP 位址用於服務會降低群集的最大可伸縮性。</t>
+        </is>
+      </c>
       <c r="F335" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -18268,7 +18272,7 @@
       <c r="K335" s="19" t="n"/>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -18295,13 +18299,13 @@
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure NAT 閘道作為 outboundType 來縮放出口流量</t>
+          <t>相應調整服務 IP 位址範圍的大小（這將限制群集的可伸縮性）</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
       <c r="F336" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -18319,7 +18323,7 @@
       <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -18336,7 +18340,7 @@
       </c>
       <c r="B337" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C337" s="18" t="inlineStr">
@@ -18346,13 +18350,13 @@
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>使用IP的動態分配來避免 Azure CNI IP 耗盡</t>
+          <t>如果需要，請添加您自己的 CNI 外掛程式</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
       <c r="F337" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -18370,7 +18374,7 @@
       <c r="K337" s="19" t="n"/>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -18387,7 +18391,7 @@
       </c>
       <c r="B338" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C338" s="18" t="inlineStr">
@@ -18397,13 +18401,13 @@
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>如果安全要求要求，請使用 AzFW/NVA 篩選出口流量</t>
+          <t>如果需要，請在 AKS 中配置每個節點的公共 IP</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
       <c r="F338" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -18418,14 +18422,10 @@
         </is>
       </c>
       <c r="J338" s="13" t="n"/>
-      <c r="K338" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K338" s="19" t="n"/>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -18442,7 +18442,7 @@
       </c>
       <c r="B339" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C339" s="18" t="inlineStr">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>如果使用公共 API 終端節點，請限制可以存取它的 IP 位址</t>
+          <t>使用入口控制器公開基於 Web 的應用，而不是使用 LoadBalancer 類型的服務公開它們</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
@@ -18473,14 +18473,10 @@
         </is>
       </c>
       <c r="J339" s="13" t="n"/>
-      <c r="K339" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -18497,7 +18493,7 @@
       </c>
       <c r="B340" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C340" s="18" t="inlineStr">
@@ -18507,13 +18503,13 @@
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>如果要求要求，請使用私有集群</t>
+          <t>使用 Azure NAT 閘道作為 outboundType 來縮放出口流量</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
       <c r="F340" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -18528,14 +18524,10 @@
         </is>
       </c>
       <c r="J340" s="13" t="n"/>
-      <c r="K340" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -18552,7 +18544,7 @@
       </c>
       <c r="B341" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C341" s="18" t="inlineStr">
@@ -18562,7 +18554,7 @@
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>對於 Windows 2019 和 2022 AKS 節點，可以使用 Calico 網路策略</t>
+          <t>使用IP的動態分配來避免 Azure CNI IP 耗盡</t>
         </is>
       </c>
       <c r="E341" s="18" t="n"/>
@@ -18583,14 +18575,10 @@
         </is>
       </c>
       <c r="J341" s="13" t="n"/>
-      <c r="K341" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K341" s="19" t="n"/>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -18617,7 +18605,7 @@
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t>啟用 Kubernetes 網路策略選項 （Calico/Azure）</t>
+          <t>如果安全要求要求，請使用 AzFW/NVA 篩選出口流量</t>
         </is>
       </c>
       <c r="E342" s="18" t="n"/>
@@ -18640,12 +18628,12 @@
       <c r="J342" s="13" t="n"/>
       <c r="K342" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -18672,13 +18660,13 @@
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>使用 Kubernetes 網路策略提高集群內安全性</t>
+          <t>如果使用公共 API 終端節點，請限制可以存取它的 IP 位址</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
       <c r="F343" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -18693,10 +18681,14 @@
         </is>
       </c>
       <c r="J343" s="13" t="n"/>
-      <c r="K343" s="19" t="n"/>
+      <c r="K343" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -18723,7 +18715,7 @@
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t>將 WAF 用於 Web 工作負載（UI 或 API）</t>
+          <t>如果要求要求，請使用私有集群</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
@@ -18744,10 +18736,14 @@
         </is>
       </c>
       <c r="J344" s="13" t="n"/>
-      <c r="K344" s="19" t="n"/>
+      <c r="K344" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18774,7 +18770,7 @@
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t>在 AKS 虛擬網路中使用 DDoS 標準</t>
+          <t>對於 Windows 2019 和 2022 AKS 節點，可以使用 Calico 網路策略</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
@@ -18797,12 +18793,12 @@
       <c r="J345" s="13" t="n"/>
       <c r="K345" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18829,13 +18825,13 @@
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請添加公司 HTTP 代理</t>
+          <t>啟用 Kubernetes 網路策略選項 （Calico/Azure）</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
       <c r="F346" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -18852,12 +18848,12 @@
       <c r="J346" s="13" t="n"/>
       <c r="K346" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18884,13 +18880,13 @@
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>考慮使用服務網格進行高級微服務通信管理</t>
+          <t>使用 Kubernetes 網路策略提高集群內安全性</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
       <c r="F347" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -18908,7 +18904,7 @@
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -18925,7 +18921,7 @@
       </c>
       <c r="B348" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C348" s="18" t="inlineStr">
@@ -18935,7 +18931,7 @@
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>設定有關最關鍵指標的警報（請參閱容器見解以獲取建議）</t>
+          <t>將 WAF 用於 Web 工作負載（UI 或 API）</t>
         </is>
       </c>
       <c r="E348" s="18" t="n"/>
@@ -18959,7 +18955,7 @@
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -18976,7 +18972,7 @@
       </c>
       <c r="B349" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C349" s="18" t="inlineStr">
@@ -18986,13 +18982,13 @@
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>定期查看 Azure 顧問，瞭解有關群集的建議</t>
+          <t>在 AKS 虛擬網路中使用 DDoS 標準</t>
         </is>
       </c>
       <c r="E349" s="18" t="n"/>
       <c r="F349" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -19007,10 +19003,14 @@
         </is>
       </c>
       <c r="J349" s="13" t="n"/>
-      <c r="K349" s="19" t="n"/>
+      <c r="K349" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -19027,7 +19027,7 @@
       </c>
       <c r="B350" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C350" s="18" t="inlineStr">
@@ -19037,7 +19037,7 @@
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>啟用 AKS 自動證書輪換</t>
+          <t>如果需要，請添加公司 HTTP 代理</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
@@ -19058,10 +19058,14 @@
         </is>
       </c>
       <c r="J350" s="13" t="n"/>
-      <c r="K350" s="19" t="n"/>
+      <c r="K350" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -19078,7 +19082,7 @@
       </c>
       <c r="B351" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C351" s="18" t="inlineStr">
@@ -19088,13 +19092,13 @@
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>定期（例如，每季度）升級 kubernetes 版本，或使用 AKS 自動升級功能</t>
+          <t>考慮使用服務網格進行高級微服務通信管理</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
       <c r="F351" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -19112,7 +19116,7 @@
       <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -19139,7 +19143,7 @@
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>如果您不使用 node-image 升級，請使用 kured 進行 Linux 節點升級</t>
+          <t>設定有關最關鍵指標的警報（請參閱容器見解以獲取建議）</t>
         </is>
       </c>
       <c r="E352" s="18" t="n"/>
@@ -19163,7 +19167,7 @@
       <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -19190,13 +19194,13 @@
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>定期（例如，每周）升級群集節點映像的常規過程</t>
+          <t>定期查看 Azure 顧問，瞭解有關群集的建議</t>
         </is>
       </c>
       <c r="E353" s="18" t="n"/>
       <c r="F353" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -19214,7 +19218,7 @@
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -19241,7 +19245,7 @@
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>考慮使用 gitops 將應用程式或集群配置部署到多個集群</t>
+          <t>啟用 AKS 自動證書輪換</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
@@ -19265,7 +19269,7 @@
       <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -19292,13 +19296,13 @@
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>請考慮在專用群集上使用 AKS 命令調用</t>
+          <t>定期（例如，每季度）升級 kubernetes 版本，或使用 AKS 自動升級功能</t>
         </is>
       </c>
       <c r="E355" s="18" t="n"/>
       <c r="F355" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -19316,7 +19320,7 @@
       <c r="K355" s="19" t="n"/>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -19343,13 +19347,13 @@
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>對於計劃的事件，請考慮使用 Node Auto Drain</t>
+          <t>如果您不使用 node-image 升級，請使用 kured 進行 Linux 節點升級</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
       <c r="F356" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -19367,7 +19371,7 @@
       <c r="K356" s="19" t="n"/>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -19394,7 +19398,7 @@
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>開發自己的治理實踐，以確保節點 RG（又名“基礎設施 RG”）中的操作員不會執行任何更改</t>
+          <t>定期（例如，每周）升級群集節點映像的常規過程</t>
         </is>
       </c>
       <c r="E357" s="18" t="n"/>
@@ -19418,7 +19422,7 @@
       <c r="K357" s="19" t="n"/>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -19445,7 +19449,7 @@
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>使用自定義節點 RG（又名“Infra RG”）名稱</t>
+          <t>考慮使用 gitops 將應用程式或集群配置部署到多個集群</t>
         </is>
       </c>
       <c r="E358" s="18" t="n"/>
@@ -19466,14 +19470,10 @@
         </is>
       </c>
       <c r="J358" s="13" t="n"/>
-      <c r="K358" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -19500,13 +19500,13 @@
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>請勿在 YAML 清單中使用已棄用的 Kubernetes API</t>
+          <t>請考慮在專用群集上使用 AKS 命令調用</t>
         </is>
       </c>
       <c r="E359" s="18" t="n"/>
       <c r="F359" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -19524,7 +19524,7 @@
       <c r="K359" s="19" t="n"/>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -19551,7 +19551,7 @@
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>污染 Windows 節點</t>
+          <t>對於計劃的事件，請考慮使用 Node Auto Drain</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
@@ -19575,7 +19575,7 @@
       <c r="K360" s="19" t="n"/>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -19602,13 +19602,13 @@
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>使 Windows 容器修補程式級別與主機修補程式級別保持同步</t>
+          <t>開發自己的治理實踐，以確保節點 RG（又名“基礎設施 RG”）中的操作員不會執行任何更改</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
       <c r="F361" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -19626,7 +19626,7 @@
       <c r="K361" s="19" t="n"/>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -19653,14 +19653,10 @@
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>將主日誌（又名 API 紀錄）發送到 Azure Monitor 或首選日誌管理解決方案</t>
-        </is>
-      </c>
-      <c r="E362" s="18" t="inlineStr">
-        <is>
-          <t>通過群集級別的診斷設置</t>
-        </is>
-      </c>
+          <t>使用自定義節點 RG（又名“Infra RG”）名稱</t>
+        </is>
+      </c>
+      <c r="E362" s="18" t="n"/>
       <c r="F362" s="18" t="inlineStr">
         <is>
           <t>低</t>
@@ -19678,10 +19674,14 @@
         </is>
       </c>
       <c r="J362" s="13" t="n"/>
-      <c r="K362" s="19" t="n"/>
+      <c r="K362" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19698,7 +19698,7 @@
       </c>
       <c r="B363" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C363" s="18" t="inlineStr">
@@ -19708,13 +19708,13 @@
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請使用 nodePool 快照</t>
+          <t>請勿在 YAML 清單中使用已棄用的 Kubernetes API</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
       <c r="F363" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -19732,7 +19732,7 @@
       <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19759,7 +19759,7 @@
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>考慮將現成節點池用於對時間敏感的工作負載</t>
+          <t>污染 Windows 節點</t>
         </is>
       </c>
       <c r="E364" s="18" t="n"/>
@@ -19783,7 +19783,7 @@
       <c r="K364" s="19" t="n"/>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19810,7 +19810,7 @@
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>考慮用於快速突發的 AKS 虛擬節點</t>
+          <t>使 Windows 容器修補程式級別與主機修補程式級別保持同步</t>
         </is>
       </c>
       <c r="E365" s="18" t="n"/>
@@ -19831,14 +19831,10 @@
         </is>
       </c>
       <c r="J365" s="13" t="n"/>
-      <c r="K365" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K365" s="19" t="n"/>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -19865,13 +19861,17 @@
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>使用 Container Insights（或 Prometheus 等其他工具）監控集群指標</t>
-        </is>
-      </c>
-      <c r="E366" s="18" t="n"/>
+          <t>將主日誌（又名 API 紀錄）發送到 Azure Monitor 或首選日誌管理解決方案</t>
+        </is>
+      </c>
+      <c r="E366" s="18" t="inlineStr">
+        <is>
+          <t>通過群集級別的診斷設置</t>
+        </is>
+      </c>
       <c r="F366" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -19889,7 +19889,7 @@
       <c r="K366" s="19" t="n"/>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -19906,7 +19906,7 @@
       </c>
       <c r="B367" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C367" s="18" t="inlineStr">
@@ -19916,13 +19916,13 @@
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>使用 Container Insights（或 Telegraf/ElasticSearch 等其他工具）存儲和分析集群日誌</t>
+          <t>如果需要，請使用 nodePool 快照</t>
         </is>
       </c>
       <c r="E367" s="18" t="n"/>
       <c r="F367" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -19937,14 +19937,10 @@
         </is>
       </c>
       <c r="J367" s="13" t="n"/>
-      <c r="K367" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -19971,13 +19967,13 @@
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>監控節點的 CPU 和記憶體利用率</t>
+          <t>考慮將現成節點池用於對時間敏感的工作負載</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
       <c r="F368" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -19995,7 +19991,7 @@
       <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -20022,13 +20018,13 @@
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure CNI，請監視每個節點消耗的 Pod IP 的百分比</t>
+          <t>考慮用於快速突發的 AKS 虛擬節點</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>
       <c r="F369" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -20043,10 +20039,14 @@
         </is>
       </c>
       <c r="J369" s="13" t="n"/>
-      <c r="K369" s="19" t="n"/>
+      <c r="K369" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -20073,17 +20073,13 @@
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>監視節點中的OS磁碟佇列深度</t>
-        </is>
-      </c>
-      <c r="E370" s="18" t="inlineStr">
-        <is>
-          <t>OS 磁碟上的 I/O 是關鍵資源。如果節點中的操作系統在 I/O 上受到限制，這可能會導致不可預知的行為，通常最終導致節點被聲明為 NotReady</t>
-        </is>
-      </c>
+          <t>使用 Container Insights（或 Prometheus 等其他工具）監控集群指標</t>
+        </is>
+      </c>
+      <c r="E370" s="18" t="n"/>
       <c r="F370" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -20101,7 +20097,7 @@
       <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -20128,13 +20124,13 @@
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>如果不對 AzFW/NVA 使用出口篩選，請監視標準 ALB 分配的 SNAT 連接埠</t>
+          <t>使用 Container Insights（或 Telegraf/ElasticSearch 等其他工具）存儲和分析集群日誌</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
       <c r="F371" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -20149,10 +20145,14 @@
         </is>
       </c>
       <c r="J371" s="13" t="n"/>
-      <c r="K371" s="19" t="n"/>
+      <c r="K371" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -20179,7 +20179,7 @@
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>訂閱 AKS 群集的資源運行狀況通知</t>
+          <t>監控節點的 CPU 和記憶體利用率</t>
         </is>
       </c>
       <c r="E372" s="18" t="n"/>
@@ -20203,7 +20203,7 @@
       <c r="K372" s="19" t="n"/>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -20230,13 +20230,13 @@
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>在 Pod 規範中配置請求和限制</t>
+          <t>如果使用 Azure CNI，請監視每個節點消耗的 Pod IP 的百分比</t>
         </is>
       </c>
       <c r="E373" s="18" t="n"/>
       <c r="F373" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -20254,7 +20254,7 @@
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -20281,10 +20281,14 @@
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>強制實施命名空間的資源配額</t>
-        </is>
-      </c>
-      <c r="E374" s="18" t="n"/>
+          <t>監視節點中的OS磁碟佇列深度</t>
+        </is>
+      </c>
+      <c r="E374" s="18" t="inlineStr">
+        <is>
+          <t>OS 磁碟上的 I/O 是關鍵資源。如果節點中的操作系統在 I/O 上受到限制，這可能會導致不可預知的行為，通常最終導致節點被聲明為 NotReady</t>
+        </is>
+      </c>
       <c r="F374" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -20305,7 +20309,7 @@
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -20332,13 +20336,13 @@
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>確保訂閱具有足夠的配額來橫向擴展節點池</t>
+          <t>如果不對 AzFW/NVA 使用出口篩選，請監視標準 ALB 分配的 SNAT 連接埠</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
       <c r="F375" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -20356,7 +20360,7 @@
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -20373,7 +20377,7 @@
       </c>
       <c r="B376" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C376" s="18" t="inlineStr">
@@ -20383,7 +20387,7 @@
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>使用群集自動縮放程式</t>
+          <t>訂閱 AKS 群集的資源運行狀況通知</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
@@ -20404,14 +20408,10 @@
         </is>
       </c>
       <c r="J376" s="13" t="n"/>
-      <c r="K376" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -20428,7 +20428,7 @@
       </c>
       <c r="B377" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C377" s="18" t="inlineStr">
@@ -20438,13 +20438,13 @@
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>自定義 AKS 節點池的節點配置</t>
+          <t>在 Pod 規範中配置請求和限制</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
       <c r="F377" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -20459,14 +20459,10 @@
         </is>
       </c>
       <c r="J377" s="13" t="n"/>
-      <c r="K377" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -20483,7 +20479,7 @@
       </c>
       <c r="B378" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C378" s="18" t="inlineStr">
@@ -20493,7 +20489,7 @@
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>需要時使用 Horizontal Pod Autoscaler</t>
+          <t>強制實施命名空間的資源配額</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
@@ -20517,7 +20513,7 @@
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -20534,7 +20530,7 @@
       </c>
       <c r="B379" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C379" s="18" t="inlineStr">
@@ -20544,14 +20540,10 @@
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>考慮適當的節點大小，不要太大或太小</t>
-        </is>
-      </c>
-      <c r="E379" s="18" t="inlineStr">
-        <is>
-          <t>更大的節點將帶來更高的性能和功能，例如臨時磁碟和加速網路，但它們會增加爆炸半徑並降低擴展粒度</t>
-        </is>
-      </c>
+          <t>確保訂閱具有足夠的配額來橫向擴展節點池</t>
+        </is>
+      </c>
+      <c r="E379" s="18" t="n"/>
       <c r="F379" s="18" t="inlineStr">
         <is>
           <t>高</t>
@@ -20572,7 +20564,7 @@
       <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -20599,13 +20591,13 @@
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>如果可伸縮性需要超過 5000 個節點，請考慮使用其他 AKS 群集</t>
+          <t>使用群集自動縮放程式</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
       <c r="F380" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -20620,10 +20612,14 @@
         </is>
       </c>
       <c r="J380" s="13" t="n"/>
-      <c r="K380" s="19" t="n"/>
+      <c r="K380" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -20650,7 +20646,7 @@
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>考慮訂閱 EventGrid Events for AKS 自動化</t>
+          <t>自定義 AKS 節點池的節點配置</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
@@ -20671,10 +20667,14 @@
         </is>
       </c>
       <c r="J381" s="13" t="n"/>
-      <c r="K381" s="19" t="n"/>
+      <c r="K381" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20701,13 +20701,13 @@
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>若要在 AKS 群集上長時間運行操作，請考慮事件終止</t>
+          <t>需要時使用 Horizontal Pod Autoscaler</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
       <c r="F382" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -20725,7 +20725,7 @@
       <c r="K382" s="19" t="n"/>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20752,13 +20752,17 @@
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請考慮將 Azure 專用主機用於 AKS 節點</t>
-        </is>
-      </c>
-      <c r="E383" s="18" t="n"/>
+          <t>考慮適當的節點大小，不要太大或太小</t>
+        </is>
+      </c>
+      <c r="E383" s="18" t="inlineStr">
+        <is>
+          <t>更大的節點將帶來更高的性能和功能，例如臨時磁碟和加速網路，但它們會增加爆炸半徑並降低擴展粒度</t>
+        </is>
+      </c>
       <c r="F383" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -20776,7 +20780,7 @@
       <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20803,13 +20807,13 @@
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>使用臨時OS磁碟</t>
+          <t>如果可伸縮性需要超過 5000 個節點，請考慮使用其他 AKS 群集</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
       <c r="F384" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -20824,14 +20828,10 @@
         </is>
       </c>
       <c r="J384" s="13" t="n"/>
-      <c r="K384" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
-        </is>
-      </c>
+      <c r="K384" s="19" t="n"/>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20858,13 +20858,13 @@
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>對於非臨時磁碟，在運行多個 Pod/節點時，請為節點使用高 IOPS 和更大的 OS 磁碟，因為它需要高性能才能運行多個 Pod，並且會生成具有預設 AKS 日誌輪換閾值的大量日誌</t>
+          <t>考慮訂閱 EventGrid Events for AKS 自動化</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
       <c r="F385" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -20882,7 +20882,7 @@
       <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>對於超高性能存儲選項，請在 AKS 上使用超級磁碟For hyper performance storage option use Ultra Disks on AKS</t>
+          <t>若要在 AKS 群集上長時間運行操作，請考慮事件終止</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
@@ -20933,7 +20933,7 @@
       <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20960,13 +20960,13 @@
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>避免將狀態保留在群集中，並將數據存儲在外部（AzStorage、AzSQL、Cosmos 等）</t>
+          <t>如果需要，請考慮將 Azure 專用主機用於 AKS 節點</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
       <c r="F387" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -20984,7 +20984,7 @@
       <c r="K387" s="19" t="n"/>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -21011,13 +21011,13 @@
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>如果使用 AzFiles Standard，出於性能原因，請考慮使用 AzFiles Premium 和/或 ANF</t>
+          <t>使用臨時OS磁碟</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
       <c r="F388" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -21032,10 +21032,14 @@
         </is>
       </c>
       <c r="J388" s="13" t="n"/>
-      <c r="K388" s="19" t="n"/>
+      <c r="K388" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -21062,13 +21066,13 @@
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure 磁碟和可用區，請考慮在區域內為 LRS 磁碟設置節點池，並使用 VolumeBindingMode：WaitForFirstConsumer 在正確的區域中預配存儲，或將 ZRS 磁碟用於跨多個區域的節點池</t>
+          <t>對於非臨時磁碟，在運行多個 Pod/節點時，請為節點使用高 IOPS 和更大的 OS 磁碟，因為它需要高性能才能運行多個 Pod，並且會生成具有預設 AKS 日誌輪換閾值的大量日誌</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
       <c r="F389" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -21086,7 +21090,7 @@
       <c r="K389" s="19" t="n"/>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -21098,28 +21102,28 @@
     <row r="390">
       <c r="A390" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B390" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C390" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>確保在本機 Azure 的標識訂閱中部署了 ADDS 域控制器</t>
+          <t>對於超高性能存儲選項，請在 AKS 上使用超級磁碟For hyper performance storage option use Ultra Disks on AKS</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
       <c r="F390" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -21128,12 +21132,16 @@
         </is>
       </c>
       <c r="H390" s="18" t="n"/>
-      <c r="I390" s="13" t="n"/>
+      <c r="I390" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J390" s="13" t="n"/>
       <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -21145,22 +21153,22 @@
     <row r="391">
       <c r="A391" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B391" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C391" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>確保將 ADDS 網站和服務配置為將來自基於 Azure 的資源（包括 Azure VMware 解決方案）的身份驗證請求保留到 Azure 本地</t>
+          <t>避免將狀態保留在群集中，並將數據存儲在外部（AzStorage、AzSQL、Cosmos 等）</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
@@ -21175,12 +21183,16 @@
         </is>
       </c>
       <c r="H391" s="18" t="n"/>
-      <c r="I391" s="13" t="n"/>
+      <c r="I391" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J391" s="13" t="n"/>
       <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>75089c20-990d-4927-b105-885576f76fc2</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -21192,28 +21204,28 @@
     <row r="392">
       <c r="A392" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B392" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C392" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>確保 vCenter 已連接到 ADDS，以啟用基於「指定用戶帳戶」的身份驗證</t>
+          <t>如果使用 AzFiles Standard，出於性能原因，請考慮使用 AzFiles Premium 和/或 ANF</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
       <c r="F392" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -21222,12 +21234,16 @@
         </is>
       </c>
       <c r="H392" s="18" t="n"/>
-      <c r="I392" s="13" t="n"/>
+      <c r="I392" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J392" s="13" t="n"/>
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -21239,22 +21255,22 @@
     <row r="393">
       <c r="A393" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B393" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C393" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>確保從 vCenter 到 ADDS 的連接使用安全協定 （LDAPS）</t>
+          <t>如果使用 Azure 磁碟和可用區，請考慮在區域內為 LRS 磁碟設置節點池，並使用 VolumeBindingMode：WaitForFirstConsumer 在正確的區域中預配存儲，或將 ZRS 磁碟用於跨多個區域的節點池</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
@@ -21269,12 +21285,16 @@
         </is>
       </c>
       <c r="H393" s="18" t="n"/>
-      <c r="I393" s="13" t="n"/>
+      <c r="I393" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J393" s="13" t="n"/>
       <c r="K393" s="19" t="n"/>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -21301,13 +21321,13 @@
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>vCenter IdP 中的 CloudAdmin 帳戶僅用作緊急帳戶 （break-glass）</t>
+          <t>確保在本機 Azure 的標識訂閱中部署了 ADDS 域控制器</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
       <c r="F394" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -21321,7 +21341,7 @@
       <c r="K394" s="19" t="n"/>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -21348,13 +21368,13 @@
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>確保 NSX-Manager 與外部身份提供程式 （LDAPS） 集成</t>
+          <t>確保將 ADDS 網站和服務配置為將來自基於 Azure 的資源（包括 Azure VMware 解決方案）的身份驗證請求保留到 Azure 本地</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
       <c r="F395" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -21368,7 +21388,7 @@
       <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -21395,13 +21415,13 @@
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>是否已創建 RBAC 模型以在 VMware vSphere 中使用</t>
+          <t>確保 vCenter 已連接到 ADDS，以啟用基於「指定用戶帳戶」的身份驗證</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
       <c r="F396" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -21415,7 +21435,7 @@
       <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -21442,7 +21462,7 @@
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>RBAC 許可權應授予 ADDS 組，而不是特定使用者</t>
+          <t>確保從 vCenter 到 ADDS 的連接使用安全協定 （LDAPS）</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
@@ -21462,7 +21482,7 @@
       <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -21489,13 +21509,13 @@
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>Azure 中 Azure VMware 解決方案資源的 RBAC 許可權僅「鎖定」為一組有限的擁有者</t>
+          <t>vCenter IdP 中的 CloudAdmin 帳戶僅用作緊急帳戶 （break-glass）</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
       <c r="F398" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -21509,7 +21529,7 @@
       <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -21536,7 +21556,7 @@
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>確保所有自定義角色的範圍都具有 CloudAdmin 允許的授權</t>
+          <t>確保 NSX-Manager 與外部身份提供程式 （LDAPS） 集成</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
@@ -21556,7 +21576,7 @@
       <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21573,7 +21593,7 @@
       </c>
       <c r="B400" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C400" s="18" t="inlineStr">
@@ -21583,13 +21603,13 @@
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>是否為手頭的客戶用例選擇了正確的 Azure VMware 解決方案連接模型</t>
+          <t>是否已創建 RBAC 模型以在 VMware vSphere 中使用</t>
         </is>
       </c>
       <c r="E400" s="18" t="n"/>
       <c r="F400" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -21598,16 +21618,12 @@
         </is>
       </c>
       <c r="H400" s="18" t="n"/>
-      <c r="I400" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I400" s="13" t="n"/>
       <c r="J400" s="13" t="n"/>
       <c r="K400" s="19" t="n"/>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21624,7 +21640,7 @@
       </c>
       <c r="B401" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C401" s="18" t="inlineStr">
@@ -21634,13 +21650,13 @@
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>確保使用「連接監視器」監視從本地到 Azure 的 ExpressRoute 或 VPN 連接</t>
+          <t>RBAC 許可權應授予 ADDS 組，而不是特定使用者</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
       <c r="F401" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -21654,7 +21670,7 @@
       <c r="K401" s="19" t="n"/>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21671,7 +21687,7 @@
       </c>
       <c r="B402" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C402" s="18" t="inlineStr">
@@ -21681,13 +21697,13 @@
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>確保創建從 Azure 本機資源到 Azure VMware 解決方案虛擬機的連接監視器，以監視 Azure VMware 解決方案後端 ExpressRoute 連接</t>
+          <t>Azure 中 Azure VMware 解決方案資源的 RBAC 許可權僅「鎖定」為一組有限的擁有者</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
       <c r="F402" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -21701,7 +21717,7 @@
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21718,7 +21734,7 @@
       </c>
       <c r="B403" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C403" s="18" t="inlineStr">
@@ -21728,13 +21744,13 @@
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>確保創建從本地資源到 Azure VMware 解決方案虛擬機的連接監視器，以監視端到端連接</t>
+          <t>確保所有自定義角色的範圍都具有 CloudAdmin 允許的授權</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
       <c r="F403" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -21748,7 +21764,7 @@
       <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21765,7 +21781,7 @@
       </c>
       <c r="B404" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C404" s="18" t="inlineStr">
@@ -21775,7 +21791,7 @@
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>使用路由伺服器時，請確保從路由伺服器到 ExR 閘道再到本地的路由不超過 1000 個（ARS 限制）。</t>
+          <t>是否為手頭的客戶用例選擇了正確的 Azure VMware 解決方案連接模型</t>
         </is>
       </c>
       <c r="E404" s="18" t="n"/>
@@ -21790,12 +21806,16 @@
         </is>
       </c>
       <c r="H404" s="18" t="n"/>
-      <c r="I404" s="13" t="n"/>
+      <c r="I404" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J404" s="13" t="n"/>
       <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21812,7 +21832,7 @@
       </c>
       <c r="B405" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C405" s="18" t="inlineStr">
@@ -21822,7 +21842,7 @@
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>是否為在 Azure 門戶中管理 Azure VMware 解決方案資源的角色實現了 Privileged Identity Management（不允許長期許可權）</t>
+          <t>確保使用「連接監視器」監視從本地到 Azure 的 ExpressRoute 或 VPN 連接</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
@@ -21842,7 +21862,7 @@
       <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21859,7 +21879,7 @@
       </c>
       <c r="B406" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C406" s="18" t="inlineStr">
@@ -21869,13 +21889,13 @@
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>應為 Azure VMware 解決方案 PIM 角色實現 Privileged Identity Management 審核報告</t>
+          <t>確保創建從 Azure 本機資源到 Azure VMware 解決方案虛擬機的連接監視器，以監視 Azure VMware 解決方案後端 ExpressRoute 連接</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
       <c r="F406" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -21889,7 +21909,7 @@
       <c r="K406" s="19" t="n"/>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21906,7 +21926,7 @@
       </c>
       <c r="B407" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C407" s="18" t="inlineStr">
@@ -21916,7 +21936,7 @@
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Privileged Identity Management，請確保使用有效的 SMTP 記錄創建啟用了 Entra ID 的有效帳戶，以便 Azure VMware 解決方案自動主機更換通知。（需要長期許可）</t>
+          <t>確保創建從本地資源到 Azure VMware 解決方案虛擬機的連接監視器，以監視端到端連接</t>
         </is>
       </c>
       <c r="E407" s="18" t="n"/>
@@ -21936,7 +21956,7 @@
       <c r="K407" s="19" t="n"/>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21953,7 +21973,7 @@
       </c>
       <c r="B408" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C408" s="18" t="inlineStr">
@@ -21963,7 +21983,7 @@
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>將 CloudAdmin 帳戶的使用限制為僅緊急訪問</t>
+          <t>使用路由伺服器時，請確保從路由伺服器到 ExR 閘道再到本地的路由不超過 1000 個（ARS 限制）。</t>
         </is>
       </c>
       <c r="E408" s="18" t="n"/>
@@ -21983,7 +22003,7 @@
       <c r="K408" s="19" t="n"/>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -22010,13 +22030,13 @@
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>在 vCenter 中創建自定義 RBAC 角色，以在 vCenter 中實施最小特權模型</t>
+          <t>是否為在 Azure 門戶中管理 Azure VMware 解決方案資源的角色實現了 Privileged Identity Management（不允許長期許可權）</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
       <c r="F409" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -22030,7 +22050,7 @@
       <c r="K409" s="19" t="n"/>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -22057,13 +22077,13 @@
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>是定義為定期輪換 cloudadmin （vCenter） 和管理員 （NSX） 憑據的過程</t>
+          <t>應為 Azure VMware 解決方案 PIM 角色實現 Privileged Identity Management 審核報告</t>
         </is>
       </c>
       <c r="E410" s="18" t="n"/>
       <c r="F410" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -22077,7 +22097,7 @@
       <c r="K410" s="19" t="n"/>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -22104,13 +22124,13 @@
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>使用集中式識別提供者用於在 Azure VMware 解決方案上運行的工作負載 （VM）</t>
+          <t>如果使用 Privileged Identity Management，請確保使用有效的 SMTP 記錄創建啟用了 Entra ID 的有效帳戶，以便 Azure VMware 解決方案自動主機更換通知。（需要長期許可）</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
       <c r="F411" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -22124,7 +22144,7 @@
       <c r="K411" s="19" t="n"/>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -22151,13 +22171,13 @@
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>是否在 NSX-T 中實施了東西向流量篩選</t>
+          <t>將 CloudAdmin 帳戶的使用限制為僅緊急訪問</t>
         </is>
       </c>
       <c r="E412" s="18" t="n"/>
       <c r="F412" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -22171,7 +22191,7 @@
       <c r="K412" s="19" t="n"/>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -22198,13 +22218,13 @@
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware 解決方案上的工作負載不會直接向 Internet 公開。流量由 Azure 應用程式閘道、Azure 防火牆或第三方解決方案進行篩選和檢查</t>
+          <t>在 vCenter 中創建自定義 RBAC 角色，以在 vCenter 中實施最小特權模型</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
       <c r="F413" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -22218,7 +22238,7 @@
       <c r="K413" s="19" t="n"/>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -22245,13 +22265,13 @@
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>對 Azure VMware 解決方案和基於 Azure VMware 解決方案的工作負載的入站 Internet 請求實施審核和日誌記錄</t>
+          <t>是定義為定期輪換 cloudadmin （vCenter） 和管理員 （NSX） 憑據的過程</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
       <c r="F414" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -22265,7 +22285,7 @@
       <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -22292,13 +22312,13 @@
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>對來自 Azure VMware 解決方案或基於 Azure VMware 解決方案的工作負載的出站 Internet 連接實施會話監視，以識別可疑/惡意活動</t>
+          <t>使用集中式識別提供者用於在 Azure VMware 解決方案上運行的工作負載 （VM）</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
       <c r="F415" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -22312,7 +22332,7 @@
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -22339,7 +22359,7 @@
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>是否在 Azure 的 ExR/VPN 閘道子網上啟用了 DDoS 標準防護</t>
+          <t>是否在 NSX-T 中實施了東西向流量篩選</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
@@ -22359,7 +22379,7 @@
       <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -22386,13 +22406,13 @@
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>使用專用特權訪問工作站 （PAW） 管理 Azure VMware 解決方案、vCenter、NSX Manager 和 HCX Manager</t>
+          <t>Azure VMware 解決方案上的工作負載不會直接向 Internet 公開。流量由 Azure 應用程式閘道、Azure 防火牆或第三方解決方案進行篩選和檢查</t>
         </is>
       </c>
       <c r="E417" s="18" t="n"/>
       <c r="F417" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -22406,7 +22426,7 @@
       <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22433,13 +22453,13 @@
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>為 Azure VMware 解決方案上運行的工作負載啟用高級威脅檢測（Microsoft Defender for Cloud，又名 ASC）</t>
+          <t>對 Azure VMware 解決方案和基於 Azure VMware 解決方案的工作負載的入站 Internet 請求實施審核和日誌記錄</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
       <c r="F418" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -22453,7 +22473,7 @@
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22480,7 +22500,7 @@
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>使用適用於伺服器的 Azure ARC 使用 Azure 本機技術正確管理在 Azure VMware 解決方案上運行的工作負載（適用於 Azure VMware 解決方案的 Azure ARC 尚不可用）</t>
+          <t>對來自 Azure VMware 解決方案或基於 Azure VMware 解決方案的工作負載的出站 Internet 連接實施會話監視，以識別可疑/惡意活動</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
@@ -22500,7 +22520,7 @@
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22527,13 +22547,13 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>確保 Azure VMware 解決方案上的工作負載在運行時使用足夠的數據加密（如來賓內磁碟加密和 SQL TDE）。（vSAN 靜態加密為預設加密）</t>
+          <t>是否在 Azure 的 ExR/VPN 閘道子網上啟用了 DDoS 標準防護</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
       <c r="F420" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -22547,7 +22567,7 @@
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22574,13 +22594,13 @@
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>使用來賓內加密時，請盡可能將加密密鑰存儲在 Azure Key Vault 中</t>
+          <t>使用專用特權訪問工作站 （PAW） 管理 Azure VMware 解決方案、vCenter、NSX Manager 和 HCX Manager</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
       <c r="F421" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -22594,7 +22614,7 @@
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22621,7 +22641,7 @@
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>請考慮對 Azure VMware 解決方案上運行的工作負載使用擴展的安全更新支援（Azure VMware 解決方案符合 ESU 條件）</t>
+          <t>為 Azure VMware 解決方案上運行的工作負載啟用高級威脅檢測（Microsoft Defender for Cloud，又名 ASC）</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
@@ -22641,7 +22661,7 @@
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22658,7 +22678,7 @@
       </c>
       <c r="B423" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C423" s="18" t="inlineStr">
@@ -22668,13 +22688,13 @@
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>確保使用適當的 vSAN 資料冗餘方法（RAID 規範）</t>
+          <t>使用適用於伺服器的 Azure ARC 使用 Azure 本機技術正確管理在 Azure VMware 解決方案上運行的工作負載（適用於 Azure VMware 解決方案的 Azure ARC 尚不可用）</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22688,7 +22708,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22705,7 +22725,7 @@
       </c>
       <c r="B424" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C424" s="18" t="inlineStr">
@@ -22715,13 +22735,13 @@
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>確保允許失敗策略已到位，以滿足您的 vSAN 儲存需求</t>
+          <t>確保 Azure VMware 解決方案上的工作負載在運行時使用足夠的數據加密（如來賓內磁碟加密和 SQL TDE）。（vSAN 靜態加密為預設加密）</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
       <c r="F424" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -22735,7 +22755,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22752,7 +22772,7 @@
       </c>
       <c r="B425" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C425" s="18" t="inlineStr">
@@ -22762,13 +22782,13 @@
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>確保已請求足夠的配額，確保已考慮增長和災難恢復要求</t>
+          <t>使用來賓內加密時，請盡可能將加密密鑰存儲在 Azure Key Vault 中</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
       <c r="F425" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -22782,7 +22802,7 @@
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22799,7 +22819,7 @@
       </c>
       <c r="B426" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C426" s="18" t="inlineStr">
@@ -22809,7 +22829,7 @@
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>確保瞭解對 ESXi 的訪問限制，其中存在可能影響第三方解決方案的訪問限制。</t>
+          <t>請考慮對 Azure VMware 解決方案上運行的工作負載使用擴展的安全更新支援（Azure VMware 解決方案符合 ESU 條件）</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
@@ -22829,7 +22849,7 @@
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22846,7 +22866,7 @@
       </c>
       <c r="B427" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C427" s="18" t="inlineStr">
@@ -22856,13 +22876,13 @@
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>確保您制定了有關ESXi主機密度和效率的策略，並牢記請求新節點的提前期</t>
+          <t>確保使用適當的 vSAN 資料冗餘方法（RAID 規範）</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
       <c r="F427" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -22876,7 +22896,7 @@
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22893,7 +22913,7 @@
       </c>
       <c r="B428" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C428" s="18" t="inlineStr">
@@ -22903,13 +22923,13 @@
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>確保 Azure VMware 解決方案的良好成本管理流程已到位 - 可以使用 Azure 成本管理</t>
+          <t>確保允許失敗策略已到位，以滿足您的 vSAN 儲存需求</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
       <c r="F428" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -22923,7 +22943,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22940,7 +22960,7 @@
       </c>
       <c r="B429" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C429" s="18" t="inlineStr">
@@ -22950,13 +22970,13 @@
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>Azure 預留實例是否用於優化使用 Azure VMware 解決方案的成本</t>
+          <t>確保已請求足夠的配額，確保已考慮增長和災難恢復要求</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
       <c r="F429" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -22970,7 +22990,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22987,7 +23007,7 @@
       </c>
       <c r="B430" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C430" s="18" t="inlineStr">
@@ -22997,7 +23017,7 @@
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>使用其他 Azure 本機服務時，請考慮使用 Azure 專用連結</t>
+          <t>確保瞭解對 ESXi 的訪問限制，其中存在可能影響第三方解決方案的訪問限制。</t>
         </is>
       </c>
       <c r="E430" s="18" t="n"/>
@@ -23017,7 +23037,7 @@
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -23034,7 +23054,7 @@
       </c>
       <c r="B431" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C431" s="18" t="inlineStr">
@@ -23044,13 +23064,13 @@
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>確保所有必需的資源都駐留在同一個 Azure 可用性區域中</t>
+          <t>確保您制定了有關ESXi主機密度和效率的策略，並牢記請求新節點的提前期</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
       <c r="F431" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -23064,7 +23084,7 @@
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -23081,7 +23101,7 @@
       </c>
       <c r="B432" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C432" s="18" t="inlineStr">
@@ -23091,7 +23111,7 @@
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>為 Azure VMware 解決方案來賓 VM 工作負載啟用 Microsoft Defender for Cloud</t>
+          <t>確保 Azure VMware 解決方案的良好成本管理流程已到位 - 可以使用 Azure 成本管理</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
@@ -23111,7 +23131,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -23128,7 +23148,7 @@
       </c>
       <c r="B433" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C433" s="18" t="inlineStr">
@@ -23138,13 +23158,13 @@
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>使用已啟用 Azure Arc 的伺服器管理 Azure VMware 解決方案來賓 VM 工作負載</t>
+          <t>Azure 預留實例是否用於優化使用 Azure VMware 解決方案的成本</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
       <c r="F433" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -23158,7 +23178,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -23175,7 +23195,7 @@
       </c>
       <c r="B434" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C434" s="18" t="inlineStr">
@@ -23185,13 +23205,13 @@
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>在 Azure VMware 解決方案上啟用診斷和指標日誌記錄</t>
+          <t>使用其他 Azure 本機服務時，請考慮使用 Azure 專用連結</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
       <c r="F434" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -23205,7 +23225,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -23222,7 +23242,7 @@
       </c>
       <c r="B435" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C435" s="18" t="inlineStr">
@@ -23232,13 +23252,13 @@
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>將Log Analytics代理部署到 Azure VMware 解決方案來賓 VM 工作負載</t>
+          <t>確保所有必需的資源都駐留在同一個 Azure 可用性區域中</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
       <c r="F435" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -23252,7 +23272,7 @@
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23269,7 +23289,7 @@
       </c>
       <c r="B436" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C436" s="18" t="inlineStr">
@@ -23279,7 +23299,7 @@
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>確保已針對 Azure VMware 解決方案 VM 工作負載記錄並實施了備份策略和解決方案</t>
+          <t>為 Azure VMware 解決方案來賓 VM 工作負載啟用 Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
@@ -23299,7 +23319,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23326,7 +23346,7 @@
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>使用 Microsoft Defender for Cloud 對 Azure VMware 解決方案上運行的工作負載進行合規性監視</t>
+          <t>使用已啟用 Azure Arc 的伺服器管理 Azure VMware 解決方案來賓 VM 工作負載</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
@@ -23346,7 +23366,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23363,7 +23383,7 @@
       </c>
       <c r="B438" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C438" s="18" t="inlineStr">
@@ -23373,13 +23393,13 @@
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>是否將適用的合規性基線添加到 Microsoft Defender for Cloud</t>
+          <t>在 Azure VMware 解決方案上啟用診斷和指標日誌記錄</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
       <c r="F438" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -23393,7 +23413,7 @@
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23410,7 +23430,7 @@
       </c>
       <c r="B439" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C439" s="18" t="inlineStr">
@@ -23420,13 +23440,13 @@
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>在選擇要用於 Azure VMware 解決方案部署的 Azure 區域時是否評估了數據駐留</t>
+          <t>將Log Analytics代理部署到 Azure VMware 解決方案來賓 VM 工作負載</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
       <c r="F439" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -23440,7 +23460,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23457,7 +23477,7 @@
       </c>
       <c r="B440" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C440" s="18" t="inlineStr">
@@ -23467,13 +23487,13 @@
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>數據處理影響（服務提供者/服務消費者模型）是否清晰且有據可查</t>
+          <t>確保已針對 Azure VMware 解決方案 VM 工作負載記錄並實施了備份策略和解決方案</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
       <c r="F440" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -23487,7 +23507,7 @@
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23514,7 +23534,7 @@
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>僅當出於合規性原因需要時，才考慮將CMK（客戶管理的密鑰）用於 vSAN。</t>
+          <t>使用 Microsoft Defender for Cloud 對 Azure VMware 解決方案上運行的工作負載進行合規性監視</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
@@ -23534,7 +23554,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23551,7 +23571,7 @@
       </c>
       <c r="B442" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C442" s="18" t="inlineStr">
@@ -23561,13 +23581,13 @@
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>創建儀錶板以啟用核心 Azure VMware 解決方案監視見解</t>
+          <t>是否將適用的合規性基線添加到 Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
       <c r="F442" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -23581,7 +23601,7 @@
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23598,7 +23618,7 @@
       </c>
       <c r="B443" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C443" s="18" t="inlineStr">
@@ -23608,7 +23628,7 @@
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>針對 Azure VMware 解決方案性能（CPU &gt;80%、平均記憶體 &gt;80%、vSAN &gt;70%）自動警報的關鍵閾值創建警告警報</t>
+          <t>在選擇要用於 Azure VMware 解決方案部署的 Azure 區域時是否評估了數據駐留</t>
         </is>
       </c>
       <c r="E443" s="18" t="n"/>
@@ -23628,7 +23648,7 @@
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23645,7 +23665,7 @@
       </c>
       <c r="B444" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C444" s="18" t="inlineStr">
@@ -23655,7 +23675,7 @@
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>確保創建嚴重警示以監控 vSAN 消耗量是否低於 75%，因為這是 VMware 的支援閾值</t>
+          <t>數據處理影響（服務提供者/服務消費者模型）是否清晰且有據可查</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
@@ -23675,7 +23695,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23692,7 +23712,7 @@
       </c>
       <c r="B445" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C445" s="18" t="inlineStr">
@@ -23702,13 +23722,13 @@
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>確保為 Azure 服務運行狀況警報和通知配置警報</t>
+          <t>僅當出於合規性原因需要時，才考慮將CMK（客戶管理的密鑰）用於 vSAN。</t>
         </is>
       </c>
       <c r="E445" s="18" t="n"/>
       <c r="F445" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -23722,7 +23742,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23749,13 +23769,13 @@
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>將 Azure VMware 解決方案記錄設定為發送到 Azure 儲存帳戶或 Azure EventHub 進行處理</t>
+          <t>創建儀錶板以啟用核心 Azure VMware 解決方案監視見解</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
       <c r="F446" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -23769,7 +23789,7 @@
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23796,13 +23816,13 @@
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>如果需要深入瞭解 VMware vSphere：解決方案中是否使用了 vRealize Operations 和/或 vRealize Network Insights？</t>
+          <t>針對 Azure VMware 解決方案性能（CPU &gt;80%、平均記憶體 &gt;80%、vSAN &gt;70%）自動警報的關鍵閾值創建警告警報</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
       <c r="F447" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -23816,7 +23836,7 @@
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23843,7 +23863,7 @@
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>確保虛擬機的 vSAN 儲存策略不是預設存儲策略，因為此策略應用厚置備</t>
+          <t>確保創建嚴重警示以監控 vSAN 消耗量是否低於 75%，因為這是 VMware 的支援閾值</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
@@ -23863,7 +23883,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23890,13 +23910,13 @@
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>確保未將 vSphere 內容庫放置在 vSAN 上，因為 vSAN 是有限的資源</t>
+          <t>確保為 Azure 服務運行狀況警報和通知配置警報</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
       <c r="F449" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -23910,7 +23930,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23937,7 +23957,7 @@
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>確保備份解決方案的數據存儲庫存儲在 vSAN 儲存之外。在 Azure 本機或磁碟池支持的數據存儲中</t>
+          <t>將 Azure VMware 解決方案記錄設定為發送到 Azure 儲存帳戶或 Azure EventHub 進行處理</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
@@ -23957,7 +23977,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23984,13 +24004,13 @@
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>確保使用 Azure Arc for Servers 進行混合管理，確保在 Azure VMware 解決方案上運行的工作負載（Arc for Azure VMware 解決方案處於預覽狀態）</t>
+          <t>如果需要深入瞭解 VMware vSphere：解決方案中是否使用了 vRealize Operations 和/或 vRealize Network Insights？</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
       <c r="F451" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -24004,7 +24024,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -24031,13 +24051,13 @@
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>確保使用 Azure Log Analytics 和 Azure Monitor 監視在 Azure VMware 解決方案上運行的工作負載</t>
+          <t>確保虛擬機的 vSAN 儲存策略不是預設存儲策略，因為此策略應用厚置備</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
       <c r="F452" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -24051,7 +24071,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -24078,7 +24098,7 @@
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>在現有更新管理工具或 Azure 更新管理中包括在 Azure VMware 解決方案上運行的工作負載</t>
+          <t>確保未將 vSphere 內容庫放置在 vSAN 上，因為 vSAN 是有限的資源</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
@@ -24098,7 +24118,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -24125,7 +24145,7 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 在 Azure 管理、監視和安全解決方案中加入 Azure VMware 解決方案工作負載</t>
+          <t>確保備份解決方案的數據存儲庫存儲在 vSAN 儲存之外。在 Azure 本機或磁碟池支持的數據存儲中</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
@@ -24145,7 +24165,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -24162,7 +24182,7 @@
       </c>
       <c r="B455" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C455" s="18" t="inlineStr">
@@ -24172,7 +24192,7 @@
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>確保在 Azure VMware 解決方案上運行的工作負載已載入 Microsoft Defender for Cloud</t>
+          <t>確保使用 Azure Arc for Servers 進行混合管理，確保在 Azure VMware 解決方案上運行的工作負載（Arc for Azure VMware 解決方案處於預覽狀態）</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
@@ -24192,7 +24212,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -24209,7 +24229,7 @@
       </c>
       <c r="B456" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C456" s="18" t="inlineStr">
@@ -24219,7 +24239,7 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>確保備份不存儲在 vSAN 上，因為 vSAN 是有限的資源</t>
+          <t>確保使用 Azure Log Analytics 和 Azure Monitor 監視在 Azure VMware 解決方案上運行的工作負載</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
@@ -24239,7 +24259,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24256,7 +24276,7 @@
       </c>
       <c r="B457" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C457" s="18" t="inlineStr">
@@ -24266,7 +24286,7 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>是否考慮了所有災難恢復解決方案，並決定了最適合您業務的解決方案？[SRM/JetStream/Zerto/Veeam/...]</t>
+          <t>在現有更新管理工具或 Azure 更新管理中包括在 Azure VMware 解決方案上運行的工作負載</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
@@ -24286,7 +24306,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24303,7 +24323,7 @@
       </c>
       <c r="B458" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C458" s="18" t="inlineStr">
@@ -24313,7 +24333,7 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>當災難恢復技術是本機 Azure IaaS 時，請使用 Azure Site Recovery</t>
+          <t>使用 Azure Policy 在 Azure 管理、監視和安全解決方案中加入 Azure VMware 解決方案工作負載</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
@@ -24333,7 +24353,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24350,7 +24370,7 @@
       </c>
       <c r="B459" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C459" s="18" t="inlineStr">
@@ -24360,13 +24380,13 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>將自動恢復計劃與任一災難解決方案結合使用，盡可能避免手動任務</t>
+          <t>確保在 Azure VMware 解決方案上運行的工作負載已載入 Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
       <c r="F459" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -24380,7 +24400,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24407,7 +24427,7 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>使用地緣政治區域對作為輔助災難恢復環境</t>
+          <t>確保備份不存儲在 vSAN 上，因為 vSAN 是有限的資源</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
@@ -24427,7 +24447,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24454,13 +24474,13 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>在區域之間使用 2 個不同的地址空間，例如：10.0.0.0/16 和 192.168.0.0/16 用於不同的區域</t>
+          <t>是否考慮了所有災難恢復解決方案，並決定了最適合您業務的解決方案？[SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
       <c r="F461" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -24474,7 +24494,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24501,7 +24521,7 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Global Reach 是用於主 Azure VMware 解決方案私有雲和輔助 Azure VMware 解決方案私有雲之間的連接，還是通過網路虛擬設備完成路由？</t>
+          <t>當災難恢復技術是本機 Azure IaaS 時，請使用 Azure Site Recovery</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
@@ -24521,7 +24541,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24548,13 +24568,13 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>是否考慮了所有備份解決方案，並決定了最適合您業務的解決方案？[ MABS/CommVault/Metallic.io/Veeam/ .</t>
+          <t>將自動恢復計劃與任一災難解決方案結合使用，盡可能避免手動任務</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
       <c r="F463" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -24568,7 +24588,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24595,7 +24615,7 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>將備份解決方案部署在與 Azure VMware 解決方案私有雲相同的區域中</t>
+          <t>使用地緣政治區域對作為輔助災難恢復環境</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
@@ -24615,7 +24635,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24642,13 +24662,13 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>在 vSan 外部的 Azure 本機組件上部署備份解決方案</t>
+          <t>在區域之間使用 2 個不同的地址空間，例如：10.0.0.0/16 和 192.168.0.0/16 用於不同的區域</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24662,7 +24682,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24689,13 +24709,13 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>是否已制定請求還原由 Azure 平臺管理的 VMware 元件的流程？</t>
+          <t>ExpressRoute Global Reach 是用於主 Azure VMware 解決方案私有雲和輔助 Azure VMware 解決方案私有雲之間的連接，還是通過網路虛擬設備完成路由？</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
       <c r="F466" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -24709,7 +24729,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24726,7 +24746,7 @@
       </c>
       <c r="B467" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C467" s="18" t="inlineStr">
@@ -24736,13 +24756,13 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>對於手動部署，必須記錄所有配置和部署</t>
+          <t>是否考慮了所有備份解決方案，並決定了最適合您業務的解決方案？[ MABS/CommVault/Metallic.io/Veeam/ .</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
       <c r="F467" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -24756,7 +24776,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24773,7 +24793,7 @@
       </c>
       <c r="B468" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C468" s="18" t="inlineStr">
@@ -24783,13 +24803,13 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>對於手動部署，請考慮實施資源鎖，以防止對 Azure VMware 解決方案私有雲執行意外操作</t>
+          <t>將備份解決方案部署在與 Azure VMware 解決方案私有雲相同的區域中</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
       <c r="F468" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -24803,7 +24823,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24820,7 +24840,7 @@
       </c>
       <c r="B469" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C469" s="18" t="inlineStr">
@@ -24830,13 +24850,13 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>對於自動化部署，請部署最小的私有雲並根據需要進行擴展</t>
+          <t>在 vSan 外部的 Azure 本機組件上部署備份解決方案</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
       <c r="F469" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -24850,7 +24870,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24867,7 +24887,7 @@
       </c>
       <c r="B470" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C470" s="18" t="inlineStr">
@@ -24877,7 +24897,7 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>對於自動部署，請在開始部署之前請求或預留配額</t>
+          <t>是否已制定請求還原由 Azure 平臺管理的 VMware 元件的流程？</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
@@ -24897,7 +24917,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24924,7 +24944,7 @@
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>對於自動部署，請確保通過自動化或 Azure Policy 創建相關資源鎖，以便進行適當的治理</t>
+          <t>對於手動部署，必須記錄所有配置和部署</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
@@ -24944,7 +24964,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24971,7 +24991,7 @@
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>為 ExR 授權金鑰實現人類可理解的名稱，以便輕鬆識別密鑰的目的/用途</t>
+          <t>對於手動部署，請考慮實施資源鎖，以防止對 Azure VMware 解決方案私有雲執行意外操作</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
@@ -24991,7 +25011,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -25018,7 +25038,7 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>當使用單獨的服務原則部署 Azure VMware 解決方案和 ExpressRoute 時，請使用 Key Vault 儲存機密和授權密鑰</t>
+          <t>對於自動化部署，請部署最小的私有雲並根據需要進行擴展</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
@@ -25038,7 +25058,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -25065,7 +25085,7 @@
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>當需要在 Azure VMware 解決方案中/上部署許多資源時，定義用於在 IaC 中序列化操作的資源依賴項，因為 Azure VMware 解決方案僅支援有限數量的並行操作。</t>
+          <t>對於自動部署，請在開始部署之前請求或預留配額</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
@@ -25085,7 +25105,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -25112,7 +25132,7 @@
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>使用單個 Tier-1 閘道執行 NSX-T 分段的自動配置時，請使用 Azure 門戶 API 而不是 NSX-Manager API</t>
+          <t>對於自動部署，請確保通過自動化或 Azure Policy 創建相關資源鎖，以便進行適當的治理</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
@@ -25132,7 +25152,7 @@
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -25149,7 +25169,7 @@
       </c>
       <c r="B476" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C476" s="18" t="inlineStr">
@@ -25159,13 +25179,13 @@
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>打算使用自動橫向擴展時，請務必為運行 Azure VMware 解決方案的訂閱申請足夠的 Azure VMware 解決方案配額</t>
+          <t>為 ExR 授權金鑰實現人類可理解的名稱，以便輕鬆識別密鑰的目的/用途</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
       <c r="F476" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -25179,7 +25199,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25196,7 +25216,7 @@
       </c>
       <c r="B477" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C477" s="18" t="inlineStr">
@@ -25206,13 +25226,13 @@
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>打算使用自動縮減時，請務必在執行此操作之前考慮存儲策略要求</t>
+          <t>當使用單獨的服務原則部署 Azure VMware 解決方案和 ExpressRoute 時，請使用 Key Vault 儲存機密和授權密鑰</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
       <c r="F477" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -25226,7 +25246,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25243,7 +25263,7 @@
       </c>
       <c r="B478" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C478" s="18" t="inlineStr">
@@ -25253,13 +25273,13 @@
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>擴展操作始終需要在單個 SDDC 中序列化，因為一次只能執行一個擴展操作（即使使用多個集群也是如此）</t>
+          <t>當需要在 Azure VMware 解決方案中/上部署許多資源時，定義用於在 IaC 中序列化操作的資源依賴項，因為 Azure VMware 解決方案僅支援有限數量的並行操作。</t>
         </is>
       </c>
       <c r="E478" s="18" t="n"/>
       <c r="F478" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -25273,7 +25293,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25290,7 +25310,7 @@
       </c>
       <c r="B479" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C479" s="18" t="inlineStr">
@@ -25300,13 +25320,13 @@
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>考慮並驗證體系結構中使用的第三方解決方案的縮放操作（支援與否）</t>
+          <t>使用單個 Tier-1 閘道執行 NSX-T 分段的自動配置時，請使用 Azure 門戶 API 而不是 NSX-Manager API</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
       <c r="F479" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -25320,7 +25340,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25347,7 +25367,7 @@
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>在自動化中為環境定義和強制實施橫向擴展/橫向擴展最大限制</t>
+          <t>打算使用自動橫向擴展時，請務必為運行 Azure VMware 解決方案的訂閱申請足夠的 Azure VMware 解決方案配額</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
@@ -25367,7 +25387,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25384,7 +25404,7 @@
       </c>
       <c r="B481" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C481" s="18" t="inlineStr">
@@ -25394,7 +25414,7 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>實施監控規則以監控自動擴展操作，並監控成功和失敗，以啟用適當的（自動化）回應</t>
+          <t>打算使用自動縮減時，請務必在執行此操作之前考慮存儲策略要求</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
@@ -25414,7 +25434,7 @@
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25431,7 +25451,7 @@
       </c>
       <c r="B482" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C482" s="18" t="inlineStr">
@@ -25441,13 +25461,13 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>使用 MON 時，請注意同時配置的 VM 的限制（HCX 的 MON 限制 [400 - 標準，1000 - 大型設備]）</t>
+          <t>擴展操作始終需要在單個 SDDC 中序列化，因為一次只能執行一個擴展操作（即使使用多個集群也是如此）</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
       <c r="F482" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -25456,20 +25476,12 @@
         </is>
       </c>
       <c r="H482" s="18" t="n"/>
-      <c r="I482" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J482" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="I482" s="13" t="n"/>
+      <c r="J482" s="13" t="n"/>
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25486,7 +25498,7 @@
       </c>
       <c r="B483" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C483" s="18" t="inlineStr">
@@ -25496,13 +25508,13 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>使用 MON 時，不能在超過 100 個網路分機上啟用 MON</t>
+          <t>考慮並驗證體系結構中使用的第三方解決方案的縮放操作（支援與否）</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25511,20 +25523,12 @@
         </is>
       </c>
       <c r="H483" s="18" t="n"/>
-      <c r="I483" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J483" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="I483" s="13" t="n"/>
+      <c r="J483" s="13" t="n"/>
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25551,7 +25555,7 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>如果使用 VPN 連接進行遷移，請相應地調整 MTU 大小。</t>
+          <t>在自動化中為環境定義和強制實施橫向擴展/橫向擴展最大限制</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
@@ -25571,7 +25575,7 @@
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25588,7 +25592,7 @@
       </c>
       <c r="B485" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C485" s="18" t="inlineStr">
@@ -25598,7 +25602,7 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>對於連接到 Azure（500Mbps 或更低）的低連接區域，請考慮部署 HCX WAN 優化設備</t>
+          <t>實施監控規則以監控自動擴展操作，並監控成功和失敗，以啟用適當的（自動化）回應</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
@@ -25618,7 +25622,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25645,13 +25649,13 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>確保從本地裝置啟動遷移，而不是從雲端裝置啟動遷移（不要執行反向遷移）</t>
+          <t>使用 MON 時，請注意同時配置的 VM 的限制（HCX 的 MON 限制 [400 - 標準，1000 - 大型設備]）</t>
         </is>
       </c>
       <c r="E486" s="18" t="n"/>
       <c r="F486" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -25660,12 +25664,20 @@
         </is>
       </c>
       <c r="H486" s="18" t="n"/>
-      <c r="I486" s="13" t="n"/>
-      <c r="J486" s="13" t="n"/>
+      <c r="I486" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J486" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25692,13 +25704,13 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Netapp Files 擴展 Azure VMware 解決方案的儲存時，請考慮將其用作 VMware 資料儲存庫，而不是直接附加到 VM 。</t>
+          <t>使用 MON 時，不能在超過 100 個網路分機上啟用 MON</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
       <c r="F487" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -25712,11 +25724,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J487" s="13" t="n"/>
+      <c r="J487" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25733,7 +25749,7 @@
       </c>
       <c r="B488" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C488" s="18" t="inlineStr">
@@ -25743,7 +25759,7 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>確保將專用 ExpressRoute 閘道用於外部資料儲存解決方案</t>
+          <t>如果使用 VPN 連接進行遷移，請相應地調整 MTU 大小。</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
@@ -25758,16 +25774,12 @@
         </is>
       </c>
       <c r="H488" s="18" t="n"/>
-      <c r="I488" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I488" s="13" t="n"/>
       <c r="J488" s="13" t="n"/>
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25784,7 +25796,7 @@
       </c>
       <c r="B489" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C489" s="18" t="inlineStr">
@@ -25794,7 +25806,7 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>確保在用於外部數據存儲解決方案的 ExpressRoute 閘道上啟用了 FastPath</t>
+          <t>對於連接到 Azure（500Mbps 或更低）的低連接區域，請考慮部署 HCX WAN 優化設備</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
@@ -25809,16 +25821,12 @@
         </is>
       </c>
       <c r="H489" s="18" t="n"/>
-      <c r="I489" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I489" s="13" t="n"/>
       <c r="J489" s="13" t="n"/>
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25845,13 +25853,13 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>如果使用延伸群集，請確保供應商支援所選的災難恢復解決方案</t>
+          <t>確保從本地裝置啟動遷移，而不是從雲端裝置啟動遷移（不要執行反向遷移）</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
       <c r="F490" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -25860,16 +25868,12 @@
         </is>
       </c>
       <c r="H490" s="18" t="n"/>
-      <c r="I490" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I490" s="13" t="n"/>
       <c r="J490" s="13" t="n"/>
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25896,13 +25900,13 @@
       </c>
       <c r="D491" s="18" t="inlineStr">
         <is>
-          <t>如果使用延伸群集，請確保提供的 SLA 符合您的要求</t>
+          <t>使用 Azure Netapp Files 擴展 Azure VMware 解決方案的儲存時，請考慮將其用作 VMware 資料儲存庫，而不是直接附加到 VM 。</t>
         </is>
       </c>
       <c r="E491" s="18" t="n"/>
       <c r="F491" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
@@ -25920,7 +25924,7 @@
       <c r="K491" s="19" t="n"/>
       <c r="L491" s="19" t="inlineStr">
         <is>
-          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
         </is>
       </c>
       <c r="M491" s="20" t="n"/>
@@ -25947,13 +25951,13 @@
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>如果使用延伸群集，請確保兩條 ExpressRoute 線路都連接到連接中心。</t>
+          <t>確保將專用 ExpressRoute 閘道用於外部資料儲存解決方案</t>
         </is>
       </c>
       <c r="E492" s="18" t="n"/>
       <c r="F492" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -25971,7 +25975,7 @@
       <c r="K492" s="19" t="n"/>
       <c r="L492" s="19" t="inlineStr">
         <is>
-          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
         </is>
       </c>
       <c r="M492" s="20" t="n"/>
@@ -25998,13 +26002,13 @@
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>如果使用延伸群集，請確保兩條 ExpressRoute 線路都啟用了 GlobalReach。</t>
+          <t>確保在用於外部數據存儲解決方案的 ExpressRoute 閘道上啟用了 FastPath</t>
         </is>
       </c>
       <c r="E493" s="18" t="n"/>
       <c r="F493" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -26022,7 +26026,7 @@
       <c r="K493" s="19" t="n"/>
       <c r="L493" s="19" t="inlineStr">
         <is>
-          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
         </is>
       </c>
       <c r="M493" s="20" t="n"/>
@@ -26049,7 +26053,7 @@
       </c>
       <c r="D494" s="18" t="inlineStr">
         <is>
-          <t>是否正確考慮了網站容災設置，並在需要時為您的業務進行了更改。</t>
+          <t>如果使用延伸群集，請確保供應商支援所選的災難恢復解決方案</t>
         </is>
       </c>
       <c r="E494" s="18" t="n"/>
@@ -26073,7 +26077,7 @@
       <c r="K494" s="19" t="n"/>
       <c r="L494" s="19" t="inlineStr">
         <is>
-          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
         </is>
       </c>
       <c r="M494" s="20" t="n"/>
@@ -26085,7 +26089,7 @@
     <row r="495">
       <c r="A495" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B495" s="18" t="inlineStr">
@@ -26095,16 +26099,20 @@
       </c>
       <c r="C495" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D495" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
+          <t>如果使用延伸群集，請確保提供的 SLA 符合您的要求</t>
         </is>
       </c>
       <c r="E495" s="18" t="n"/>
-      <c r="F495" s="18" t="n"/>
+      <c r="F495" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G495" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -26120,7 +26128,7 @@
       <c r="K495" s="19" t="n"/>
       <c r="L495" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
         </is>
       </c>
       <c r="M495" s="20" t="n"/>
@@ -26132,7 +26140,7 @@
     <row r="496">
       <c r="A496" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B496" s="18" t="inlineStr">
@@ -26142,16 +26150,20 @@
       </c>
       <c r="C496" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D496" s="18" t="inlineStr">
         <is>
-          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+          <t>如果使用延伸群集，請確保兩條 ExpressRoute 線路都連接到連接中心。</t>
         </is>
       </c>
       <c r="E496" s="18" t="n"/>
-      <c r="F496" s="18" t="n"/>
+      <c r="F496" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G496" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -26167,7 +26179,7 @@
       <c r="K496" s="19" t="n"/>
       <c r="L496" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
         </is>
       </c>
       <c r="M496" s="20" t="n"/>
@@ -26179,7 +26191,7 @@
     <row r="497">
       <c r="A497" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B497" s="18" t="inlineStr">
@@ -26189,16 +26201,20 @@
       </c>
       <c r="C497" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D497" s="18" t="inlineStr">
         <is>
-          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+          <t>如果使用延伸群集，請確保兩條 ExpressRoute 線路都啟用了 GlobalReach。</t>
         </is>
       </c>
       <c r="E497" s="18" t="n"/>
-      <c r="F497" s="18" t="n"/>
+      <c r="F497" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G497" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -26214,7 +26230,7 @@
       <c r="K497" s="19" t="n"/>
       <c r="L497" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
         </is>
       </c>
       <c r="M497" s="20" t="n"/>
@@ -26226,7 +26242,7 @@
     <row r="498">
       <c r="A498" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B498" s="18" t="inlineStr">
@@ -26236,16 +26252,20 @@
       </c>
       <c r="C498" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D498" s="18" t="inlineStr">
         <is>
-          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+          <t>是否正確考慮了網站容災設置，並在需要時為您的業務進行了更改。</t>
         </is>
       </c>
       <c r="E498" s="18" t="n"/>
-      <c r="F498" s="18" t="n"/>
+      <c r="F498" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G498" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -26261,7 +26281,7 @@
       <c r="K498" s="19" t="n"/>
       <c r="L498" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
         </is>
       </c>
       <c r="M498" s="20" t="n"/>
@@ -26273,34 +26293,26 @@
     <row r="499">
       <c r="A499" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B499" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C499" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D499" s="18" t="inlineStr">
         <is>
-          <t>請考慮「存儲的 Azure 安全基線”</t>
-        </is>
-      </c>
-      <c r="E499" s="18" t="inlineStr">
-        <is>
-          <t>應用與存儲相關的 Microsoft 雲安全基準中的指導</t>
-        </is>
-      </c>
-      <c r="F499" s="18" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
+          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
+        </is>
+      </c>
+      <c r="E499" s="18" t="n"/>
+      <c r="F499" s="18" t="n"/>
       <c r="G499" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -26316,7 +26328,7 @@
       <c r="K499" s="19" t="n"/>
       <c r="L499" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M499" s="20" t="n"/>
@@ -26328,34 +26340,26 @@
     <row r="500">
       <c r="A500" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B500" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C500" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D500" s="18" t="inlineStr">
         <is>
-          <t>考慮將專用終結點用於 Azure 存儲</t>
-        </is>
-      </c>
-      <c r="E500" s="18" t="inlineStr">
-        <is>
-          <t>默認情況下，Azure 儲存具有公共IP位址，並且可通過Internet訪問。專用終結點允許僅向需要訪問的 Azure 計算資源安全地公開 Azure 存儲，從而消除對公共 Internet 的暴露</t>
-        </is>
-      </c>
-      <c r="F500" s="18" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
+          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+        </is>
+      </c>
+      <c r="E500" s="18" t="n"/>
+      <c r="F500" s="18" t="n"/>
       <c r="G500" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -26371,7 +26375,7 @@
       <c r="K500" s="19" t="n"/>
       <c r="L500" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M500" s="20" t="n"/>
@@ -26383,34 +26387,26 @@
     <row r="501">
       <c r="A501" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B501" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C501" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D501" s="18" t="inlineStr">
         <is>
-          <t>確保較舊的存儲帳戶未使用“經典部署模型”</t>
-        </is>
-      </c>
-      <c r="E501" s="18" t="inlineStr">
-        <is>
-          <t>新創建的存儲帳戶是使用ARM部署模型創建的，因此 RBAC、審核等都已啟用。確保訂閱中沒有具有經典部署模型的舊存儲帳戶</t>
-        </is>
-      </c>
-      <c r="F501" s="18" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
+          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+        </is>
+      </c>
+      <c r="E501" s="18" t="n"/>
+      <c r="F501" s="18" t="n"/>
       <c r="G501" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -26426,7 +26422,7 @@
       <c r="K501" s="19" t="n"/>
       <c r="L501" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M501" s="20" t="n"/>
@@ -26438,34 +26434,26 @@
     <row r="502">
       <c r="A502" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B502" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C502" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D502" s="18" t="inlineStr">
         <is>
-          <t>為所有存儲帳戶啟用 Microsoft DefenderEnable Defender for all of your storage accounts</t>
-        </is>
-      </c>
-      <c r="E502" s="18" t="inlineStr">
-        <is>
-          <t>利用 Microsoft Defender 瞭解可疑活動和錯誤配置。</t>
-        </is>
-      </c>
-      <c r="F502" s="18" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
+          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+        </is>
+      </c>
+      <c r="E502" s="18" t="n"/>
+      <c r="F502" s="18" t="n"/>
       <c r="G502" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -26481,7 +26469,7 @@
       <c r="K502" s="19" t="n"/>
       <c r="L502" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M502" s="20" t="n"/>
@@ -26508,12 +26496,12 @@
       </c>
       <c r="D503" s="18" t="inlineStr">
         <is>
-          <t>為 blob 啟用“軟刪除”</t>
+          <t>請考慮「存儲的 Azure 安全基線”</t>
         </is>
       </c>
       <c r="E503" s="18" t="inlineStr">
         <is>
-          <t>軟刪除機制允許恢復意外刪除的 Blob。</t>
+          <t>應用與存儲相關的 Microsoft 雲安全基準中的指導</t>
         </is>
       </c>
       <c r="F503" s="18" t="inlineStr">
@@ -26536,7 +26524,7 @@
       <c r="K503" s="19" t="n"/>
       <c r="L503" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M503" s="20" t="n"/>
@@ -26563,17 +26551,17 @@
       </c>
       <c r="D504" s="18" t="inlineStr">
         <is>
-          <t>禁用 blob 的“軟刪除”</t>
+          <t>考慮將專用終結點用於 Azure 存儲</t>
         </is>
       </c>
       <c r="E504" s="18" t="inlineStr">
         <is>
-          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
+          <t>默認情況下，Azure 儲存具有公共IP位址，並且可通過Internet訪問。專用終結點允許僅向需要訪問的 Azure 計算資源安全地公開 Azure 存儲，從而消除對公共 Internet 的暴露</t>
         </is>
       </c>
       <c r="F504" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -26591,7 +26579,7 @@
       <c r="K504" s="19" t="n"/>
       <c r="L504" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M504" s="20" t="n"/>
@@ -26618,17 +26606,17 @@
       </c>
       <c r="D505" s="18" t="inlineStr">
         <is>
-          <t>為容器啟用“軟刪除”</t>
+          <t>確保較舊的存儲帳戶未使用“經典部署模型”</t>
         </is>
       </c>
       <c r="E505" s="18" t="inlineStr">
         <is>
-          <t>容器的軟刪除使你能夠在刪除容器后恢復容器，例如從意外刪除操作中恢復。</t>
+          <t>新創建的存儲帳戶是使用ARM部署模型創建的，因此 RBAC、審核等都已啟用。確保訂閱中沒有具有經典部署模型的舊存儲帳戶</t>
         </is>
       </c>
       <c r="F505" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -26646,7 +26634,7 @@
       <c r="K505" s="19" t="n"/>
       <c r="L505" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M505" s="20" t="n"/>
@@ -26673,17 +26661,17 @@
       </c>
       <c r="D506" s="18" t="inlineStr">
         <is>
-          <t>禁用容器的“軟刪除”</t>
+          <t>為所有存儲帳戶啟用 Microsoft DefenderEnable Defender for all of your storage accounts</t>
         </is>
       </c>
       <c r="E506" s="18" t="inlineStr">
         <is>
-          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
+          <t>利用 Microsoft Defender 瞭解可疑活動和錯誤配置。</t>
         </is>
       </c>
       <c r="F506" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -26701,7 +26689,7 @@
       <c r="K506" s="19" t="n"/>
       <c r="L506" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M506" s="20" t="n"/>
@@ -26728,17 +26716,17 @@
       </c>
       <c r="D507" s="18" t="inlineStr">
         <is>
-          <t>在存儲帳戶上啟用資源鎖</t>
+          <t>為 blob 啟用“軟刪除”</t>
         </is>
       </c>
       <c r="E507" s="18" t="inlineStr">
         <is>
-          <t>通過強制使用者在刪除之前先刪除刪除鎖，防止意外刪除存儲帳戶</t>
+          <t>軟刪除機制允許恢復意外刪除的 Blob。</t>
         </is>
       </c>
       <c r="F507" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -26756,7 +26744,7 @@
       <c r="K507" s="19" t="n"/>
       <c r="L507" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M507" s="20" t="n"/>
@@ -26783,17 +26771,17 @@
       </c>
       <c r="D508" s="18" t="inlineStr">
         <is>
-          <t>考慮不可變的 blob</t>
+          <t>禁用 blob 的“軟刪除”</t>
         </is>
       </c>
       <c r="E508" s="18" t="inlineStr">
         <is>
-          <t>請考慮對 blob 使用“合法保留”或“基于時間的保留”策略，這樣就無法刪除 blob、容器或存儲帳戶。請注意，「不可能」實際上意味著「不可能」;存儲帳戶包含不可變 blob 後，「擺脫」該存儲帳戶的唯一方法是取消 Azure 訂閱。</t>
+          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
         </is>
       </c>
       <c r="F508" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -26811,7 +26799,7 @@
       <c r="K508" s="19" t="n"/>
       <c r="L508" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M508" s="20" t="n"/>
@@ -26838,12 +26826,12 @@
       </c>
       <c r="D509" s="18" t="inlineStr">
         <is>
-          <t>需要 HTTPS，即在儲存帳戶上禁用埠 80</t>
+          <t>為容器啟用“軟刪除”</t>
         </is>
       </c>
       <c r="E509" s="18" t="inlineStr">
         <is>
-          <t>請考慮禁用對存儲帳戶的未受保護的 HTTP/80 訪問，以便對所有數據傳輸進行加密、完整性保護，並對伺服器進行身份驗證。</t>
+          <t>容器的軟刪除使你能夠在刪除容器后恢復容器，例如從意外刪除操作中恢復。</t>
         </is>
       </c>
       <c r="F509" s="18" t="inlineStr">
@@ -26866,7 +26854,7 @@
       <c r="K509" s="19" t="n"/>
       <c r="L509" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M509" s="20" t="n"/>
@@ -26893,17 +26881,17 @@
       </c>
       <c r="D510" s="18" t="inlineStr">
         <is>
-          <t>強制實施 HTTPS（禁用 HTTP）時，請檢查是否未對儲存帳戶使用自定義域 （CNAME）。</t>
+          <t>禁用容器的“軟刪除”</t>
         </is>
       </c>
       <c r="E510" s="18" t="inlineStr">
         <is>
-          <t>在儲存帳戶上配置自定義域（主機名）時，請檢查是否需要 TLS/HTTPS;如果是這樣，可能需要將 Azure CDN 放在存儲帳戶的前面。</t>
+          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
         </is>
       </c>
       <c r="F510" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -26921,7 +26909,7 @@
       <c r="K510" s="19" t="n"/>
       <c r="L510" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M510" s="20" t="n"/>
@@ -26948,17 +26936,17 @@
       </c>
       <c r="D511" s="18" t="inlineStr">
         <is>
-          <t>將共享訪問簽名 （SAS） 令牌限製為僅 HTTPS 連接</t>
+          <t>在存儲帳戶上啟用資源鎖</t>
         </is>
       </c>
       <c r="E511" s="18" t="inlineStr">
         <is>
-          <t>當用戶端使用SAS令牌訪問 blob 資料時，要求使用 HTTPS 有助於將憑據丟失的風險降至最低。</t>
+          <t>通過強制使用者在刪除之前先刪除刪除鎖，防止意外刪除存儲帳戶</t>
         </is>
       </c>
       <c r="F511" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -26976,7 +26964,7 @@
       <c r="K511" s="19" t="n"/>
       <c r="L511" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M511" s="20" t="n"/>
@@ -27003,12 +26991,12 @@
       </c>
       <c r="D512" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Active Directory （Azure AD） 令牌進行 blob 訪問</t>
+          <t>考慮不可變的 blob</t>
         </is>
       </c>
       <c r="E512" s="18" t="inlineStr">
         <is>
-          <t>在可能的情況下，AAD 令牌應優先於共用訪問簽名</t>
+          <t>請考慮對 blob 使用“合法保留”或“基于時間的保留”策略，這樣就無法刪除 blob、容器或存儲帳戶。請注意，「不可能」實際上意味著「不可能」;存儲帳戶包含不可變 blob 後，「擺脫」該存儲帳戶的唯一方法是取消 Azure 訂閱。</t>
         </is>
       </c>
       <c r="F512" s="18" t="inlineStr">
@@ -27031,7 +27019,7 @@
       <c r="K512" s="19" t="n"/>
       <c r="L512" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M512" s="20" t="n"/>
@@ -27058,17 +27046,17 @@
       </c>
       <c r="D513" s="18" t="inlineStr">
         <is>
-          <t>IaM 許可權中的最低特權</t>
+          <t>需要 HTTPS，即在儲存帳戶上禁用埠 80</t>
         </is>
       </c>
       <c r="E513" s="18" t="inlineStr">
         <is>
-          <t>將角色分配給使用者、組或應用程式時，請僅向該安全主體授予他們執行任務所需的許可權。限制對資源的訪問有助於防止無意和惡意濫用數據。</t>
+          <t>請考慮禁用對存儲帳戶的未受保護的 HTTP/80 訪問，以便對所有數據傳輸進行加密、完整性保護，並對伺服器進行身份驗證。</t>
         </is>
       </c>
       <c r="F513" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -27077,12 +27065,16 @@
         </is>
       </c>
       <c r="H513" s="18" t="n"/>
-      <c r="I513" s="13" t="n"/>
+      <c r="I513" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J513" s="13" t="n"/>
       <c r="K513" s="19" t="n"/>
       <c r="L513" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M513" s="20" t="n"/>
@@ -27109,12 +27101,12 @@
       </c>
       <c r="D514" s="18" t="inlineStr">
         <is>
-          <t>使用 SAS 時，首選「使用者委派 SAS」，而不是基於存儲帳戶密鑰的 SAS。</t>
+          <t>強制實施 HTTPS（禁用 HTTP）時，請檢查是否未對儲存帳戶使用自定義域 （CNAME）。</t>
         </is>
       </c>
       <c r="E514" s="18" t="inlineStr">
         <is>
-          <t>使用者委派 SAS 使用 Azure Active Directory （Azure AD） 憑據以及為 SAS 指定的許可權進行保護。使用者委派 SAS 在範圍和功能方面類似於服務 SAS，但比服務 SAS 具有安全優勢。</t>
+          <t>在儲存帳戶上配置自定義域（主機名）時，請檢查是否需要 TLS/HTTPS;如果是這樣，可能需要將 Azure CDN 放在存儲帳戶的前面。</t>
         </is>
       </c>
       <c r="F514" s="18" t="inlineStr">
@@ -27137,7 +27129,7 @@
       <c r="K514" s="19" t="n"/>
       <c r="L514" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M514" s="20" t="n"/>
@@ -27164,17 +27156,17 @@
       </c>
       <c r="D515" s="18" t="inlineStr">
         <is>
-          <t>請考慮禁用存儲帳戶密鑰，以便僅支援 AAD 訪問（和使用者委派 SAS）。</t>
+          <t>將共享訪問簽名 （SAS） 令牌限製為僅 HTTPS 連接</t>
         </is>
       </c>
       <c r="E515" s="18" t="inlineStr">
         <is>
-          <t>存儲帳戶金鑰（“共用金鑰”）幾乎沒有審核功能。雖然可以監控誰/何時獲取密鑰副本，但一旦密鑰掌握在多個人手中，就不可能將使用方式歸因於特定使用者。僅依靠 AAD 身份驗證可以更輕鬆地將存儲存取許可權綁定到使用者。</t>
+          <t>當用戶端使用SAS令牌訪問 blob 資料時，要求使用 HTTPS 有助於將憑據丟失的風險降至最低。</t>
         </is>
       </c>
       <c r="F515" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
@@ -27192,7 +27184,7 @@
       <c r="K515" s="19" t="n"/>
       <c r="L515" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M515" s="20" t="n"/>
@@ -27219,12 +27211,12 @@
       </c>
       <c r="D516" s="18" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Monitor 審核存儲帳戶上的控制平面操作</t>
+          <t>使用 Azure Active Directory （Azure AD） 令牌進行 blob 訪問</t>
         </is>
       </c>
       <c r="E516" s="18" t="inlineStr">
         <is>
-          <t>使用活動日誌數據來標識查看或更改存儲帳戶安全性的“時間”、“人員”、“內容”和“方式”（即存儲帳戶密鑰、訪問策略等）。</t>
+          <t>在可能的情況下，AAD 令牌應優先於共用訪問簽名</t>
         </is>
       </c>
       <c r="F516" s="18" t="inlineStr">
@@ -27247,7 +27239,7 @@
       <c r="K516" s="19" t="n"/>
       <c r="L516" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M516" s="20" t="n"/>
@@ -27274,12 +27266,12 @@
       </c>
       <c r="D517" s="18" t="inlineStr">
         <is>
-          <t>使用存儲帳戶密鑰時，請考慮啟用“金鑰過期策略”</t>
+          <t>IaM 許可權中的最低特權</t>
         </is>
       </c>
       <c r="E517" s="18" t="inlineStr">
         <is>
-          <t>通過金鑰過期策略，您可以設置帳戶訪問金鑰輪換的提醒。如果指定的時間間隔已過且鍵尚未旋轉，則會顯示提醒。</t>
+          <t>將角色分配給使用者、組或應用程式時，請僅向該安全主體授予他們執行任務所需的許可權。限制對資源的訪問有助於防止無意和惡意濫用數據。</t>
         </is>
       </c>
       <c r="F517" s="18" t="inlineStr">
@@ -27293,16 +27285,12 @@
         </is>
       </c>
       <c r="H517" s="18" t="n"/>
-      <c r="I517" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I517" s="13" t="n"/>
       <c r="J517" s="13" t="n"/>
       <c r="K517" s="19" t="n"/>
       <c r="L517" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M517" s="20" t="n"/>
@@ -27329,17 +27317,17 @@
       </c>
       <c r="D518" s="18" t="inlineStr">
         <is>
-          <t>考慮配置 SAS 過期策略</t>
+          <t>使用 SAS 時，首選「使用者委派 SAS」，而不是基於存儲帳戶密鑰的 SAS。</t>
         </is>
       </c>
       <c r="E518" s="18" t="inlineStr">
         <is>
-          <t>SAS 過期策略指定 SAS 有效的建議時間間隔。SAS 過期策略適用於服務 SAS 或帳戶 SAS。當使用者生成的服務 SAS 或帳戶 SAS 的有效期間隔大於建議的時間間隔時，他們會看到警告。</t>
+          <t>使用者委派 SAS 使用 Azure Active Directory （Azure AD） 憑據以及為 SAS 指定的許可權進行保護。使用者委派 SAS 在範圍和功能方面類似於服務 SAS，但比服務 SAS 具有安全優勢。</t>
         </is>
       </c>
       <c r="F518" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -27357,7 +27345,7 @@
       <c r="K518" s="19" t="n"/>
       <c r="L518" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M518" s="20" t="n"/>
@@ -27384,17 +27372,17 @@
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>考慮將 SAS 連結到儲存存取策略</t>
+          <t>請考慮禁用存儲帳戶密鑰，以便僅支援 AAD 訪問（和使用者委派 SAS）。</t>
         </is>
       </c>
       <c r="E519" s="18" t="inlineStr">
         <is>
-          <t>存儲存取策略提供了撤銷服務 SAS 許可權的選項，而無需重新生成儲存帳戶密鑰。</t>
+          <t>存儲帳戶金鑰（“共用金鑰”）幾乎沒有審核功能。雖然可以監控誰/何時獲取密鑰副本，但一旦密鑰掌握在多個人手中，就不可能將使用方式歸因於特定使用者。僅依靠 AAD 身份驗證可以更輕鬆地將存儲存取許可權綁定到使用者。</t>
         </is>
       </c>
       <c r="F519" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
@@ -27412,7 +27400,7 @@
       <c r="K519" s="19" t="n"/>
       <c r="L519" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M519" s="20" t="n"/>
@@ -27439,13 +27427,17 @@
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>請考慮配置應用程式的原始程式碼儲存庫，以檢測簽入的連接字串和存儲帳戶密鑰。</t>
-        </is>
-      </c>
-      <c r="E520" s="18" t="n"/>
+          <t>請考慮使用 Azure Monitor 審核存儲帳戶上的控制平面操作</t>
+        </is>
+      </c>
+      <c r="E520" s="18" t="inlineStr">
+        <is>
+          <t>使用活動日誌數據來標識查看或更改存儲帳戶安全性的“時間”、“人員”、“內容”和“方式”（即存儲帳戶密鑰、訪問策略等）。</t>
+        </is>
+      </c>
       <c r="F520" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -27463,7 +27455,7 @@
       <c r="K520" s="19" t="n"/>
       <c r="L520" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M520" s="20" t="n"/>
@@ -27490,17 +27482,17 @@
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>請考慮將連接字串儲存在 Azure KeyVault 中（在無法實現託管標識的情況下）</t>
+          <t>使用存儲帳戶密鑰時，請考慮啟用“金鑰過期策略”</t>
         </is>
       </c>
       <c r="E521" s="18" t="inlineStr">
         <is>
-          <t>理想情況下，應用程式應使用託管標識向 Azure 儲存進行身份驗證。如果無法做到這一點，請考慮在 Azure KeyVault 或等效服務中使用存儲憑據（連接字串、存儲帳戶密鑰、SAS、服務主體憑據）。</t>
+          <t>通過金鑰過期策略，您可以設置帳戶訪問金鑰輪換的提醒。如果指定的時間間隔已過且鍵尚未旋轉，則會顯示提醒。</t>
         </is>
       </c>
       <c r="F521" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -27518,7 +27510,7 @@
       <c r="K521" s="19" t="n"/>
       <c r="L521" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M521" s="20" t="n"/>
@@ -27545,17 +27537,17 @@
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>爭取縮短臨時 SAS 的有效期</t>
+          <t>考慮配置 SAS 過期策略</t>
         </is>
       </c>
       <c r="E522" s="18" t="inlineStr">
         <is>
-          <t>在臨時 SAS 服務 SAS 或帳戶 SAS 上使用近期過期時間。這樣，即使 SAS 遭到入侵，它也只能在很短的時間內有效。如果無法引用存儲訪問策略，則此做法尤為重要。近期過期時間還通過限制可上傳到 blob 的時間來限制可寫入 blob 的數據量。</t>
+          <t>SAS 過期策略指定 SAS 有效的建議時間間隔。SAS 過期策略適用於服務 SAS 或帳戶 SAS。當使用者生成的服務 SAS 或帳戶 SAS 的有效期間隔大於建議的時間間隔時，他們會看到警告。</t>
         </is>
       </c>
       <c r="F522" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
@@ -27573,7 +27565,7 @@
       <c r="K522" s="19" t="n"/>
       <c r="L522" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M522" s="20" t="n"/>
@@ -27600,12 +27592,12 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>將窄範圍應用於SAS</t>
+          <t>考慮將 SAS 連結到儲存存取策略</t>
         </is>
       </c>
       <c r="E523" s="18" t="inlineStr">
         <is>
-          <t>創建 SAS 時，請盡可能具體和嚴格。首選單個資源和操作的 SAS，而不是提供更廣泛訪問許可權的 SAS。</t>
+          <t>存儲存取策略提供了撤銷服務 SAS 許可權的選項，而無需重新生成儲存帳戶密鑰。</t>
         </is>
       </c>
       <c r="F523" s="18" t="inlineStr">
@@ -27628,7 +27620,7 @@
       <c r="K523" s="19" t="n"/>
       <c r="L523" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M523" s="20" t="n"/>
@@ -27655,14 +27647,10 @@
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>盡可能考慮將SAS的範圍限定為特定的用戶端IP位址</t>
-        </is>
-      </c>
-      <c r="E524" s="18" t="inlineStr">
-        <is>
-          <t>SAS 可以包含用戶端 IP 位址或位址範圍有權使用 SAS 請求資源的參數。</t>
-        </is>
-      </c>
+          <t>請考慮配置應用程式的原始程式碼儲存庫，以檢測簽入的連接字串和存儲帳戶密鑰。</t>
+        </is>
+      </c>
+      <c r="E524" s="18" t="n"/>
       <c r="F524" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -27683,7 +27671,7 @@
       <c r="K524" s="19" t="n"/>
       <c r="L524" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M524" s="20" t="n"/>
@@ -27710,17 +27698,17 @@
       </c>
       <c r="D525" s="18" t="inlineStr">
         <is>
-          <t>請考慮在用戶端使用SAS上傳檔后檢查上傳的數據。</t>
+          <t>請考慮將連接字串儲存在 Azure KeyVault 中（在無法實現託管標識的情況下）</t>
         </is>
       </c>
       <c r="E525" s="18" t="inlineStr">
         <is>
-          <t>SAS 無法限制用戶端上傳的數據量;考慮到存儲量隨時間變化的定價模型，驗證用戶端是否惡意上傳了大量內容可能是有意義的。</t>
+          <t>理想情況下，應用程式應使用託管標識向 Azure 儲存進行身份驗證。如果無法做到這一點，請考慮在 Azure KeyVault 或等效服務中使用存儲憑據（連接字串、存儲帳戶密鑰、SAS、服務主體憑據）。</t>
         </is>
       </c>
       <c r="F525" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -27729,12 +27717,16 @@
         </is>
       </c>
       <c r="H525" s="18" t="n"/>
-      <c r="I525" s="13" t="n"/>
+      <c r="I525" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J525" s="13" t="n"/>
       <c r="K525" s="19" t="n"/>
       <c r="L525" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M525" s="20" t="n"/>
@@ -27761,12 +27753,12 @@
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>SFTP：限制 SFTP 訪問的「本地使用者」數量，並審核一段時間內是否需要訪問。</t>
+          <t>爭取縮短臨時 SAS 的有效期</t>
         </is>
       </c>
       <c r="E526" s="18" t="inlineStr">
         <is>
-          <t>使用「本地使用者帳戶」通過 SFTP 訪問 Blob 儲存時，“通常”RBAC 控制不適用。通過 NFS 或 REST 進行的 Blob 訪問可能比 SFTP 訪問更嚴格。遺憾的是，截至 2023 年初，本地使用者是 SFTP 端點當前支援的唯一身份管理形式</t>
+          <t>在臨時 SAS 服務 SAS 或帳戶 SAS 上使用近期過期時間。這樣，即使 SAS 遭到入侵，它也只能在很短的時間內有效。如果無法引用存儲訪問策略，則此做法尤為重要。近期過期時間還通過限制可上傳到 blob 的時間來限制可寫入 blob 的數據量。</t>
         </is>
       </c>
       <c r="F526" s="18" t="inlineStr">
@@ -27789,7 +27781,7 @@
       <c r="K526" s="19" t="n"/>
       <c r="L526" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M526" s="20" t="n"/>
@@ -27816,10 +27808,14 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>SFTP：SFTP 端點不支持類似 POSIX 的 ACL。</t>
-        </is>
-      </c>
-      <c r="E527" s="18" t="n"/>
+          <t>將窄範圍應用於SAS</t>
+        </is>
+      </c>
+      <c r="E527" s="18" t="inlineStr">
+        <is>
+          <t>創建 SAS 時，請盡可能具體和嚴格。首選單個資源和操作的 SAS，而不是提供更廣泛訪問許可權的 SAS。</t>
+        </is>
+      </c>
       <c r="F527" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -27840,7 +27836,7 @@
       <c r="K527" s="19" t="n"/>
       <c r="L527" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M527" s="20" t="n"/>
@@ -27867,17 +27863,17 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t>避免過於寬泛的 CORS 策略</t>
+          <t>盡可能考慮將SAS的範圍限定為特定的用戶端IP位址</t>
         </is>
       </c>
       <c r="E528" s="18" t="inlineStr">
         <is>
-          <t>存儲支援 CORS（跨域資源分享），即一種 HTTP 功能，使來自不同域的 Web 應用程式能夠放寬同源策略。啟用 CORS 時，請將 CorsRules 保留為最低許可權。</t>
+          <t>SAS 可以包含用戶端 IP 位址或位址範圍有權使用 SAS 請求資源的參數。</t>
         </is>
       </c>
       <c r="F528" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
@@ -27895,7 +27891,7 @@
       <c r="K528" s="19" t="n"/>
       <c r="L528" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M528" s="20" t="n"/>
@@ -27922,17 +27918,17 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>確定應如何加密靜態數據。了解數據的線程模型。</t>
+          <t>請考慮在用戶端使用SAS上傳檔后檢查上傳的數據。</t>
         </is>
       </c>
       <c r="E529" s="18" t="inlineStr">
         <is>
-          <t>靜態數據始終在伺服器端加密，此外也可能在用戶端加密。伺服器端加密可能使用平臺管理的金鑰（預設）或客戶管理的金鑰進行。用戶端加密可以通過讓用戶端按 blob 向 Azure 儲存提供加密/解密金鑰，或者完全在用戶端處理加密來實現。因此，完全不依賴 Azure 存儲來保證機密性。</t>
+          <t>SAS 無法限制用戶端上傳的數據量;考慮到存儲量隨時間變化的定價模型，驗證用戶端是否惡意上傳了大量內容可能是有意義的。</t>
         </is>
       </c>
       <c r="F529" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
@@ -27941,16 +27937,12 @@
         </is>
       </c>
       <c r="H529" s="18" t="n"/>
-      <c r="I529" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I529" s="13" t="n"/>
       <c r="J529" s="13" t="n"/>
       <c r="K529" s="19" t="n"/>
       <c r="L529" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M529" s="20" t="n"/>
@@ -27977,13 +27969,17 @@
       </c>
       <c r="D530" s="18" t="inlineStr">
         <is>
-          <t>確定應使用哪種/是否應使用平臺加密。</t>
-        </is>
-      </c>
-      <c r="E530" s="18" t="n"/>
+          <t>SFTP：限制 SFTP 訪問的「本地使用者」數量，並審核一段時間內是否需要訪問。</t>
+        </is>
+      </c>
+      <c r="E530" s="18" t="inlineStr">
+        <is>
+          <t>使用「本地使用者帳戶」通過 SFTP 訪問 Blob 儲存時，“通常”RBAC 控制不適用。通過 NFS 或 REST 進行的 Blob 訪問可能比 SFTP 訪問更嚴格。遺憾的是，截至 2023 年初，本地使用者是 SFTP 端點當前支援的唯一身份管理形式</t>
+        </is>
+      </c>
       <c r="F530" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -28001,7 +27997,7 @@
       <c r="K530" s="19" t="n"/>
       <c r="L530" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M530" s="20" t="n"/>
@@ -28028,7 +28024,7 @@
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>確定應使用哪種/是否應使用用戶端加密。</t>
+          <t>SFTP：SFTP 端點不支持類似 POSIX 的 ACL。</t>
         </is>
       </c>
       <c r="E531" s="18" t="n"/>
@@ -28052,7 +28048,7 @@
       <c r="K531" s="19" t="n"/>
       <c r="L531" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M531" s="20" t="n"/>
@@ -28079,12 +28075,12 @@
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>考慮是否需要公共 blob 訪問，或者是否可以對某些存儲帳戶禁用公共 blob 訪問。</t>
+          <t>避免過於寬泛的 CORS 策略</t>
         </is>
       </c>
       <c r="E532" s="18" t="inlineStr">
         <is>
-          <t>利用 Resource Graph 資源管理器（資源 | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true）查找允許匿名 blob 訪問的存儲帳戶。</t>
+          <t>存儲支援 CORS（跨域資源分享），即一種 HTTP 功能，使來自不同域的 Web 應用程式能夠放寬同源策略。啟用 CORS 時，請將 CorsRules 保留為最低許可權。</t>
         </is>
       </c>
       <c r="F532" s="18" t="inlineStr">
@@ -28107,7 +28103,7 @@
       <c r="K532" s="19" t="n"/>
       <c r="L532" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M532" s="20" t="n"/>
@@ -28117,17 +28113,54 @@
       <c r="Q532" s="20" t="n"/>
     </row>
     <row r="533">
-      <c r="A533" s="18" t="n"/>
-      <c r="B533" s="18" t="n"/>
-      <c r="C533" s="18" t="n"/>
-      <c r="D533" s="18" t="n"/>
-      <c r="E533" s="18" t="n"/>
-      <c r="F533" s="18" t="n"/>
+      <c r="A533" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B533" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C533" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D533" s="18" t="inlineStr">
+        <is>
+          <t>確定應如何加密靜態數據。了解數據的線程模型。</t>
+        </is>
+      </c>
+      <c r="E533" s="18" t="inlineStr">
+        <is>
+          <t>靜態數據始終在伺服器端加密，此外也可能在用戶端加密。伺服器端加密可能使用平臺管理的金鑰（預設）或客戶管理的金鑰進行。用戶端加密可以通過讓用戶端按 blob 向 Azure 儲存提供加密/解密金鑰，或者完全在用戶端處理加密來實現。因此，完全不依賴 Azure 存儲來保證機密性。</t>
+        </is>
+      </c>
+      <c r="F533" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H533" s="18" t="n"/>
-      <c r="I533" s="13" t="n"/>
+      <c r="I533" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J533" s="13" t="n"/>
       <c r="K533" s="19" t="n"/>
-      <c r="L533" s="19" t="n"/>
+      <c r="L533" s="19" t="inlineStr">
+        <is>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+        </is>
+      </c>
       <c r="M533" s="20" t="n"/>
       <c r="N533" s="20" t="n"/>
       <c r="O533" s="20" t="n"/>
@@ -28135,17 +28168,50 @@
       <c r="Q533" s="20" t="n"/>
     </row>
     <row r="534">
-      <c r="A534" s="18" t="n"/>
-      <c r="B534" s="18" t="n"/>
-      <c r="C534" s="18" t="n"/>
-      <c r="D534" s="18" t="n"/>
+      <c r="A534" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B534" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C534" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D534" s="18" t="inlineStr">
+        <is>
+          <t>確定應使用哪種/是否應使用平臺加密。</t>
+        </is>
+      </c>
       <c r="E534" s="18" t="n"/>
-      <c r="F534" s="18" t="n"/>
+      <c r="F534" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H534" s="18" t="n"/>
-      <c r="I534" s="13" t="n"/>
+      <c r="I534" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J534" s="13" t="n"/>
       <c r="K534" s="19" t="n"/>
-      <c r="L534" s="19" t="n"/>
+      <c r="L534" s="19" t="inlineStr">
+        <is>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+        </is>
+      </c>
       <c r="M534" s="20" t="n"/>
       <c r="N534" s="20" t="n"/>
       <c r="O534" s="20" t="n"/>
@@ -28153,17 +28219,50 @@
       <c r="Q534" s="20" t="n"/>
     </row>
     <row r="535">
-      <c r="A535" s="18" t="n"/>
-      <c r="B535" s="18" t="n"/>
-      <c r="C535" s="18" t="n"/>
-      <c r="D535" s="18" t="n"/>
+      <c r="A535" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B535" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C535" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D535" s="18" t="inlineStr">
+        <is>
+          <t>確定應使用哪種/是否應使用用戶端加密。</t>
+        </is>
+      </c>
       <c r="E535" s="18" t="n"/>
-      <c r="F535" s="18" t="n"/>
+      <c r="F535" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H535" s="18" t="n"/>
-      <c r="I535" s="13" t="n"/>
+      <c r="I535" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J535" s="13" t="n"/>
       <c r="K535" s="19" t="n"/>
-      <c r="L535" s="19" t="n"/>
+      <c r="L535" s="19" t="inlineStr">
+        <is>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+        </is>
+      </c>
       <c r="M535" s="20" t="n"/>
       <c r="N535" s="20" t="n"/>
       <c r="O535" s="20" t="n"/>
@@ -28171,17 +28270,54 @@
       <c r="Q535" s="20" t="n"/>
     </row>
     <row r="536">
-      <c r="A536" s="18" t="n"/>
-      <c r="B536" s="18" t="n"/>
-      <c r="C536" s="18" t="n"/>
-      <c r="D536" s="18" t="n"/>
-      <c r="E536" s="18" t="n"/>
-      <c r="F536" s="18" t="n"/>
+      <c r="A536" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B536" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C536" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D536" s="18" t="inlineStr">
+        <is>
+          <t>考慮是否需要公共 blob 訪問，或者是否可以對某些存儲帳戶禁用公共 blob 訪問。</t>
+        </is>
+      </c>
+      <c r="E536" s="18" t="inlineStr">
+        <is>
+          <t>利用 Resource Graph 資源管理器（資源 | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true）查找允許匿名 blob 訪問的存儲帳戶。</t>
+        </is>
+      </c>
+      <c r="F536" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H536" s="18" t="n"/>
-      <c r="I536" s="13" t="n"/>
+      <c r="I536" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J536" s="13" t="n"/>
       <c r="K536" s="19" t="n"/>
-      <c r="L536" s="19" t="n"/>
+      <c r="L536" s="19" t="inlineStr">
+        <is>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+        </is>
+      </c>
       <c r="M536" s="20" t="n"/>
       <c r="N536" s="20" t="n"/>
       <c r="O536" s="20" t="n"/>
@@ -40375,7 +40511,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G533" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G537" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -40760,13 +40896,13 @@
     <hyperlink ref="I387" r:id="rId378"/>
     <hyperlink ref="I388" r:id="rId379"/>
     <hyperlink ref="I389" r:id="rId380"/>
-    <hyperlink ref="I400" r:id="rId381"/>
-    <hyperlink ref="I482" r:id="rId382"/>
-    <hyperlink ref="I483" r:id="rId383"/>
-    <hyperlink ref="I487" r:id="rId384"/>
-    <hyperlink ref="I488" r:id="rId385"/>
-    <hyperlink ref="I489" r:id="rId386"/>
-    <hyperlink ref="I490" r:id="rId387"/>
+    <hyperlink ref="I390" r:id="rId381"/>
+    <hyperlink ref="I391" r:id="rId382"/>
+    <hyperlink ref="I392" r:id="rId383"/>
+    <hyperlink ref="I393" r:id="rId384"/>
+    <hyperlink ref="I404" r:id="rId385"/>
+    <hyperlink ref="I486" r:id="rId386"/>
+    <hyperlink ref="I487" r:id="rId387"/>
     <hyperlink ref="I491" r:id="rId388"/>
     <hyperlink ref="I492" r:id="rId389"/>
     <hyperlink ref="I493" r:id="rId390"/>
@@ -40789,10 +40925,10 @@
     <hyperlink ref="I510" r:id="rId407"/>
     <hyperlink ref="I511" r:id="rId408"/>
     <hyperlink ref="I512" r:id="rId409"/>
-    <hyperlink ref="I514" r:id="rId410"/>
-    <hyperlink ref="I515" r:id="rId411"/>
-    <hyperlink ref="I516" r:id="rId412"/>
-    <hyperlink ref="I517" r:id="rId413"/>
+    <hyperlink ref="I513" r:id="rId410"/>
+    <hyperlink ref="I514" r:id="rId411"/>
+    <hyperlink ref="I515" r:id="rId412"/>
+    <hyperlink ref="I516" r:id="rId413"/>
     <hyperlink ref="I518" r:id="rId414"/>
     <hyperlink ref="I519" r:id="rId415"/>
     <hyperlink ref="I520" r:id="rId416"/>
@@ -40800,13 +40936,17 @@
     <hyperlink ref="I522" r:id="rId418"/>
     <hyperlink ref="I523" r:id="rId419"/>
     <hyperlink ref="I524" r:id="rId420"/>
-    <hyperlink ref="I526" r:id="rId421"/>
-    <hyperlink ref="I527" r:id="rId422"/>
-    <hyperlink ref="I528" r:id="rId423"/>
-    <hyperlink ref="I529" r:id="rId424"/>
+    <hyperlink ref="I525" r:id="rId421"/>
+    <hyperlink ref="I526" r:id="rId422"/>
+    <hyperlink ref="I527" r:id="rId423"/>
+    <hyperlink ref="I528" r:id="rId424"/>
     <hyperlink ref="I530" r:id="rId425"/>
     <hyperlink ref="I531" r:id="rId426"/>
     <hyperlink ref="I532" r:id="rId427"/>
+    <hyperlink ref="I533" r:id="rId428"/>
+    <hyperlink ref="I534" r:id="rId429"/>
+    <hyperlink ref="I535" r:id="rId430"/>
+    <hyperlink ref="I536" r:id="rId431"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -29128,7 +29128,7 @@
     <row r="552">
       <c r="A552" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B552" s="18" t="inlineStr">
@@ -29138,16 +29138,20 @@
       </c>
       <c r="C552" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D552" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
+          <t>利用可用區（如果區域適用）（此功能會自動啟用）</t>
         </is>
       </c>
       <c r="E552" s="18" t="n"/>
-      <c r="F552" s="18" t="n"/>
+      <c r="F552" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G552" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -29163,7 +29167,7 @@
       <c r="K552" s="19" t="n"/>
       <c r="L552" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
         </is>
       </c>
       <c r="M552" s="20" t="n"/>
@@ -29175,7 +29179,7 @@
     <row r="553">
       <c r="A553" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B553" s="18" t="inlineStr">
@@ -29185,16 +29189,20 @@
       </c>
       <c r="C553" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D553" s="18" t="inlineStr">
         <is>
-          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+          <t>請注意 Microsoft 發起的故障轉移。在極少數情況下，Microsoft 會執行這些操作，以將所有IoT中心從受影響的區域故障轉移到相應的地理配對區域。</t>
         </is>
       </c>
       <c r="E553" s="18" t="n"/>
-      <c r="F553" s="18" t="n"/>
+      <c r="F553" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="G553" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -29210,7 +29218,7 @@
       <c r="K553" s="19" t="n"/>
       <c r="L553" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
         </is>
       </c>
       <c r="M553" s="20" t="n"/>
@@ -29222,7 +29230,7 @@
     <row r="554">
       <c r="A554" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B554" s="18" t="inlineStr">
@@ -29232,16 +29240,20 @@
       </c>
       <c r="C554" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D554" s="18" t="inlineStr">
         <is>
-          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+          <t>考慮針對關鍵工作負載的跨區域災難恢復策略</t>
         </is>
       </c>
       <c r="E554" s="18" t="n"/>
-      <c r="F554" s="18" t="n"/>
+      <c r="F554" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G554" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -29257,7 +29269,7 @@
       <c r="K554" s="19" t="n"/>
       <c r="L554" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
         </is>
       </c>
       <c r="M554" s="20" t="n"/>
@@ -29269,7 +29281,7 @@
     <row r="555">
       <c r="A555" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B555" s="18" t="inlineStr">
@@ -29279,16 +29291,20 @@
       </c>
       <c r="C555" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D555" s="18" t="inlineStr">
         <is>
-          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+          <t>瞭解如何觸發手動故障轉移。</t>
         </is>
       </c>
       <c r="E555" s="18" t="n"/>
-      <c r="F555" s="18" t="n"/>
+      <c r="F555" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G555" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -29304,7 +29320,7 @@
       <c r="K555" s="19" t="n"/>
       <c r="L555" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
         </is>
       </c>
       <c r="M555" s="20" t="n"/>
@@ -29314,17 +29330,50 @@
       <c r="Q555" s="20" t="n"/>
     </row>
     <row r="556">
-      <c r="A556" s="18" t="n"/>
-      <c r="B556" s="18" t="n"/>
-      <c r="C556" s="18" t="n"/>
-      <c r="D556" s="18" t="n"/>
+      <c r="A556" s="18" t="inlineStr">
+        <is>
+          <t>IoT Hub Review</t>
+        </is>
+      </c>
+      <c r="B556" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C556" s="18" t="inlineStr">
+        <is>
+          <t>IoT</t>
+        </is>
+      </c>
+      <c r="D556" s="18" t="inlineStr">
+        <is>
+          <t>瞭解如何在故障轉移後進行故障回復。</t>
+        </is>
+      </c>
       <c r="E556" s="18" t="n"/>
-      <c r="F556" s="18" t="n"/>
+      <c r="F556" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H556" s="18" t="n"/>
-      <c r="I556" s="13" t="n"/>
+      <c r="I556" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J556" s="13" t="n"/>
       <c r="K556" s="19" t="n"/>
-      <c r="L556" s="19" t="n"/>
+      <c r="L556" s="19" t="inlineStr">
+        <is>
+          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
+        </is>
+      </c>
       <c r="M556" s="20" t="n"/>
       <c r="N556" s="20" t="n"/>
       <c r="O556" s="20" t="n"/>
@@ -29332,17 +29381,46 @@
       <c r="Q556" s="20" t="n"/>
     </row>
     <row r="557">
-      <c r="A557" s="18" t="n"/>
-      <c r="B557" s="18" t="n"/>
-      <c r="C557" s="18" t="n"/>
-      <c r="D557" s="18" t="n"/>
+      <c r="A557" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B557" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C557" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D557" s="18" t="inlineStr">
+        <is>
+          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
+        </is>
+      </c>
       <c r="E557" s="18" t="n"/>
       <c r="F557" s="18" t="n"/>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H557" s="18" t="n"/>
-      <c r="I557" s="13" t="n"/>
+      <c r="I557" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J557" s="13" t="n"/>
       <c r="K557" s="19" t="n"/>
-      <c r="L557" s="19" t="n"/>
+      <c r="L557" s="19" t="inlineStr">
+        <is>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+        </is>
+      </c>
       <c r="M557" s="20" t="n"/>
       <c r="N557" s="20" t="n"/>
       <c r="O557" s="20" t="n"/>
@@ -29350,17 +29428,46 @@
       <c r="Q557" s="20" t="n"/>
     </row>
     <row r="558">
-      <c r="A558" s="18" t="n"/>
-      <c r="B558" s="18" t="n"/>
-      <c r="C558" s="18" t="n"/>
-      <c r="D558" s="18" t="n"/>
+      <c r="A558" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B558" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C558" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D558" s="18" t="inlineStr">
+        <is>
+          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+        </is>
+      </c>
       <c r="E558" s="18" t="n"/>
       <c r="F558" s="18" t="n"/>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H558" s="18" t="n"/>
-      <c r="I558" s="13" t="n"/>
+      <c r="I558" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J558" s="13" t="n"/>
       <c r="K558" s="19" t="n"/>
-      <c r="L558" s="19" t="n"/>
+      <c r="L558" s="19" t="inlineStr">
+        <is>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+        </is>
+      </c>
       <c r="M558" s="20" t="n"/>
       <c r="N558" s="20" t="n"/>
       <c r="O558" s="20" t="n"/>
@@ -29368,17 +29475,46 @@
       <c r="Q558" s="20" t="n"/>
     </row>
     <row r="559">
-      <c r="A559" s="18" t="n"/>
-      <c r="B559" s="18" t="n"/>
-      <c r="C559" s="18" t="n"/>
-      <c r="D559" s="18" t="n"/>
+      <c r="A559" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B559" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C559" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D559" s="18" t="inlineStr">
+        <is>
+          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+        </is>
+      </c>
       <c r="E559" s="18" t="n"/>
       <c r="F559" s="18" t="n"/>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H559" s="18" t="n"/>
-      <c r="I559" s="13" t="n"/>
+      <c r="I559" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J559" s="13" t="n"/>
       <c r="K559" s="19" t="n"/>
-      <c r="L559" s="19" t="n"/>
+      <c r="L559" s="19" t="inlineStr">
+        <is>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+        </is>
+      </c>
       <c r="M559" s="20" t="n"/>
       <c r="N559" s="20" t="n"/>
       <c r="O559" s="20" t="n"/>
@@ -29386,17 +29522,46 @@
       <c r="Q559" s="20" t="n"/>
     </row>
     <row r="560">
-      <c r="A560" s="18" t="n"/>
-      <c r="B560" s="18" t="n"/>
-      <c r="C560" s="18" t="n"/>
-      <c r="D560" s="18" t="n"/>
+      <c r="A560" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B560" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C560" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D560" s="18" t="inlineStr">
+        <is>
+          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+        </is>
+      </c>
       <c r="E560" s="18" t="n"/>
       <c r="F560" s="18" t="n"/>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H560" s="18" t="n"/>
-      <c r="I560" s="13" t="n"/>
+      <c r="I560" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J560" s="13" t="n"/>
       <c r="K560" s="19" t="n"/>
-      <c r="L560" s="19" t="n"/>
+      <c r="L560" s="19" t="inlineStr">
+        <is>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+        </is>
+      </c>
       <c r="M560" s="20" t="n"/>
       <c r="N560" s="20" t="n"/>
       <c r="O560" s="20" t="n"/>
@@ -41158,7 +41323,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G556" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G561" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -41613,6 +41778,11 @@
     <hyperlink ref="I553" r:id="rId448"/>
     <hyperlink ref="I554" r:id="rId449"/>
     <hyperlink ref="I555" r:id="rId450"/>
+    <hyperlink ref="I556" r:id="rId451"/>
+    <hyperlink ref="I557" r:id="rId452"/>
+    <hyperlink ref="I558" r:id="rId453"/>
+    <hyperlink ref="I559" r:id="rId454"/>
+    <hyperlink ref="I560" r:id="rId455"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -29398,11 +29398,15 @@
       </c>
       <c r="D557" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
+          <t>為 Azure Cache for Redis 啟用區域冗餘。Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域的不同 Azure 可用性區域中。它消除了作為單點故障的數據中心或可用區中斷，並提高了緩存的整體可用性。</t>
         </is>
       </c>
       <c r="E557" s="18" t="n"/>
-      <c r="F557" s="18" t="n"/>
+      <c r="F557" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G557" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -29445,11 +29449,15 @@
       </c>
       <c r="D558" s="18" t="inlineStr">
         <is>
-          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+          <t>為 Azure Cache for Redis 實例配置數據持久性。由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許您定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
         </is>
       </c>
       <c r="E558" s="18" t="n"/>
-      <c r="F558" s="18" t="n"/>
+      <c r="F558" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="G558" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -29492,11 +29500,15 @@
       </c>
       <c r="D559" s="18" t="inlineStr">
         <is>
-          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+          <t>使用異地冗餘存儲帳戶保留 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下使用區域冗餘</t>
         </is>
       </c>
       <c r="E559" s="18" t="n"/>
-      <c r="F559" s="18" t="n"/>
+      <c r="F559" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="G559" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -29539,11 +29551,15 @@
       </c>
       <c r="D560" s="18" t="inlineStr">
         <is>
-          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+          <t>為高級 Azure Cache for Redis 實例配置被動異地複製。異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，從而提供對主緩存的讀取和寫入，並將數據複製到輔助緩存。</t>
         </is>
       </c>
       <c r="E560" s="18" t="n"/>
-      <c r="F560" s="18" t="n"/>
+      <c r="F560" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="G560" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -41903,7 +41919,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的措施項</t>
+          <t>有一個與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -41942,7 +41958,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>建議已理解，但當前要求不需要</t>
+          <t>建議已理解，但當前需求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -38447,17 +38447,58 @@
       <c r="Q726" s="20" t="n"/>
     </row>
     <row r="727">
-      <c r="A727" s="18" t="n"/>
-      <c r="B727" s="18" t="n"/>
-      <c r="C727" s="18" t="n"/>
-      <c r="D727" s="18" t="n"/>
-      <c r="E727" s="18" t="n"/>
-      <c r="F727" s="18" t="n"/>
+      <c r="A727" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B727" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C727" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D727" s="18" t="inlineStr">
+        <is>
+          <t>需要時，在靜態數據加密中使用客戶管理的金鑰選項</t>
+        </is>
+      </c>
+      <c r="E727" s="18" t="inlineStr">
+        <is>
+          <t>Azure 事件中心提供靜態數據加密。如果使用自己的金鑰，則仍使用 Microsoft 管理的金鑰對數據進行加密，但此外，Microsoft 管理的金鑰將使用客戶管理的密鑰進行加密。</t>
+        </is>
+      </c>
+      <c r="F727" s="18" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H727" s="18" t="n"/>
-      <c r="I727" s="13" t="n"/>
-      <c r="J727" s="13" t="n"/>
+      <c r="I727" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J727" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="K727" s="19" t="n"/>
-      <c r="L727" s="19" t="n"/>
+      <c r="L727" s="19" t="inlineStr">
+        <is>
+          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
+        </is>
+      </c>
       <c r="M727" s="20" t="n"/>
       <c r="N727" s="20" t="n"/>
       <c r="O727" s="20" t="n"/>
@@ -38465,17 +38506,58 @@
       <c r="Q727" s="20" t="n"/>
     </row>
     <row r="728">
-      <c r="A728" s="18" t="n"/>
-      <c r="B728" s="18" t="n"/>
-      <c r="C728" s="18" t="n"/>
-      <c r="D728" s="18" t="n"/>
-      <c r="E728" s="18" t="n"/>
-      <c r="F728" s="18" t="n"/>
+      <c r="A728" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B728" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C728" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D728" s="18" t="inlineStr">
+        <is>
+          <t>對請求強制實施傳輸層安全性 （TLS） 的最低要求版本</t>
+        </is>
+      </c>
+      <c r="E728" s="18" t="inlineStr">
+        <is>
+          <t>Azure 事件中心命名空間允許用戶端使用 TLS 1.0 及更高版本發送和接收數據。若要強制實施更嚴格的安全措施，可以將事件中心命名空間配置為要求用戶端使用較新版本的 TLS 發送和接收數據。如果事件中心命名空間需要最低版本的 TLS，則使用舊版本發出的任何請求都將失敗。</t>
+        </is>
+      </c>
+      <c r="F728" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H728" s="18" t="n"/>
-      <c r="I728" s="13" t="n"/>
-      <c r="J728" s="13" t="n"/>
+      <c r="I728" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J728" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="K728" s="19" t="n"/>
-      <c r="L728" s="19" t="n"/>
+      <c r="L728" s="19" t="inlineStr">
+        <is>
+          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
+        </is>
+      </c>
       <c r="M728" s="20" t="n"/>
       <c r="N728" s="20" t="n"/>
       <c r="O728" s="20" t="n"/>
@@ -38483,17 +38565,58 @@
       <c r="Q728" s="20" t="n"/>
     </row>
     <row r="729">
-      <c r="A729" s="18" t="n"/>
-      <c r="B729" s="18" t="n"/>
-      <c r="C729" s="18" t="n"/>
-      <c r="D729" s="18" t="n"/>
-      <c r="E729" s="18" t="n"/>
-      <c r="F729" s="18" t="n"/>
+      <c r="A729" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B729" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C729" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D729" s="18" t="inlineStr">
+        <is>
+          <t>避免在不必要的情況下使用root帳戶</t>
+        </is>
+      </c>
+      <c r="E729" s="18" t="inlineStr">
+        <is>
+          <t>創建事件中心命名空間時，會自動為命名空間創建名為 RootManageSharedAccessKey 的策略規則。此策略具有整個命名空間的管理許可權。建議您將此規則視為管理根帳戶，不要在應用程式中使用它。建議將 AAD 用作 RBAC 的身份驗證提供程式。</t>
+        </is>
+      </c>
+      <c r="F729" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H729" s="18" t="n"/>
-      <c r="I729" s="13" t="n"/>
-      <c r="J729" s="13" t="n"/>
+      <c r="I729" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J729" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="K729" s="19" t="n"/>
-      <c r="L729" s="19" t="n"/>
+      <c r="L729" s="19" t="inlineStr">
+        <is>
+          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
+        </is>
+      </c>
       <c r="M729" s="20" t="n"/>
       <c r="N729" s="20" t="n"/>
       <c r="O729" s="20" t="n"/>
@@ -38501,17 +38624,58 @@
       <c r="Q729" s="20" t="n"/>
     </row>
     <row r="730">
-      <c r="A730" s="18" t="n"/>
-      <c r="B730" s="18" t="n"/>
-      <c r="C730" s="18" t="n"/>
-      <c r="D730" s="18" t="n"/>
-      <c r="E730" s="18" t="n"/>
-      <c r="F730" s="18" t="n"/>
+      <c r="A730" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B730" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C730" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D730" s="18" t="inlineStr">
+        <is>
+          <t>如果可能，應用程式應使用託管標識向 Azure 事件中心進行身份驗證。如果沒有，請考慮在 Azure Key Vault 或等效服務中擁有存儲憑據（SAS、服務主體憑據）</t>
+        </is>
+      </c>
+      <c r="E730" s="18" t="inlineStr">
+        <is>
+          <t>Azure 資源的託管標識可以使用 Azure AD 憑據從 Azure 虛擬機 （VM）、函數應用、虛擬機規模集和其他服務中運行的應用程式授權訪問事件中心資源。通過將 Azure 資源的託管標識與 Azure AD 身份驗證結合使用，可以避免將憑據存儲在雲中運行的應用程式中。</t>
+        </is>
+      </c>
+      <c r="F730" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H730" s="18" t="n"/>
-      <c r="I730" s="13" t="n"/>
-      <c r="J730" s="13" t="n"/>
+      <c r="I730" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J730" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K730" s="19" t="n"/>
-      <c r="L730" s="19" t="n"/>
+      <c r="L730" s="19" t="inlineStr">
+        <is>
+          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
+        </is>
+      </c>
       <c r="M730" s="20" t="n"/>
       <c r="N730" s="20" t="n"/>
       <c r="O730" s="20" t="n"/>
@@ -38519,17 +38683,58 @@
       <c r="Q730" s="20" t="n"/>
     </row>
     <row r="731">
-      <c r="A731" s="18" t="n"/>
-      <c r="B731" s="18" t="n"/>
-      <c r="C731" s="18" t="n"/>
-      <c r="D731" s="18" t="n"/>
-      <c r="E731" s="18" t="n"/>
-      <c r="F731" s="18" t="n"/>
+      <c r="A731" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B731" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C731" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D731" s="18" t="inlineStr">
+        <is>
+          <t>使用最低特權數據平面 RBAC</t>
+        </is>
+      </c>
+      <c r="E731" s="18" t="inlineStr">
+        <is>
+          <t>創建許可權時，請對用戶端對 Azure 事件中心的訪問提供精細控制。Azure 事件中心中的許可權可以而且應該限定為單個資源級別，例如消費者組、事件中心實體、事件中心命名空間等。</t>
+        </is>
+      </c>
+      <c r="F731" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H731" s="18" t="n"/>
-      <c r="I731" s="13" t="n"/>
-      <c r="J731" s="13" t="n"/>
+      <c r="I731" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J731" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K731" s="19" t="n"/>
-      <c r="L731" s="19" t="n"/>
+      <c r="L731" s="19" t="inlineStr">
+        <is>
+          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
+        </is>
+      </c>
       <c r="M731" s="20" t="n"/>
       <c r="N731" s="20" t="n"/>
       <c r="O731" s="20" t="n"/>
@@ -38537,17 +38742,58 @@
       <c r="Q731" s="20" t="n"/>
     </row>
     <row r="732">
-      <c r="A732" s="18" t="n"/>
-      <c r="B732" s="18" t="n"/>
-      <c r="C732" s="18" t="n"/>
-      <c r="D732" s="18" t="n"/>
-      <c r="E732" s="18" t="n"/>
-      <c r="F732" s="18" t="n"/>
+      <c r="A732" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B732" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C732" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D732" s="18" t="inlineStr">
+        <is>
+          <t>啟用記錄以進行安全調查。使用 Azure Monitor 捕獲指標和日誌，例如資源日誌、運行時審核日誌和 Kafka 紀錄</t>
+        </is>
+      </c>
+      <c r="E732" s="18" t="inlineStr">
+        <is>
+          <t>Azure 事件中心資源日誌包括操作日誌、虛擬網路和 Kafka 日誌。運行時審核日誌捕獲事件中心中所有數據平面訪問操作（例如發送或接收事件）的聚合診斷資訊。</t>
+        </is>
+      </c>
+      <c r="F732" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H732" s="18" t="n"/>
-      <c r="I732" s="13" t="n"/>
-      <c r="J732" s="13" t="n"/>
+      <c r="I732" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J732" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="K732" s="19" t="n"/>
-      <c r="L732" s="19" t="n"/>
+      <c r="L732" s="19" t="inlineStr">
+        <is>
+          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
+        </is>
+      </c>
       <c r="M732" s="20" t="n"/>
       <c r="N732" s="20" t="n"/>
       <c r="O732" s="20" t="n"/>
@@ -38555,17 +38801,58 @@
       <c r="Q732" s="20" t="n"/>
     </row>
     <row r="733">
-      <c r="A733" s="18" t="n"/>
-      <c r="B733" s="18" t="n"/>
-      <c r="C733" s="18" t="n"/>
-      <c r="D733" s="18" t="n"/>
-      <c r="E733" s="18" t="n"/>
-      <c r="F733" s="18" t="n"/>
+      <c r="A733" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B733" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C733" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D733" s="18" t="inlineStr">
+        <is>
+          <t>請考慮使用專用終結點訪問 Azure 事件中心，並在適用時禁用公用網路訪問。</t>
+        </is>
+      </c>
+      <c r="E733" s="18" t="inlineStr">
+        <is>
+          <t>默認情況下，Azure 事件中心具有公共IP位址，並且可通過Internet訪問。專用終結點允許虛擬網路和 Azure 事件中心之間的流量遍歷 Microsoft 主幹網路。除此之外，如果未使用公共終結點，則應禁用這些終結點。</t>
+        </is>
+      </c>
+      <c r="F733" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H733" s="18" t="n"/>
-      <c r="I733" s="13" t="n"/>
-      <c r="J733" s="13" t="n"/>
+      <c r="I733" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J733" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K733" s="19" t="n"/>
-      <c r="L733" s="19" t="n"/>
+      <c r="L733" s="19" t="inlineStr">
+        <is>
+          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
+        </is>
+      </c>
       <c r="M733" s="20" t="n"/>
       <c r="N733" s="20" t="n"/>
       <c r="O733" s="20" t="n"/>
@@ -38573,17 +38860,58 @@
       <c r="Q733" s="20" t="n"/>
     </row>
     <row r="734">
-      <c r="A734" s="18" t="n"/>
-      <c r="B734" s="18" t="n"/>
-      <c r="C734" s="18" t="n"/>
-      <c r="D734" s="18" t="n"/>
-      <c r="E734" s="18" t="n"/>
-      <c r="F734" s="18" t="n"/>
+      <c r="A734" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B734" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C734" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D734" s="18" t="inlineStr">
+        <is>
+          <t>請考慮僅允許從特定IP位址或範圍訪問 Azure 事件中心命名空間</t>
+        </is>
+      </c>
+      <c r="E734" s="18" t="inlineStr">
+        <is>
+          <t>使用IP防火牆，可以將公共終結點進一步限製為僅一組IPv4位址或 CIDR（無類別域間路由）表示法的IPv4位址範圍。</t>
+        </is>
+      </c>
+      <c r="F734" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H734" s="18" t="n"/>
-      <c r="I734" s="13" t="n"/>
-      <c r="J734" s="13" t="n"/>
+      <c r="I734" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J734" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K734" s="19" t="n"/>
-      <c r="L734" s="19" t="n"/>
+      <c r="L734" s="19" t="inlineStr">
+        <is>
+          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
+        </is>
+      </c>
       <c r="M734" s="20" t="n"/>
       <c r="N734" s="20" t="n"/>
       <c r="O734" s="20" t="n"/>
@@ -38591,17 +38919,50 @@
       <c r="Q734" s="20" t="n"/>
     </row>
     <row r="735">
-      <c r="A735" s="18" t="n"/>
-      <c r="B735" s="18" t="n"/>
-      <c r="C735" s="18" t="n"/>
-      <c r="D735" s="18" t="n"/>
+      <c r="A735" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B735" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C735" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D735" s="18" t="inlineStr">
+        <is>
+          <t>利用 FTA 彈性手冊</t>
+        </is>
+      </c>
       <c r="E735" s="18" t="n"/>
-      <c r="F735" s="18" t="n"/>
+      <c r="F735" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H735" s="18" t="n"/>
-      <c r="I735" s="13" t="n"/>
+      <c r="I735" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J735" s="13" t="n"/>
       <c r="K735" s="19" t="n"/>
-      <c r="L735" s="19" t="n"/>
+      <c r="L735" s="19" t="inlineStr">
+        <is>
+          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
+        </is>
+      </c>
       <c r="M735" s="20" t="n"/>
       <c r="N735" s="20" t="n"/>
       <c r="O735" s="20" t="n"/>
@@ -38609,17 +38970,54 @@
       <c r="Q735" s="20" t="n"/>
     </row>
     <row r="736">
-      <c r="A736" s="18" t="n"/>
-      <c r="B736" s="18" t="n"/>
-      <c r="C736" s="18" t="n"/>
-      <c r="D736" s="18" t="n"/>
-      <c r="E736" s="18" t="n"/>
-      <c r="F736" s="18" t="n"/>
+      <c r="A736" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B736" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C736" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D736" s="18" t="inlineStr">
+        <is>
+          <t>利用可用區（如果區域適用）</t>
+        </is>
+      </c>
+      <c r="E736" s="18" t="inlineStr">
+        <is>
+          <t>對於從門戶創建的新 EH 命名空間，在啟用區域的區域中具有高級、專用或標準 SKU，將自動啟用此功能。EH 元數據和事件數據本身都是跨區域複製的</t>
+        </is>
+      </c>
+      <c r="F736" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H736" s="18" t="n"/>
-      <c r="I736" s="13" t="n"/>
+      <c r="I736" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J736" s="13" t="n"/>
       <c r="K736" s="19" t="n"/>
-      <c r="L736" s="19" t="n"/>
+      <c r="L736" s="19" t="inlineStr">
+        <is>
+          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
+        </is>
+      </c>
       <c r="M736" s="20" t="n"/>
       <c r="N736" s="20" t="n"/>
       <c r="O736" s="20" t="n"/>
@@ -38627,17 +39025,50 @@
       <c r="Q736" s="20" t="n"/>
     </row>
     <row r="737">
-      <c r="A737" s="18" t="n"/>
-      <c r="B737" s="18" t="n"/>
-      <c r="C737" s="18" t="n"/>
-      <c r="D737" s="18" t="n"/>
+      <c r="A737" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B737" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C737" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D737" s="18" t="inlineStr">
+        <is>
+          <t>使用高級或專用 SKU 實現可預測的性能</t>
+        </is>
+      </c>
       <c r="E737" s="18" t="n"/>
-      <c r="F737" s="18" t="n"/>
+      <c r="F737" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H737" s="18" t="n"/>
-      <c r="I737" s="13" t="n"/>
+      <c r="I737" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J737" s="13" t="n"/>
       <c r="K737" s="19" t="n"/>
-      <c r="L737" s="19" t="n"/>
+      <c r="L737" s="19" t="inlineStr">
+        <is>
+          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
+        </is>
+      </c>
       <c r="M737" s="20" t="n"/>
       <c r="N737" s="20" t="n"/>
       <c r="O737" s="20" t="n"/>
@@ -38645,17 +39076,54 @@
       <c r="Q737" s="20" t="n"/>
     </row>
     <row r="738">
-      <c r="A738" s="18" t="n"/>
-      <c r="B738" s="18" t="n"/>
-      <c r="C738" s="18" t="n"/>
-      <c r="D738" s="18" t="n"/>
-      <c r="E738" s="18" t="n"/>
-      <c r="F738" s="18" t="n"/>
+      <c r="A738" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B738" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C738" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D738" s="18" t="inlineStr">
+        <is>
+          <t>使用主動被動配置規劃異地災難恢復</t>
+        </is>
+      </c>
+      <c r="E738" s="18" t="inlineStr">
+        <is>
+          <t>啟用內置異地災難恢復功能后，可確保命名空間的整個配置（事件中心、消費者組和設置）從主命名空間持續複製到輔助命名空間，並允許隨時從主命名空間向輔助命名空間進行一次故障轉移。主動/被動功能旨在更輕鬆地從失敗的 Azure 區域中恢復和放棄，而無需更改應用程式配置</t>
+        </is>
+      </c>
+      <c r="F738" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H738" s="18" t="n"/>
-      <c r="I738" s="13" t="n"/>
+      <c r="I738" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J738" s="13" t="n"/>
       <c r="K738" s="19" t="n"/>
-      <c r="L738" s="19" t="n"/>
+      <c r="L738" s="19" t="inlineStr">
+        <is>
+          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
+        </is>
+      </c>
       <c r="M738" s="20" t="n"/>
       <c r="N738" s="20" t="n"/>
       <c r="O738" s="20" t="n"/>
@@ -38663,17 +39131,54 @@
       <c r="Q738" s="20" t="n"/>
     </row>
     <row r="739">
-      <c r="A739" s="18" t="n"/>
-      <c r="B739" s="18" t="n"/>
-      <c r="C739" s="18" t="n"/>
-      <c r="D739" s="18" t="n"/>
-      <c r="E739" s="18" t="n"/>
-      <c r="F739" s="18" t="n"/>
+      <c r="A739" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B739" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C739" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D739" s="18" t="inlineStr">
+        <is>
+          <t>對於業務關鍵型應用程式，請使用 Active Active 配置</t>
+        </is>
+      </c>
+      <c r="E739" s="18" t="inlineStr">
+        <is>
+          <t>應用於無法容忍關閉區域中事件數據中斷或丟失的DR配置。對於這些情況，請遵循複製指南，不要使用內置的異地災難恢復功能（主動/被動）。使用「主動/主動」時，在不同區域和命名空間中維護多個事件中心，事件將在中心之間複製</t>
+        </is>
+      </c>
+      <c r="F739" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H739" s="18" t="n"/>
-      <c r="I739" s="13" t="n"/>
+      <c r="I739" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J739" s="13" t="n"/>
       <c r="K739" s="19" t="n"/>
-      <c r="L739" s="19" t="n"/>
+      <c r="L739" s="19" t="inlineStr">
+        <is>
+          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
+        </is>
+      </c>
       <c r="M739" s="20" t="n"/>
       <c r="N739" s="20" t="n"/>
       <c r="O739" s="20" t="n"/>
@@ -38681,17 +39186,50 @@
       <c r="Q739" s="20" t="n"/>
     </row>
     <row r="740">
-      <c r="A740" s="18" t="n"/>
-      <c r="B740" s="18" t="n"/>
-      <c r="C740" s="18" t="n"/>
-      <c r="D740" s="18" t="n"/>
+      <c r="A740" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B740" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C740" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D740" s="18" t="inlineStr">
+        <is>
+          <t>設計可復原的事件中心</t>
+        </is>
+      </c>
       <c r="E740" s="18" t="n"/>
-      <c r="F740" s="18" t="n"/>
+      <c r="F740" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H740" s="18" t="n"/>
-      <c r="I740" s="13" t="n"/>
+      <c r="I740" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J740" s="13" t="n"/>
       <c r="K740" s="19" t="n"/>
-      <c r="L740" s="19" t="n"/>
+      <c r="L740" s="19" t="inlineStr">
+        <is>
+          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
+        </is>
+      </c>
       <c r="M740" s="20" t="n"/>
       <c r="N740" s="20" t="n"/>
       <c r="O740" s="20" t="n"/>
@@ -47213,7 +47751,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G727" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G741" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -47833,6 +48371,20 @@
     <hyperlink ref="I724" r:id="rId613"/>
     <hyperlink ref="I725" r:id="rId614"/>
     <hyperlink ref="I726" r:id="rId615"/>
+    <hyperlink ref="I727" r:id="rId616"/>
+    <hyperlink ref="I728" r:id="rId617"/>
+    <hyperlink ref="I729" r:id="rId618"/>
+    <hyperlink ref="I730" r:id="rId619"/>
+    <hyperlink ref="I731" r:id="rId620"/>
+    <hyperlink ref="I732" r:id="rId621"/>
+    <hyperlink ref="I733" r:id="rId622"/>
+    <hyperlink ref="I734" r:id="rId623"/>
+    <hyperlink ref="I735" r:id="rId624"/>
+    <hyperlink ref="I736" r:id="rId625"/>
+    <hyperlink ref="I737" r:id="rId626"/>
+    <hyperlink ref="I738" r:id="rId627"/>
+    <hyperlink ref="I739" r:id="rId628"/>
+    <hyperlink ref="I740" r:id="rId629"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
@@ -47975,7 +48527,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
+          <t>此檢查已通過驗證，並且沒有與之關聯的進一步操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -47987,12 +48539,12 @@
     <row r="5">
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>不需要</t>
+          <t>接受風險</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>建議已理解，但當前要求不需要</t>
+          <t>建議已理解，但當前需求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -40773,32 +40773,28 @@
     <row r="775">
       <c r="A775" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B775" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C775" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>需要時，在靜態數據加密中使用客戶管理的金鑰選項</t>
-        </is>
-      </c>
-      <c r="E775" s="18" t="inlineStr">
-        <is>
-          <t>Azure 事件中心提供靜態數據加密。如果使用自己的金鑰，則仍使用 Microsoft 管理的金鑰對數據進行加密，但此外，Microsoft 管理的金鑰將使用客戶管理的密鑰進行加密。</t>
-        </is>
-      </c>
+          <t>利用靈活伺服器</t>
+        </is>
+      </c>
+      <c r="E775" s="18" t="n"/>
       <c r="F775" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
@@ -40812,15 +40808,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J775" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="J775" s="13" t="n"/>
       <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
+          <t>388c3e25-e800-4ad2-9df3-f3d6ae1050b7</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -40832,32 +40824,28 @@
     <row r="776">
       <c r="A776" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B776" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C776" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>對請求強制實施傳輸層安全性 （TLS） 的最低要求版本</t>
-        </is>
-      </c>
-      <c r="E776" s="18" t="inlineStr">
-        <is>
-          <t>Azure 事件中心命名空間允許用戶端使用 TLS 1.0 及更高版本發送和接收數據。若要強制實施更嚴格的安全措施，可以將事件中心命名空間配置為要求用戶端使用較新版本的 TLS 發送和接收數據。如果事件中心命名空間需要最低版本的 TLS，則使用舊版本發出的任何請求都將失敗。</t>
-        </is>
-      </c>
+          <t>利用區域適用的可用區</t>
+        </is>
+      </c>
+      <c r="E776" s="18" t="n"/>
       <c r="F776" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -40871,15 +40859,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J776" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="J776" s="13" t="n"/>
       <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
+          <t>de3aad1e-8c38-4ec9-9666-7313c005674b</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -40891,29 +40875,25 @@
     <row r="777">
       <c r="A777" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B777" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C777" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>避免在不必要的情況下使用root帳戶</t>
-        </is>
-      </c>
-      <c r="E777" s="18" t="inlineStr">
-        <is>
-          <t>創建事件中心命名空間時，會自動為命名空間創建名為 RootManageSharedAccessKey 的策略規則。此策略具有整個命名空間的管理許可權。建議您將此規則視為管理根帳戶，不要在應用程式中使用它。建議將 AAD 用作 RBAC 的身份驗證提供程式。</t>
-        </is>
-      </c>
+          <t>將數據傳入複製用於跨區域災難恢復方案</t>
+        </is>
+      </c>
+      <c r="E777" s="18" t="n"/>
       <c r="F777" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -40930,15 +40910,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J777" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+      <c r="J777" s="13" t="n"/>
       <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
+          <t>1e944a45-9c37-43e7-bd61-623b365a917e</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -40965,17 +40941,17 @@
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>如果可能，應用程式應使用託管標識向 Azure 事件中心進行身份驗證。如果沒有，請考慮在 Azure Key Vault 或等效服務中擁有存儲憑據（SAS、服務主體憑據）</t>
+          <t>需要時，在靜態數據加密中使用客戶管理的金鑰選項</t>
         </is>
       </c>
       <c r="E778" s="18" t="inlineStr">
         <is>
-          <t>Azure 資源的託管標識可以使用 Azure AD 憑據從 Azure 虛擬機 （VM）、函數應用、虛擬機規模集和其他服務中運行的應用程式授權訪問事件中心資源。通過將 Azure 資源的託管標識與 Azure AD 身份驗證結合使用，可以避免將憑據存儲在雲中運行的應用程式中。</t>
+          <t>Azure 事件中心提供靜態數據加密。如果使用自己的金鑰，則仍使用 Microsoft 管理的金鑰對數據進行加密，但此外，Microsoft 管理的金鑰將使用客戶管理的密鑰進行加密。</t>
         </is>
       </c>
       <c r="F778" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -40991,13 +40967,13 @@
       </c>
       <c r="J778" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
+          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -41024,17 +41000,17 @@
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>使用最低特權數據平面 RBAC</t>
+          <t>對請求強制實施傳輸層安全性 （TLS） 的最低要求版本</t>
         </is>
       </c>
       <c r="E779" s="18" t="inlineStr">
         <is>
-          <t>創建許可權時，請對用戶端對 Azure 事件中心的訪問提供精細控制。Azure 事件中心中的許可權可以而且應該限定為單個資源級別，例如消費者組、事件中心實體、事件中心命名空間等。</t>
+          <t>Azure 事件中心命名空間允許用戶端使用 TLS 1.0 及更高版本發送和接收數據。若要強制實施更嚴格的安全措施，可以將事件中心命名空間配置為要求用戶端使用較新版本的 TLS 發送和接收數據。如果事件中心命名空間需要最低版本的 TLS，則使用舊版本發出的任何請求都將失敗。</t>
         </is>
       </c>
       <c r="F779" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -41050,13 +41026,13 @@
       </c>
       <c r="J779" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
+          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41083,12 +41059,12 @@
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>啟用記錄以進行安全調查。使用 Azure Monitor 捕獲指標和日誌，例如資源日誌、運行時審核日誌和 Kafka 紀錄</t>
+          <t>避免在不必要的情況下使用root帳戶</t>
         </is>
       </c>
       <c r="E780" s="18" t="inlineStr">
         <is>
-          <t>Azure 事件中心資源日誌包括操作日誌、虛擬網路和 Kafka 日誌。運行時審核日誌捕獲事件中心中所有數據平面訪問操作（例如發送或接收事件）的聚合診斷資訊。</t>
+          <t>創建事件中心命名空間時，會自動為命名空間創建名為 RootManageSharedAccessKey 的策略規則。此策略具有整個命名空間的管理許可權。建議您將此規則視為管理根帳戶，不要在應用程式中使用它。建議將 AAD 用作 RBAC 的身份驗證提供程式。</t>
         </is>
       </c>
       <c r="F780" s="18" t="inlineStr">
@@ -41109,13 +41085,13 @@
       </c>
       <c r="J780" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
+          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41142,12 +41118,12 @@
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>請考慮使用專用終結點訪問 Azure 事件中心，並在適用時禁用公用網路訪問。</t>
+          <t>如果可能，應用程式應使用託管標識向 Azure 事件中心進行身份驗證。如果沒有，請考慮在 Azure Key Vault 或等效服務中擁有存儲憑據（SAS、服務主體憑據）</t>
         </is>
       </c>
       <c r="E781" s="18" t="inlineStr">
         <is>
-          <t>默認情況下，Azure 事件中心具有公共IP位址，並且可通過Internet訪問。專用終結點允許虛擬網路和 Azure 事件中心之間的流量遍歷 Microsoft 主幹網路。除此之外，如果未使用公共終結點，則應禁用這些終結點。</t>
+          <t>Azure 資源的託管標識可以使用 Azure AD 憑據從 Azure 虛擬機 （VM）、函數應用、虛擬機規模集和其他服務中運行的應用程式授權訪問事件中心資源。通過將 Azure 資源的託管標識與 Azure AD 身份驗證結合使用，可以避免將憑據存儲在雲中運行的應用程式中。</t>
         </is>
       </c>
       <c r="F781" s="18" t="inlineStr">
@@ -41174,7 +41150,7 @@
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
+          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41201,17 +41177,17 @@
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>請考慮僅允許從特定IP位址或範圍訪問 Azure 事件中心命名空間</t>
+          <t>使用最低特權數據平面 RBAC</t>
         </is>
       </c>
       <c r="E782" s="18" t="inlineStr">
         <is>
-          <t>使用IP防火牆，可以將公共終結點進一步限製為僅一組IPv4位址或 CIDR（無類別域間路由）表示法的IPv4位址範圍。</t>
+          <t>創建許可權時，請對用戶端對 Azure 事件中心的訪問提供精細控制。Azure 事件中心中的許可權可以而且應該限定為單個資源級別，例如消費者組、事件中心實體、事件中心命名空間等。</t>
         </is>
       </c>
       <c r="F782" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G782" t="inlineStr">
@@ -41227,13 +41203,13 @@
       </c>
       <c r="J782" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="K782" s="19" t="n"/>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
+          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41250,7 +41226,7 @@
       </c>
       <c r="B783" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C783" s="18" t="inlineStr">
@@ -41260,10 +41236,14 @@
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>利用 FTA 彈性手冊</t>
-        </is>
-      </c>
-      <c r="E783" s="18" t="n"/>
+          <t>啟用記錄以進行安全調查。使用 Azure Monitor 捕獲指標和日誌，例如資源日誌、運行時審核日誌和 Kafka 紀錄</t>
+        </is>
+      </c>
+      <c r="E783" s="18" t="inlineStr">
+        <is>
+          <t>Azure 事件中心資源日誌包括操作日誌、虛擬網路和 Kafka 日誌。運行時審核日誌捕獲事件中心中所有數據平面訪問操作（例如發送或接收事件）的聚合診斷資訊。</t>
+        </is>
+      </c>
       <c r="F783" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -41280,11 +41260,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J783" s="13" t="n"/>
+      <c r="J783" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
+          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41301,7 +41285,7 @@
       </c>
       <c r="B784" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C784" s="18" t="inlineStr">
@@ -41311,17 +41295,17 @@
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>利用可用區（如果區域適用）</t>
+          <t>請考慮使用專用終結點訪問 Azure 事件中心，並在適用時禁用公用網路訪問。</t>
         </is>
       </c>
       <c r="E784" s="18" t="inlineStr">
         <is>
-          <t>對於從門戶創建的新 EH 命名空間，在啟用區域的區域中具有高級、專用或標準 SKU，將自動啟用此功能。EH 元數據和事件數據本身都是跨區域複製的</t>
+          <t>默認情況下，Azure 事件中心具有公共IP位址，並且可通過Internet訪問。專用終結點允許虛擬網路和 Azure 事件中心之間的流量遍歷 Microsoft 主幹網路。除此之外，如果未使用公共終結點，則應禁用這些終結點。</t>
         </is>
       </c>
       <c r="F784" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
@@ -41335,11 +41319,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J784" s="13" t="n"/>
+      <c r="J784" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
+          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41356,7 +41344,7 @@
       </c>
       <c r="B785" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C785" s="18" t="inlineStr">
@@ -41366,10 +41354,14 @@
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>使用高級或專用 SKU 實現可預測的性能</t>
-        </is>
-      </c>
-      <c r="E785" s="18" t="n"/>
+          <t>請考慮僅允許從特定IP位址或範圍訪問 Azure 事件中心命名空間</t>
+        </is>
+      </c>
+      <c r="E785" s="18" t="inlineStr">
+        <is>
+          <t>使用IP防火牆，可以將公共終結點進一步限製為僅一組IPv4位址或 CIDR（無類別域間路由）表示法的IPv4位址範圍。</t>
+        </is>
+      </c>
       <c r="F785" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -41386,11 +41378,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J785" s="13" t="n"/>
+      <c r="J785" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
+          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41417,17 +41413,13 @@
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>使用主動被動配置規劃異地災難恢復</t>
-        </is>
-      </c>
-      <c r="E786" s="18" t="inlineStr">
-        <is>
-          <t>啟用內置異地災難恢復功能后，可確保命名空間的整個配置（事件中心、消費者組和設置）從主命名空間持續複製到輔助命名空間，並允許隨時從主命名空間向輔助命名空間進行一次故障轉移。主動/被動功能旨在更輕鬆地從失敗的 Azure 區域中恢復和放棄，而無需更改應用程式配置</t>
-        </is>
-      </c>
+          <t>利用 FTA 彈性手冊</t>
+        </is>
+      </c>
+      <c r="E786" s="18" t="n"/>
       <c r="F786" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G786" t="inlineStr">
@@ -41445,7 +41437,7 @@
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
+          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41472,17 +41464,17 @@
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>對於業務關鍵型應用程式，請使用 Active Active 配置</t>
+          <t>利用可用區（如果區域適用）</t>
         </is>
       </c>
       <c r="E787" s="18" t="inlineStr">
         <is>
-          <t>應用於無法容忍關閉區域中事件數據中斷或丟失的DR配置。對於這些情況，請遵循複製指南，不要使用內置的異地災難恢復功能（主動/被動）。使用「主動/主動」時，在不同區域和命名空間中維護多個事件中心，事件將在中心之間複製</t>
+          <t>對於從門戶創建的新 EH 命名空間，在啟用區域的區域中具有高級、專用或標準 SKU，將自動啟用此功能。EH 元數據和事件數據本身都是跨區域複製的</t>
         </is>
       </c>
       <c r="F787" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
@@ -41500,7 +41492,7 @@
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
+          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41527,7 +41519,7 @@
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>設計可復原的事件中心</t>
+          <t>使用高級或專用 SKU 實現可預測的性能</t>
         </is>
       </c>
       <c r="E788" s="18" t="n"/>
@@ -41551,7 +41543,7 @@
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
+          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41561,17 +41553,54 @@
       <c r="Q788" s="20" t="n"/>
     </row>
     <row r="789">
-      <c r="A789" s="18" t="n"/>
-      <c r="B789" s="18" t="n"/>
-      <c r="C789" s="18" t="n"/>
-      <c r="D789" s="18" t="n"/>
-      <c r="E789" s="18" t="n"/>
-      <c r="F789" s="18" t="n"/>
+      <c r="A789" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B789" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C789" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D789" s="18" t="inlineStr">
+        <is>
+          <t>使用主動被動配置規劃異地災難恢復</t>
+        </is>
+      </c>
+      <c r="E789" s="18" t="inlineStr">
+        <is>
+          <t>啟用內置異地災難恢復功能后，可確保命名空間的整個配置（事件中心、消費者組和設置）從主命名空間持續複製到輔助命名空間，並允許隨時從主命名空間向輔助命名空間進行一次故障轉移。主動/被動功能旨在更輕鬆地從失敗的 Azure 區域中恢復和放棄，而無需更改應用程式配置</t>
+        </is>
+      </c>
+      <c r="F789" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H789" s="18" t="n"/>
-      <c r="I789" s="13" t="n"/>
+      <c r="I789" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J789" s="13" t="n"/>
       <c r="K789" s="19" t="n"/>
-      <c r="L789" s="19" t="n"/>
+      <c r="L789" s="19" t="inlineStr">
+        <is>
+          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
+        </is>
+      </c>
       <c r="M789" s="20" t="n"/>
       <c r="N789" s="20" t="n"/>
       <c r="O789" s="20" t="n"/>
@@ -41579,17 +41608,54 @@
       <c r="Q789" s="20" t="n"/>
     </row>
     <row r="790">
-      <c r="A790" s="18" t="n"/>
-      <c r="B790" s="18" t="n"/>
-      <c r="C790" s="18" t="n"/>
-      <c r="D790" s="18" t="n"/>
-      <c r="E790" s="18" t="n"/>
-      <c r="F790" s="18" t="n"/>
+      <c r="A790" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B790" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C790" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D790" s="18" t="inlineStr">
+        <is>
+          <t>對於業務關鍵型應用程式，請使用 Active Active 配置</t>
+        </is>
+      </c>
+      <c r="E790" s="18" t="inlineStr">
+        <is>
+          <t>應用於無法容忍關閉區域中事件數據中斷或丟失的DR配置。對於這些情況，請遵循複製指南，不要使用內置的異地災難恢復功能（主動/被動）。使用「主動/主動」時，在不同區域和命名空間中維護多個事件中心，事件將在中心之間複製</t>
+        </is>
+      </c>
+      <c r="F790" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H790" s="18" t="n"/>
-      <c r="I790" s="13" t="n"/>
+      <c r="I790" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J790" s="13" t="n"/>
       <c r="K790" s="19" t="n"/>
-      <c r="L790" s="19" t="n"/>
+      <c r="L790" s="19" t="inlineStr">
+        <is>
+          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
+        </is>
+      </c>
       <c r="M790" s="20" t="n"/>
       <c r="N790" s="20" t="n"/>
       <c r="O790" s="20" t="n"/>
@@ -41597,17 +41663,50 @@
       <c r="Q790" s="20" t="n"/>
     </row>
     <row r="791">
-      <c r="A791" s="18" t="n"/>
-      <c r="B791" s="18" t="n"/>
-      <c r="C791" s="18" t="n"/>
-      <c r="D791" s="18" t="n"/>
+      <c r="A791" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B791" s="18" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="C791" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D791" s="18" t="inlineStr">
+        <is>
+          <t>設計可復原的事件中心</t>
+        </is>
+      </c>
       <c r="E791" s="18" t="n"/>
-      <c r="F791" s="18" t="n"/>
+      <c r="F791" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H791" s="18" t="n"/>
-      <c r="I791" s="13" t="n"/>
+      <c r="I791" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J791" s="13" t="n"/>
       <c r="K791" s="19" t="n"/>
-      <c r="L791" s="19" t="n"/>
+      <c r="L791" s="19" t="inlineStr">
+        <is>
+          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
+        </is>
+      </c>
       <c r="M791" s="20" t="n"/>
       <c r="N791" s="20" t="n"/>
       <c r="O791" s="20" t="n"/>
@@ -49211,7 +49310,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G789" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G792" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -49893,6 +49992,9 @@
     <hyperlink ref="I786" r:id="rId675"/>
     <hyperlink ref="I787" r:id="rId676"/>
     <hyperlink ref="I788" r:id="rId677"/>
+    <hyperlink ref="I789" r:id="rId678"/>
+    <hyperlink ref="I790" r:id="rId679"/>
+    <hyperlink ref="I791" r:id="rId680"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -14603,7 +14603,7 @@
       </c>
       <c r="D272" s="18" t="inlineStr">
         <is>
-          <t>利用可用區（如果區域適用）（此功能會自動啟用）</t>
+          <t>利用可用區（如果區域適用）（這是自動啟用的）</t>
         </is>
       </c>
       <c r="E272" s="18" t="n"/>
@@ -14654,7 +14654,7 @@
       </c>
       <c r="D273" s="18" t="inlineStr">
         <is>
-          <t>請注意 Microsoft 發起的故障轉移。在極少數情況下，Microsoft 會執行這些操作，以將所有IoT中心從受影響的區域故障轉移到相應的地理配對區域。</t>
+          <t>請注意 Microsoft 發起的故障轉移。Microsoft 在極少數情況下會執行這些操作，以將所有IoT中心從受影響的區域故障轉移到相應的異地配對區域。</t>
         </is>
       </c>
       <c r="E273" s="18" t="n"/>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="D274" s="18" t="inlineStr">
         <is>
-          <t>考慮針對關鍵工作負載的跨區域災難恢復策略</t>
+          <t>考慮為關鍵工作負載制定跨區域災難恢復策略</t>
         </is>
       </c>
       <c r="E274" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -21022,7 +21022,7 @@
       </c>
       <c r="J391" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="K391" s="19" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -5400,7 +5400,7 @@
       <c r="K95" s="19" t="n"/>
       <c r="L95" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
         </is>
       </c>
       <c r="M95" s="20" t="n"/>
@@ -5451,7 +5451,7 @@
       <c r="K96" s="19" t="n"/>
       <c r="L96" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
         </is>
       </c>
       <c r="M96" s="20" t="n"/>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="D97" s="18" t="inlineStr">
         <is>
-          <t>考慮針對關鍵工作負載的跨區域災難恢復策略</t>
+          <t>考慮為關鍵工作負載制定跨區域災難恢復策略</t>
         </is>
       </c>
       <c r="E97" s="18" t="n"/>
@@ -5502,7 +5502,7 @@
       <c r="K97" s="19" t="n"/>
       <c r="L97" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
         </is>
       </c>
       <c r="M97" s="20" t="n"/>
@@ -5553,7 +5553,7 @@
       <c r="K98" s="19" t="n"/>
       <c r="L98" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
         </is>
       </c>
       <c r="M98" s="20" t="n"/>
@@ -5604,7 +5604,7 @@
       <c r="K99" s="19" t="n"/>
       <c r="L99" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
         </is>
       </c>
       <c r="M99" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -20793,7 +20793,7 @@
       </c>
       <c r="B384" s="18" t="inlineStr">
         <is>
-          <t>監控</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C384" s="18" t="inlineStr">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="B385" s="18" t="inlineStr">
         <is>
-          <t>監控</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C385" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -16286,7 +16286,7 @@
       </c>
       <c r="D301" s="18" t="inlineStr">
         <is>
-          <t>實施緊急訪問或打破玻璃帳戶，以防止租戶範圍的帳戶鎖定</t>
+          <t>強制實施與雲運營模型一致的 RBAC 模型。跨管理組和訂閱的範圍和分配。</t>
         </is>
       </c>
       <c r="E301" s="18" t="n"/>
@@ -16308,13 +16308,13 @@
       </c>
       <c r="J301" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K301" s="19" t="n"/>
       <c r="L301" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M301" s="20" t="n"/>
@@ -16341,13 +16341,13 @@
       </c>
       <c r="D302" s="18" t="inlineStr">
         <is>
-          <t>將 Microsoft Entra ID 日誌與平臺中心 Azure Monitor 集成。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實源，從而為組織提供雲原生選項，以滿足有關日誌收集和保留的要求。</t>
+          <t>僅對所有帳戶類型使用身份驗證類型「工作或學校帳戶」。避免使用 Microsoft 帳戶</t>
         </is>
       </c>
       <c r="E302" s="18" t="n"/>
       <c r="F302" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -16361,11 +16361,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J302" s="13" t="n"/>
+      <c r="J302" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K302" s="19" t="n"/>
       <c r="L302" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M302" s="20" t="n"/>
@@ -16392,13 +16396,13 @@
       </c>
       <c r="D303" s="18" t="inlineStr">
         <is>
-          <t>強制實施與雲運營模型一致的 RBAC 模型。跨管理組和訂閱的範圍和分配。</t>
+          <t>僅使用組來分配許可權。如果組管理系統已到位，則將本地組添加到僅 Entra ID 組。</t>
         </is>
       </c>
       <c r="E303" s="18" t="n"/>
       <c r="F303" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -16414,13 +16418,13 @@
       </c>
       <c r="J303" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="K303" s="19" t="n"/>
       <c r="L303" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M303" s="20" t="n"/>
@@ -16612,13 +16616,13 @@
       </c>
       <c r="D307" s="18" t="inlineStr">
         <is>
-          <t>僅對所有帳戶類型使用身份驗證類型「工作或學校帳戶」。避免使用 Microsoft 帳戶</t>
+          <t>如果計劃從 Active Directory 域服務切換到 Entra 域服務，請評估所有工作負載的相容性</t>
         </is>
       </c>
       <c r="E307" s="18" t="n"/>
       <c r="F307" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -16634,13 +16638,13 @@
       </c>
       <c r="J307" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="K307" s="19" t="n"/>
       <c r="L307" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M307" s="20" t="n"/>
@@ -16667,7 +16671,7 @@
       </c>
       <c r="D308" s="18" t="inlineStr">
         <is>
-          <t>僅使用組來分配許可權。如果組管理系統已到位，則將本地組添加到僅 Entra ID 組。</t>
+          <t>將 Microsoft Entra ID 日誌與平臺中心 Azure Monitor 集成。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實源，從而為組織提供雲原生選項，以滿足有關日誌收集和保留的要求。</t>
         </is>
       </c>
       <c r="E308" s="18" t="n"/>
@@ -16687,15 +16691,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J308" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J308" s="13" t="n"/>
       <c r="K308" s="19" t="n"/>
       <c r="L308" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M308" s="20" t="n"/>
@@ -16722,13 +16722,13 @@
       </c>
       <c r="D309" s="18" t="inlineStr">
         <is>
-          <t>如果計劃從 Active Directory 域服務切換到 Entra 域服務，請評估所有工作負載的相容性</t>
+          <t>實施緊急訪問或打破玻璃帳戶，以防止租戶範圍的帳戶鎖定</t>
         </is>
       </c>
       <c r="E309" s="18" t="n"/>
       <c r="F309" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -16744,13 +16744,13 @@
       </c>
       <c r="J309" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K309" s="19" t="n"/>
       <c r="L309" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M309" s="20" t="n"/>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="D310" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對內部應用程式（託管在雲中或本地）的安全和經過身份驗證的訪問。</t>
+          <t>避免將本地同步帳戶用於 Microsoft Entra ID 角色分配。</t>
         </is>
       </c>
       <c r="E310" s="18" t="n"/>
@@ -16799,13 +16799,13 @@
       </c>
       <c r="J310" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="K310" s="19" t="n"/>
       <c r="L310" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M310" s="20" t="n"/>
@@ -16832,7 +16832,7 @@
       </c>
       <c r="D311" s="18" t="inlineStr">
         <is>
-          <t>避免將本地同步帳戶用於 Microsoft Entra ID 角色分配。</t>
+          <t>如果需要，請使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對內部應用程式（託管在雲中或本地）的安全和經過身份驗證的訪問。</t>
         </is>
       </c>
       <c r="E311" s="18" t="n"/>
@@ -16854,13 +16854,13 @@
       </c>
       <c r="J311" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K311" s="19" t="n"/>
       <c r="L311" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M311" s="20" t="n"/>
@@ -16887,7 +16887,7 @@
       </c>
       <c r="D312" s="18" t="inlineStr">
         <is>
-          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP防護計畫。</t>
+          <t>利用基於傳統中心輻射型網路拓撲的網路設計，滿足需要最大靈活性的網路方案。</t>
         </is>
       </c>
       <c r="E312" s="18" t="n"/>
@@ -16909,13 +16909,13 @@
       </c>
       <c r="J312" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K312" s="19" t="n"/>
       <c r="L312" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M312" s="20" t="n"/>
@@ -16932,23 +16932,23 @@
       </c>
       <c r="B313" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C313" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D313" s="18" t="inlineStr">
         <is>
-          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便加密組織路由器和 MSEE 之間的第二層級別的流量。該圖顯示了流中的此加密。</t>
+          <t>確保共用網路服務（包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA）位於中心虛擬網路中。如有必要，還可以部署 DNS 伺服器。</t>
         </is>
       </c>
       <c r="E313" s="18" t="n"/>
       <c r="F313" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -16966,7 +16966,7 @@
       <c r="K313" s="19" t="n"/>
       <c r="L313" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M313" s="20" t="n"/>
@@ -16988,18 +16988,18 @@
       </c>
       <c r="C314" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D314" s="18" t="inlineStr">
         <is>
-          <t>對於無法使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
+          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP防護計畫。</t>
         </is>
       </c>
       <c r="E314" s="18" t="n"/>
       <c r="F314" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -17015,13 +17015,13 @@
       </c>
       <c r="J314" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K314" s="19" t="n"/>
       <c r="L314" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M314" s="20" t="n"/>
@@ -17038,17 +17038,17 @@
       </c>
       <c r="B315" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C315" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D315" s="18" t="inlineStr">
         <is>
-          <t>利用基於傳統中心輻射型網路拓撲的網路設計，滿足需要最大靈活性的網路方案。</t>
+          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導</t>
         </is>
       </c>
       <c r="E315" s="18" t="n"/>
@@ -17068,15 +17068,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J315" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J315" s="13" t="n"/>
       <c r="K315" s="19" t="n"/>
       <c r="L315" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M315" s="20" t="n"/>
@@ -17093,23 +17089,23 @@
       </c>
       <c r="B316" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C316" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D316" s="18" t="inlineStr">
         <is>
-          <t>確保共用網路服務（包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA）位於中心虛擬網路中。如有必要，還可以部署 DNS 伺服器。</t>
+          <t>如果需要在中心輻射型方案中的 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
         </is>
       </c>
       <c r="E316" s="18" t="n"/>
       <c r="F316" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -17127,7 +17123,7 @@
       <c r="K316" s="19" t="n"/>
       <c r="L316" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M316" s="20" t="n"/>
@@ -17144,23 +17140,23 @@
       </c>
       <c r="B317" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C317" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D317" s="18" t="inlineStr">
         <is>
-          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導</t>
+          <t>如果使用 Route Server，請對 Route Server 子網使用 /27 前置綴。</t>
         </is>
       </c>
       <c r="E317" s="18" t="n"/>
       <c r="F317" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -17175,10 +17171,14 @@
         </is>
       </c>
       <c r="J317" s="13" t="n"/>
-      <c r="K317" s="19" t="n"/>
+      <c r="K317" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L317" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M317" s="20" t="n"/>
@@ -17195,23 +17195,23 @@
       </c>
       <c r="B318" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C318" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D318" s="18" t="inlineStr">
         <is>
-          <t>如果需要在中心輻射型方案中的 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
+          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請使用中心 VNet 之間的全域虛擬網路對等互連將區域相互連接。</t>
         </is>
       </c>
       <c r="E318" s="18" t="n"/>
       <c r="F318" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -17225,11 +17225,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J318" s="13" t="n"/>
+      <c r="J318" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K318" s="19" t="n"/>
       <c r="L318" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M318" s="20" t="n"/>
@@ -17246,23 +17250,23 @@
       </c>
       <c r="B319" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C319" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D319" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Route Server，請對 Route Server 子網使用 /27 前置綴。</t>
+          <t>使用用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
         </is>
       </c>
       <c r="E319" s="18" t="n"/>
       <c r="F319" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -17276,15 +17280,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J319" s="13" t="n"/>
-      <c r="K319" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J319" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K319" s="19" t="n"/>
       <c r="L319" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M319" s="20" t="n"/>
@@ -17301,7 +17305,7 @@
       </c>
       <c r="B320" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C320" s="18" t="inlineStr">
@@ -17311,7 +17315,7 @@
       </c>
       <c r="D320" s="18" t="inlineStr">
         <is>
-          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請使用中心 VNet 之間的全域虛擬網路對等互連將區域相互連接。</t>
+          <t>將分支虛擬網路連接到中央中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
         </is>
       </c>
       <c r="E320" s="18" t="n"/>
@@ -17331,15 +17335,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J320" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K320" s="19" t="n"/>
+      <c r="J320" s="13" t="n"/>
+      <c r="K320" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L320" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M320" s="20" t="n"/>
@@ -17356,7 +17360,7 @@
       </c>
       <c r="B321" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C321" s="18" t="inlineStr">
@@ -17366,7 +17370,7 @@
       </c>
       <c r="D321" s="18" t="inlineStr">
         <is>
-          <t>使用用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
+          <t>考慮每個路由表的路由限制 （400）。</t>
         </is>
       </c>
       <c r="E321" s="18" t="n"/>
@@ -17386,15 +17390,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J321" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
-      <c r="K321" s="19" t="n"/>
+      <c r="J321" s="13" t="n"/>
+      <c r="K321" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L321" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M321" s="20" t="n"/>
@@ -17421,13 +17425,13 @@
       </c>
       <c r="D322" s="18" t="inlineStr">
         <is>
-          <t>將分支虛擬網路連接到中央中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
+          <t>配置 VNet 對等互連時，使用「允許流量流向遠端虛擬網路」設置</t>
         </is>
       </c>
       <c r="E322" s="18" t="n"/>
       <c r="F322" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -17444,12 +17448,12 @@
       <c r="J322" s="13" t="n"/>
       <c r="K322" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
         </is>
       </c>
       <c r="L322" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M322" s="20" t="n"/>
@@ -17466,17 +17470,17 @@
       </c>
       <c r="B323" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C323" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D323" s="18" t="inlineStr">
         <is>
-          <t>考慮每個路由表的路由限制 （400）。</t>
+          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便加密組織路由器和 MSEE 之間的第二層級別的流量。該圖顯示了流中的此加密。</t>
         </is>
       </c>
       <c r="E323" s="18" t="n"/>
@@ -17497,14 +17501,10 @@
         </is>
       </c>
       <c r="J323" s="13" t="n"/>
-      <c r="K323" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K323" s="19" t="n"/>
       <c r="L323" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M323" s="20" t="n"/>
@@ -17521,23 +17521,23 @@
       </c>
       <c r="B324" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C324" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D324" s="18" t="inlineStr">
         <is>
-          <t>配置 VNet 對等互連時，使用「允許流量流向遠端虛擬網路」設置</t>
+          <t>對於無法使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
         </is>
       </c>
       <c r="E324" s="18" t="n"/>
       <c r="F324" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -17551,15 +17551,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J324" s="13" t="n"/>
-      <c r="K324" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
-        </is>
-      </c>
+      <c r="J324" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M324" s="20" t="n"/>
@@ -17576,7 +17576,7 @@
       </c>
       <c r="B325" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C325" s="18" t="inlineStr">
@@ -17586,13 +17586,13 @@
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主要連接的可能性。</t>
+          <t>確保在 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
         </is>
       </c>
       <c r="E325" s="18" t="n"/>
       <c r="F325" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -17608,13 +17608,13 @@
       </c>
       <c r="J325" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K325" s="19" t="n"/>
       <c r="L325" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M325" s="20" t="n"/>
@@ -17631,27 +17631,23 @@
       </c>
       <c r="B326" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C326" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>使用多條 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
-        </is>
-      </c>
-      <c r="E326" s="18" t="inlineStr">
-        <is>
-          <t>可以使用 AS 路徑前置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的全部 BGP 屬性來影響從本地到 Azure 的流量。</t>
-        </is>
-      </c>
+          <t>使用專用 Internet 位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
+        </is>
+      </c>
+      <c r="E326" s="18" t="n"/>
       <c r="F326" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -17667,13 +17663,17 @@
       </c>
       <c r="J326" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K326" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K326" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L326" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M326" s="20" t="n"/>
@@ -17695,18 +17695,18 @@
       </c>
       <c r="C327" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>確保根據頻寬和性能要求為 ExpressRoute/VPN 閘道使用正確的 SKU。</t>
+          <t>確保IP位址空間不被浪費，不要創建不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not disdised， don't create un不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not waste， don't create un不必要的大型虛擬網络（例如 /16）Ensure that that IP address space is</t>
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
       <c r="F327" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -17722,17 +17722,17 @@
       </c>
       <c r="J327" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K327" s="19" t="inlineStr">
         <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
         </is>
       </c>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17749,17 +17749,17 @@
       </c>
       <c r="B328" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C328" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>確保僅當達到證明其成本合理的頻寬時，才使用無限數據的ExpressRoute線路。</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
@@ -17779,15 +17779,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J328" s="13" t="n"/>
-      <c r="K328" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J328" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K328" s="19" t="n"/>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17804,23 +17804,23 @@
       </c>
       <c r="B329" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C329" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，則利用 ExpressRoute 的本地 SKU 來降低線路的成本。</t>
+          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委派區域進行名稱解析（例如“azure.contoso.com”）。</t>
         </is>
       </c>
       <c r="E329" s="18" t="n"/>
       <c r="F329" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -17834,15 +17834,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J329" s="13" t="n"/>
-      <c r="K329" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
-        </is>
-      </c>
+      <c r="J329" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K329" s="19" t="n"/>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -17859,17 +17859,17 @@
       </c>
       <c r="B330" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C330" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>在受支援的 Azure 區域中部署區域冗餘 ExpressRoute 閘道。</t>
+          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
@@ -17891,17 +17891,13 @@
       </c>
       <c r="J330" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K330" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
+      <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -17918,23 +17914,23 @@
       </c>
       <c r="B331" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C331" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
+          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
         </is>
       </c>
       <c r="E331" s="18" t="n"/>
       <c r="F331" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -17948,15 +17944,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J331" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J331" s="13" t="n"/>
       <c r="K331" s="19" t="n"/>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -17973,23 +17965,23 @@
       </c>
       <c r="B332" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C332" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>如果需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps，請啟用 FastPath 以繞過數據路徑的 ExpressRoute 閘道。</t>
+          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
         </is>
       </c>
       <c r="E332" s="18" t="n"/>
       <c r="F332" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -18005,13 +17997,13 @@
       </c>
       <c r="J332" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K332" s="19" t="n"/>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -18028,17 +18020,17 @@
       </c>
       <c r="B333" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C333" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
+          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
@@ -18058,19 +18050,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J333" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K333" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J333" s="13" t="n"/>
+      <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -18087,17 +18071,17 @@
       </c>
       <c r="B334" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C334" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
+          <t>在子網 /26 或更大範圍內使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
@@ -18117,15 +18101,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J334" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K334" s="19" t="n"/>
+      <c r="J334" s="13" t="n"/>
+      <c r="K334" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -18142,23 +18126,23 @@
       </c>
       <c r="B335" s="18" t="inlineStr">
         <is>
-          <t>成本</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C335" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute Direct，請考慮使用本地 Azure 區域的 ExpressRoute 本地線路來節省成本</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為與登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
       <c r="F335" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -18174,13 +18158,13 @@
       </c>
       <c r="J335" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K335" s="19" t="n"/>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -18202,18 +18186,18 @@
       </c>
       <c r="C336" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>當需要流量隔離或專用頻寬時（例如，用於分離生產環境和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕干擾鄰居風險。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
       <c r="F336" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -18229,13 +18213,13 @@
       </c>
       <c r="J336" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -18252,23 +18236,23 @@
       </c>
       <c r="B337" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C337" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>使用內置的 Express Route Insights 監視 ExpressRoute 的可用性和利用率。</t>
+          <t>部署 WAF 和其他反向代理是入站 HTTP/S 連接所必需的，將它們部署在登陸區域虛擬網路中，並與它們保護並公開給 Internet 的應用一起部署。</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
       <c r="F337" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -18284,13 +18268,13 @@
       </c>
       <c r="J337" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K337" s="19" t="n"/>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -18307,23 +18291,23 @@
       </c>
       <c r="B338" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C338" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>使用連接監視器進行跨網路的連接監視，尤其是在本地和 Azure 之間。</t>
+          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
       <c r="F338" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -18339,13 +18323,13 @@
       </c>
       <c r="J338" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K338" s="19" t="n"/>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -18367,18 +18351,18 @@
       </c>
       <c r="C339" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>使用來自不同對等互連位置的 ExpressRoute 線路實現冗餘。</t>
+          <t>在即將到來的重大更改之前，評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
       <c r="F339" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -18392,19 +18376,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J339" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K339" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
-        </is>
-      </c>
+      <c r="J339" s="13" t="n"/>
+      <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -18421,23 +18397,23 @@
       </c>
       <c r="B340" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C340" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路時。</t>
+          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
       <c r="F340" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -18451,11 +18427,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J340" s="13" t="n"/>
+      <c r="J340" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -18472,7 +18452,7 @@
       </c>
       <c r="B341" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C341" s="18" t="inlineStr">
@@ -18482,13 +18462,13 @@
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
+          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主要連接的可能性。</t>
         </is>
       </c>
       <c r="E341" s="18" t="n"/>
       <c r="F341" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -18502,15 +18482,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J341" s="13" t="n"/>
-      <c r="K341" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="J341" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K341" s="19" t="n"/>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -18537,13 +18517,17 @@
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用為主動/主動，但也支持主動/被動。</t>
-        </is>
-      </c>
-      <c r="E342" s="18" t="n"/>
+          <t>使用多條 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
+        </is>
+      </c>
+      <c r="E342" s="18" t="inlineStr">
+        <is>
+          <t>可以使用 AS 路徑前置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的全部 BGP 屬性來影響從本地到 Azure 的流量。</t>
+        </is>
+      </c>
       <c r="F342" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -18557,11 +18541,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J342" s="13" t="n"/>
+      <c r="J342" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K342" s="19" t="n"/>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -18578,7 +18566,7 @@
       </c>
       <c r="B343" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C343" s="18" t="inlineStr">
@@ -18588,7 +18576,7 @@
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>確保 ExpressRoute 線路的兩個物理連結連接到網路中的兩個不同的邊緣設備。</t>
+          <t>確保根據頻寬和性能要求為 ExpressRoute/VPN 閘道使用正確的 SKU。</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
@@ -18613,10 +18601,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K343" s="19" t="n"/>
+      <c r="K343" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -18633,7 +18625,7 @@
       </c>
       <c r="B344" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C344" s="18" t="inlineStr">
@@ -18643,13 +18635,13 @@
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t>確保在客戶或供應商邊緣路由設備上啟用並配置雙向轉發檢測 （BFD）。</t>
+          <t>確保僅當達到證明其成本合理的頻寬時，才使用無限數據的ExpressRoute線路。</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
       <c r="F344" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -18663,15 +18655,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J344" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K344" s="19" t="n"/>
+      <c r="J344" s="13" t="n"/>
+      <c r="K344" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18688,7 +18680,7 @@
       </c>
       <c r="B345" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C345" s="18" t="inlineStr">
@@ -18698,7 +18690,7 @@
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以提高復原能力。</t>
+          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，則利用 ExpressRoute 的本地 SKU 來降低線路的成本。</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
@@ -18718,15 +18710,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J345" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K345" s="19" t="n"/>
+      <c r="J345" s="13" t="n"/>
+      <c r="K345" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+        </is>
+      </c>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18743,7 +18735,7 @@
       </c>
       <c r="B346" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C346" s="18" t="inlineStr">
@@ -18753,7 +18745,7 @@
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>為 ExpressRoute 虛擬網路閘道配置診斷日誌和警報。</t>
+          <t>在受支援的 Azure 區域中部署區域冗餘 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
@@ -18778,10 +18770,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K346" s="19" t="n"/>
+      <c r="K346" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18808,7 +18804,7 @@
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>避免使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
+          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
@@ -18836,7 +18832,7 @@
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -18853,7 +18849,7 @@
       </c>
       <c r="B348" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C348" s="18" t="inlineStr">
@@ -18863,13 +18859,13 @@
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>確保在 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
+          <t>如果需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps，請啟用 FastPath 以繞過數據路徑的 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="E348" s="18" t="n"/>
       <c r="F348" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -18885,13 +18881,13 @@
       </c>
       <c r="J348" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -18908,23 +18904,23 @@
       </c>
       <c r="B349" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C349" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>使用專用 Internet 位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
+          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
         </is>
       </c>
       <c r="E349" s="18" t="n"/>
       <c r="F349" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -18940,17 +18936,17 @@
       </c>
       <c r="J349" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="K349" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
         </is>
       </c>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -18967,23 +18963,23 @@
       </c>
       <c r="B350" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C350" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>確保IP位址空間不被浪費，不要創建不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not disdised， don't create un不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not waste， don't create un不必要的大型虛擬網络（例如 /16）Ensure that that IP address space is</t>
+          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
       <c r="F350" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -18999,17 +18995,13 @@
       </c>
       <c r="J350" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K350" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K350" s="19" t="n"/>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -19026,17 +19018,17 @@
       </c>
       <c r="B351" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>成本</t>
         </is>
       </c>
       <c r="C351" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>如果使用 ExpressRoute Direct，請考慮使用本地 Azure 區域的 ExpressRoute 本地線路來節省成本</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
@@ -19058,13 +19050,13 @@
       </c>
       <c r="J351" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -19081,17 +19073,17 @@
       </c>
       <c r="B352" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C352" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委派區域進行名稱解析（例如“azure.contoso.com”）。</t>
+          <t>當需要流量隔離或專用頻寬時（例如，用於分離生產環境和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕干擾鄰居風險。</t>
         </is>
       </c>
       <c r="E352" s="18" t="n"/>
@@ -19113,13 +19105,13 @@
       </c>
       <c r="J352" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -19136,17 +19128,17 @@
       </c>
       <c r="B353" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C353" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
+          <t>使用內置的 Express Route Insights 監視 ExpressRoute 的可用性和利用率。</t>
         </is>
       </c>
       <c r="E353" s="18" t="n"/>
@@ -19168,13 +19160,13 @@
       </c>
       <c r="J353" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -19196,18 +19188,18 @@
       </c>
       <c r="C354" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
+          <t>使用連接監視器進行跨網路的連接監視，尤其是在本地和 Azure 之間。</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
       <c r="F354" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -19221,11 +19213,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J354" s="13" t="n"/>
+      <c r="J354" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -19242,23 +19238,23 @@
       </c>
       <c r="B355" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C355" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
+          <t>使用來自不同對等互連位置的 ExpressRoute 線路實現冗餘。</t>
         </is>
       </c>
       <c r="E355" s="18" t="n"/>
       <c r="F355" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -19274,13 +19270,17 @@
       </c>
       <c r="J355" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K355" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K355" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -19297,17 +19297,17 @@
       </c>
       <c r="B356" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C356" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
+          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路時。</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
@@ -19331,7 +19331,7 @@
       <c r="K356" s="19" t="n"/>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -19348,23 +19348,23 @@
       </c>
       <c r="B357" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C357" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大範圍內使用 Azure Bastion。</t>
+          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
         </is>
       </c>
       <c r="E357" s="18" t="n"/>
       <c r="F357" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -19381,12 +19381,12 @@
       <c r="J357" s="13" t="n"/>
       <c r="K357" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
         </is>
       </c>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -19403,23 +19403,23 @@
       </c>
       <c r="B358" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C358" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為與登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用為主動/主動，但也支持主動/被動。</t>
         </is>
       </c>
       <c r="E358" s="18" t="n"/>
       <c r="F358" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -19433,15 +19433,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J358" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J358" s="13" t="n"/>
       <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -19458,23 +19454,23 @@
       </c>
       <c r="B359" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C359" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
+          <t>確保 ExpressRoute 線路的兩個物理連結連接到網路中的兩個不同的邊緣設備。</t>
         </is>
       </c>
       <c r="E359" s="18" t="n"/>
       <c r="F359" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -19490,13 +19486,13 @@
       </c>
       <c r="J359" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K359" s="19" t="n"/>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -19513,23 +19509,23 @@
       </c>
       <c r="B360" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C360" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>部署 WAF 和其他反向代理是入站 HTTP/S 連接所必需的，將它們部署在登陸區域虛擬網路中，並與它們保護並公開給 Internet 的應用一起部署。</t>
+          <t>確保在客戶或供應商邊緣路由設備上啟用並配置雙向轉發檢測 （BFD）。</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
       <c r="F360" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -19545,13 +19541,13 @@
       </c>
       <c r="J360" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K360" s="19" t="n"/>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -19568,17 +19564,17 @@
       </c>
       <c r="B361" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C361" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以提高復原能力。</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
@@ -19600,13 +19596,13 @@
       </c>
       <c r="J361" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K361" s="19" t="n"/>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -19623,23 +19619,23 @@
       </c>
       <c r="B362" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C362" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>在即將到來的重大更改之前，評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
+          <t>為 ExpressRoute 虛擬網路閘道配置診斷日誌和警報。</t>
         </is>
       </c>
       <c r="E362" s="18" t="n"/>
       <c r="F362" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -19653,11 +19649,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J362" s="13" t="n"/>
+      <c r="J362" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K362" s="19" t="n"/>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19674,23 +19674,23 @@
       </c>
       <c r="B363" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C363" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
+          <t>避免使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
       <c r="F363" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -19706,13 +19706,13 @@
       </c>
       <c r="J363" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -22651,18 +22651,18 @@
       </c>
       <c r="C419" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存來自 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
       <c r="F419" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -22676,11 +22676,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J419" s="13" t="n"/>
+      <c r="J419" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22702,12 +22706,12 @@
       </c>
       <c r="C420" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
+          <t>如果日誌保留要求超過 12 年，請將日誌匯出到 Azure 存儲。將不可變存儲與一次寫入、多次讀取策略結合使用，使數據在使用者指定的時間間隔內不可擦除和不可修改。</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
@@ -22727,11 +22731,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J420" s="13" t="n"/>
+      <c r="J420" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22748,17 +22756,17 @@
       </c>
       <c r="B421" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C421" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
+          <t>使用 Azure Policy 監視 OS 等級的虛擬機 （VM） 配置偏移。通過策略啟用 Azure Automanage 計算機配置審核功能可幫助應用程式團隊工作負載輕鬆立即使用功能。</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
@@ -22778,11 +22786,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J421" s="13" t="n"/>
+      <c r="J421" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22804,12 +22816,12 @@
       </c>
       <c r="C422" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
+          <t>使用 Azure 更新管理員作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
@@ -22831,13 +22843,13 @@
       </c>
       <c r="J422" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22859,12 +22871,12 @@
       </c>
       <c r="C423" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>如果日誌保留要求超過 12 年，請將日誌匯出到 Azure 存儲。將不可變存儲與一次寫入、多次讀取策略結合使用，使數據在使用者指定的時間間隔內不可擦除和不可修改。</t>
+          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
@@ -22886,13 +22898,13 @@
       </c>
       <c r="J423" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22914,12 +22926,12 @@
       </c>
       <c r="C424" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視 OS 等級的虛擬機 （VM） 配置偏移。通過策略啟用 Azure Automanage 計算機配置審核功能可幫助應用程式團隊工作負載輕鬆立即使用功能。</t>
+          <t>使用網路觀察程序主動監視流量</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
@@ -22941,13 +22953,13 @@
       </c>
       <c r="J424" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22969,12 +22981,12 @@
       </c>
       <c r="C425" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 更新管理員作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
@@ -22994,15 +23006,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J425" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J425" s="13" t="n"/>
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -23024,12 +23032,12 @@
       </c>
       <c r="C426" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
@@ -23049,15 +23057,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J426" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J426" s="13" t="n"/>
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -23079,12 +23083,12 @@
       </c>
       <c r="C427" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支援的區域來將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
@@ -23104,15 +23108,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J427" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J427" s="13" t="n"/>
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -23129,17 +23129,17 @@
       </c>
       <c r="B428" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C428" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
@@ -23163,7 +23163,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -23180,17 +23180,17 @@
       </c>
       <c r="B429" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C429" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施符合標準的基線 VM 配置。</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
@@ -23214,7 +23214,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -23231,20 +23231,24 @@
       </c>
       <c r="B430" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C430" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支援的區域來將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
-        </is>
-      </c>
-      <c r="E430" s="18" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
+        </is>
+      </c>
+      <c r="E430" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如，操作系統、應用程式、環境），以確保資源與預期配置一致，更新管理可以對 VM 強制實施修補程式管理。</t>
+        </is>
+      </c>
       <c r="F430" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -23265,7 +23269,7 @@
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -23282,7 +23286,7 @@
       </c>
       <c r="B431" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C431" s="18" t="inlineStr">
@@ -23292,7 +23296,7 @@
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施符合標準的基線 VM 配置。</t>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
@@ -23316,7 +23320,7 @@
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -23333,24 +23337,20 @@
       </c>
       <c r="B432" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C432" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
-        </is>
-      </c>
-      <c r="E432" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如，操作系統、應用程式、環境），以確保資源與預期配置一致，更新管理可以對 VM 強制實施修補程式管理。</t>
-        </is>
-      </c>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+        </is>
+      </c>
+      <c r="E432" s="18" t="n"/>
       <c r="F432" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -23371,7 +23371,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="B433" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C433" s="18" t="inlineStr">
@@ -23398,13 +23398,13 @@
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>在支援可用性區域的區域中對 VM 利用可用性區域。</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
       <c r="F433" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -23422,7 +23422,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -23439,23 +23439,23 @@
       </c>
       <c r="B434" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C434" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>避免在單個 VM 上運行生產工作負載。</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
       <c r="F434" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -23473,7 +23473,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -23500,13 +23500,13 @@
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中對 VM 利用可用性區域。</t>
+          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
       <c r="F435" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -23524,7 +23524,7 @@
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23541,17 +23541,17 @@
       </c>
       <c r="B436" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C436" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
+          <t>添加診斷設置以保存來自 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
@@ -23575,7 +23575,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23592,17 +23592,17 @@
       </c>
       <c r="B437" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C437" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
@@ -23626,7 +23626,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -13667,7 +13667,7 @@
       </c>
       <c r="D252" s="18" t="inlineStr">
         <is>
-          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載均衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
+          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。此設置（啟用浮動IP）將減少內部負載均衡器配置用於 DBMS 層上的高可用性配置時的延遲。</t>
         </is>
       </c>
       <c r="E252" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -33585,7 +33585,7 @@
       </c>
       <c r="B636" s="18" t="inlineStr">
         <is>
-          <t>卓越的運營執行力</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="C636" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -53055,12 +53055,12 @@
       </c>
       <c r="D1004" s="18" t="inlineStr">
         <is>
-          <t>如果可能，應用程式應使用託管標識向 Azure 服務總線進行身份驗證。如果沒有，請考慮在 Azure Key Vault 或等效服務中使用存儲憑據（SAS、服務主體憑據）</t>
+          <t>如果可能，請禁用 SAS 金鑰身份驗證（或本地身份驗證），並僅使用 Microsoft Entra ID 進行身份驗證</t>
         </is>
       </c>
       <c r="E1004" s="18" t="inlineStr">
         <is>
-          <t>在 Azure 應用服務應用程式內或在啟用了 Azure 資源支援的託管實體的虛擬機中運行的服務總線用戶端應用不需要處理 SAS 規則和密鑰或任何其他存取權杖。用戶端應用程式只需要 Service Bus Messaging 命名空間的終結點位址。</t>
+          <t>Microsoft Entra ID 提供比共用訪問簽名 （SAS） 更高的安全性和易用性。使用 Microsoft Entra ID，無需將令牌存儲在代碼中，也無需冒潛在安全漏洞的風險。建議盡可能將 Microsoft Entra ID 與 Azure 服務總線應用程式一起使用。</t>
         </is>
       </c>
       <c r="F1004" s="18" t="inlineStr">
@@ -53084,7 +53084,11 @@
           <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
-      <c r="K1004" s="19" t="n"/>
+      <c r="K1004" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'microsoft.servicebus/namespaces' | extend compliant = iif(properties.disableLocalAuth == 'false', 'No', 'Yes') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L1004" s="19" t="inlineStr">
         <is>
           <t>786d60f9-6c96-4ad8-a55d-04c2b39c986b</t>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -21369,7 +21369,11 @@
         </is>
       </c>
       <c r="J415" s="13" t="n"/>
-      <c r="K415" s="19" t="n"/>
+      <c r="K415" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.Cdn/profiles/secrets' | extend frontDoorId = substring(id, 0, indexof(id, '/secrets')) | where properties.parameters.type =~ 'CustomerCertificate' | extend compliant = properties.parameters.useLatestVersion == true | project compliant, id=frontDoorId, certificateName = name | distinct id, certificateName, compliant</t>
+        </is>
+      </c>
       <c r="L415" s="19" t="inlineStr">
         <is>
           <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
@@ -21424,7 +21428,11 @@
           <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
-      <c r="K416" s="19" t="n"/>
+      <c r="K416" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.cdn/profiles' and sku has 'AzureFrontDoor' | project name, cdnprofileid=tolower(id), tostring(tags), resourceGroup, subscriptionId,skuname=tostring(sku.name) | join kind= fullouter ( cdnresources | where type == 'microsoft.cdn/profiles/securitypolicies' | extend wafpolicyid=tostring(properties['parameters']['wafPolicy']['id']) | extend splitid=split(id, '/') | extend cdnprofileid=tolower(strcat_array(array_slice(splitid, 0, 8), '/')) | project secpolname=name, cdnprofileid, wafpolicyid ) on cdnprofileid | project name, cdnprofileid, secpolname, wafpolicyid,skuname | join kind = fullouter ( resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | extend managedrulesenabled=iff(tostring(properties.managedRules.managedRuleSets) != '[]', true, false), enabledState = tostring(properties.policySettings.enabledState) | project afdwafname=name, managedrulesenabled, wafpolicyid=id, enabledState, tostring(tags) ) on wafpolicyid | where name != '' | summarize associatedsecuritypolicies=countif(secpolname != ''), wafswithmanagedrules=countif(managedrulesenabled == 1) by name, id=cdnprofileid, tags,skuname | extend compliant = (associatedsecuritypolicies &gt; 0 and wafswithmanagedrules &gt; 0) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L416" s="19" t="inlineStr">
         <is>
           <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
@@ -21640,7 +21648,11 @@
         </is>
       </c>
       <c r="J420" s="13" t="n"/>
-      <c r="K420" s="19" t="n"/>
+      <c r="K420" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origins')) | extend compliant = isempty(properties.originHostHeader) or (tostring(properties.hostName) =~ tostring(properties.originHostHeader)) | project id=frontDoorId, originName = name, compliant</t>
+        </is>
+      </c>
       <c r="L420" s="19" t="inlineStr">
         <is>
           <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -5302,7 +5302,11 @@
         </is>
       </c>
       <c r="J94" s="13" t="n"/>
-      <c r="K94" s="19" t="n"/>
+      <c r="K94" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['requestBodyCheck'] == 'true' and properties['policySettings']['state'] =~ 'Enabled') | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L94" s="19" t="inlineStr">
         <is>
           <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -28536,7 +28536,7 @@
       </c>
       <c r="J549" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/entra/identity/authentication/concept-mandatory-multifactor-authentication</t>
         </is>
       </c>
       <c r="K549" s="19" t="n"/>
@@ -28793,7 +28793,7 @@
       </c>
       <c r="D554" s="18" t="inlineStr">
         <is>
-          <t>實施緊急訪問或不受限帳戶，以防止租戶範圍的帳戶鎖定。</t>
+          <t>實施緊急訪問或不受限帳戶，以防止租戶範圍的帳戶鎖定。默認情況下，MFA 將於 2024 年 10 月為所有用戶開啟。我們建議更新這些帳戶以使用密鑰 （FIDO2） 或為 MFA 配置基於證書的身份驗證。</t>
         </is>
       </c>
       <c r="E554" s="18" t="n"/>
@@ -28815,7 +28815,7 @@
       </c>
       <c r="J554" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access#exclude-at-least-one-account-from-conditional-access-policies</t>
         </is>
       </c>
       <c r="K554" s="19" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -38553,7 +38553,7 @@
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>Azure SAP 解決方案中心 （ACSS） 是一項 Azure 產品/服務，可使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，使你能夠在 Azure 上創建和運行 SAP 系統作為統一的工作負載，並為創新提供更無縫的基礎。可以利用新的和現有的基於 Azure 的 SAP 系統的管理功能。</t>
+          <t>Azure SAP 解決方案 中心 （ACSS） 是一種 Azure 產品/服務，它使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，使你能夠在 Azure 上將 SAP 系統作為統一工作負載創建和運行，併為創新提供更無縫的基礎。您可以利用新的和現有的基於 Azure 的 SAP 系統的管理功能。</t>
         </is>
       </c>
       <c r="E730" s="18" t="n"/>
@@ -38608,7 +38608,7 @@
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP 部署自動化框架是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
+          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP Deployment Automation Framework 是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
         </is>
       </c>
       <c r="E731" s="18" t="n"/>
@@ -38663,7 +38663,7 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>在符合 RTO 要求的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層上或通過SAP刪除數據時出現的錯誤</t>
+          <t>在滿足 RTO 的任何時間和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員錯誤地刪除 DBMS 層或透過 SAP 刪除數據</t>
         </is>
       </c>
       <c r="E732" s="18" t="n"/>
@@ -38761,7 +38761,7 @@
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在使用的配對區域之間複製備份。對於所有其他數據，請使用本機 DBMS 功能（如 SQL Server Always On 或 SAP HANA 系統複製）運行複製。將 Site Recovery、rsync 或 robocopy 以及其他第三方軟體組合用於 SAP 應用程式層。</t>
+          <t>您可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在您使用的配對區域之間複製備份。對於所有其他數據，請使用 SQL Server Always On 或 SAP HANA 系統複製等本機 DBMS 功能運行複製。將 Site Recovery、rsync 或 robocopy 以及其他第三方軟體組合用於 SAP 應用程式層。</t>
         </is>
       </c>
       <c r="E734" s="18" t="n"/>
@@ -38871,7 +38871,7 @@
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>設置從本地到主要和次要 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和輔助 Azure 災難恢復區域的 VPN 連接。</t>
+          <t>設置從本地到主要和輔助 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和輔助 Azure 災難恢復區域的 VPN 連接。</t>
         </is>
       </c>
       <c r="E736" s="18" t="n"/>
@@ -38896,7 +38896,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
         </is>
       </c>
-      <c r="K736" s="19" t="n"/>
+      <c r="K736" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type =~ 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType =~ 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L736" s="19" t="inlineStr">
         <is>
           <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
@@ -38926,7 +38930,7 @@
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>跨區域複製證書、機密或密鑰等金鑰保管庫內容，以便解密DR區域中的數據。</t>
+          <t>跨區域複製金鑰保管庫內容（如證書、機密或金鑰），以便可以在DR區域中解密資料。</t>
         </is>
       </c>
       <c r="E737" s="18" t="n"/>
@@ -38977,7 +38981,7 @@
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>對等連接主虛擬網路和災難恢復虛擬網路。例如，對於 HANA 系統複製，需要將 SAP HANA DB 虛擬網路對等互連到災難恢復網站的 SAP HANA DB 虛擬網路。</t>
+          <t>將主虛擬網路和災難恢復虛擬網路對等互連。例如，對於 HANA 系統複製，SAP HANA DB 虛擬網路需要與災難恢復網站的 SAP HANA DB 虛擬網路對等互連。</t>
         </is>
       </c>
       <c r="E738" s="18" t="n"/>
@@ -39028,7 +39032,7 @@
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>如果將 Azure NetApp 檔案儲存用於 SAP 部署，則至少要在兩個區域的高級層中創建兩個 Azure NetApp 檔帳戶。</t>
+          <t>如果將 Azure NetApp Files 儲存用於 SAP 部署，則至少在兩個區域中的高級層中創建兩個 Azure NetApp Files 帳戶。</t>
         </is>
       </c>
       <c r="E739" s="18" t="n"/>
@@ -39163,7 +39167,11 @@
           <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
-      <c r="K741" s="19" t="n"/>
+      <c r="K741" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\.|172\.(1[6-9]|2[0-9]|3[01])\.|192\.168\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L741" s="19" t="inlineStr">
         <is>
           <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
@@ -39193,7 +39201,7 @@
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還可以説明將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
+          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還可以説明將中心服務群集 VM 複製到DR網站。調用DR時，您需要在DR網站上重新配置Linux Pacemaker集群（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
         </is>
       </c>
       <c r="E742" s="18" t="n"/>
@@ -39244,7 +39252,7 @@
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>考慮 SAP 軟體針對單點故障的可用性。這包括應用程式中的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
+          <t>考慮 SAP 軟體的可用性，防止單點故障。這包括應用程式中的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還可以使用其他工具，例如 SAP Web Dispatcher。</t>
         </is>
       </c>
       <c r="E743" s="18" t="n"/>
@@ -39299,7 +39307,7 @@
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>對於 SAP 和 SAP 資料庫，請考慮實現自動故障轉移群集。在 Windows 中，Windows Server 故障轉移群集支援故障轉移。在 Linux 中，Linux Pacemaker 或第三方工具（如 SIOS Protection Suite 和 Veritas InfoScale）支援故障轉移。</t>
+          <t>對於 SAP 和 SAP 資料庫，請考慮實現自動故障轉移群集。在 Windows 中，Windows Server 故障轉移群集支援故障轉移。在Linux中，Linux Pacemaker或SIOS Protection Suite 和 Veritas InfoScale 等第三方工具支援故障轉移。</t>
         </is>
       </c>
       <c r="E744" s="18" t="n"/>
@@ -39354,7 +39362,7 @@
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並使用與主虛擬機和輔助虛擬機使用的存儲堆疊不同的存儲堆疊。</t>
+          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的架構模式是同時複製資料庫，並且使用與主 VM 和輔助 VM 使用的儲存堆疊不同的儲存堆疊。</t>
         </is>
       </c>
       <c r="E745" s="18" t="n"/>
@@ -39409,7 +39417,7 @@
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 DBMS 資料和/或使用 SAP 工作負載重做日誌檔的存儲。</t>
+          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 SAP 工作負載的 DBMS 資料和/或重做日誌檔的存儲。</t>
         </is>
       </c>
       <c r="E746" s="18" t="n"/>
@@ -39464,7 +39472,7 @@
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>可以在 Windows 中將 Azure 共用磁碟用於 ASCS + SCS 元件和特定的高可用性方案。為 SAP 應用程式層元件和 DBMS 層單獨設置故障轉移群集。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
+          <t>您可以在 Windows 中使用 Azure 共用磁碟，以實現 ASCS + SCS 元件和特定的高可用性方案。分別為 SAP 應用程式層元件和 DBMS 層設置故障轉移集群。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
         </is>
       </c>
       <c r="E747" s="18" t="n"/>
@@ -39519,7 +39527,7 @@
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 Azure 負載均衡器應處理所有其他情況的虛擬IP位址。一個設計原則是每個集群配置使用一個負載均衡器。建議使用標準版本的負載均衡器（標準負載均衡器 SKU）。</t>
+          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 Azure 負載均衡器應處理所有其他情況下的虛擬IP位址。一種設計原則是每個集群配置使用一個負載均衡器。我們建議您使用標準版本的負載均衡器 （Standard Load Balancer SKU）。</t>
         </is>
       </c>
       <c r="E748" s="18" t="n"/>
@@ -39544,7 +39552,11 @@
           <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
-      <c r="K748" s="19" t="n"/>
+      <c r="K748" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'Microsoft.Network/loadBalancers' | extend bep = properties.backendAddressPools | extend BackEndPools = array_length(bep) | where BackEndPools =~ 0 | project name, id, Param1='backendPools', Param2=toint(0), tags | union (resources | where type =~ 'Microsoft.Network/loadBalancers' | where sku.name =~ 'Standard' | extend bep = properties.backendAddressPools | extend BackEndPools = toint(array_length(bep)) | mv-expand bip = properties.backendAddressPools | extend BackendAddresses = array_length(bip.properties.loadBalancerBackendAddresses) | where toint(BackendAddresses) &lt;= 1 | project name, id, tags, Param1='backendAddresses', Param2=toint(BackendAddresses)) | union ( resources | where type =~ 'Microsoft.Network/loadBalancers' | where sku.name =~ 'Basic' | mv-expand properties.backendAddressPools | extend backendPoolId = properties_backendAddressPools.id | project id, name, tags, tostring(backendPoolId), Param1='BackEndPools' | join kind = leftouter ( resources | where type =~ 'Microsoft.Network/networkInterfaces' | mv-expand properties.ipConfigurations | mv-expand properties_ipConfigurations.properties.loadBalancerBackendAddressPools | extend backendPoolId = tostring(properties_ipConfigurations_properties_loadBalancerBackendAddressPools.id) | summarize poolMembers = count() by backendPoolId | project tostring(backendPoolId), poolMembers ) on backendPoolId | where toint(poolMembers) &lt;= 1 | extend BackendAddresses = poolMembers | project id, name, tags, Param1='backendAddresses', Param2=toint(BackendAddresses))</t>
+        </is>
+      </c>
       <c r="L748" s="19" t="inlineStr">
         <is>
           <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
@@ -39629,7 +39641,7 @@
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>在部署高可用性基礎結構之前，請根據所選的區域確定是使用 Azure 可用性集還是可用性區域進行部署。</t>
+          <t>在部署高可用性基礎結構之前，根據您選擇的區域，確定是使用 Azure 可用性集還是可用性區域進行部署。</t>
         </is>
       </c>
       <c r="E750" s="18" t="n"/>
@@ -39684,7 +39696,7 @@
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>如果要滿足 SAP 元件（中央服務、應用程式伺服器和資料庫）應用程式的基礎結構 SLA，則必須為所有元件選擇相同的高可用性選項（VM、可用性集、可用性區域）。</t>
+          <t>如果要滿足 SAP 元件（中央服務、應用程式伺服器和資料庫）的應用程式的基礎設施 SLA，則必須為所有元件選擇相同的高可用性選項（VM、可用性集、可用區）。</t>
         </is>
       </c>
       <c r="E751" s="18" t="n"/>
@@ -39735,7 +39747,7 @@
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中央服務 VM、資料庫 VM、應用程式 VM 保留在自己的可用性集中</t>
+          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中心服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
         </is>
       </c>
       <c r="E752" s="18" t="n"/>
@@ -39790,7 +39802,7 @@
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域內部署 Azure 可用性集。</t>
+          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域中部署 Azure 可用性集。</t>
         </is>
       </c>
       <c r="E753" s="18" t="n"/>
@@ -39845,7 +39857,7 @@
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>創建可用性集時，請使用最大數量的容錯域和更新可用的域。例如，如果在一個可用性集中部署兩個以上的 VM，請使用最大數量的容錯域（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響，以及 Azure 計劃內維護。默認的容錯域數為 2，以後無法連線更改。</t>
+          <t>創建可用性集時，請使用可用的容錯域和更新域的最大數量。例如，如果您在一個可用性集中部署兩個以上的 VM，除了 Azure 計劃內維護之外，還請使用最大數量的容錯域 （三個） 和足夠的更新域，以限制潛在物理硬體故障、網路中斷或電源中斷的影響。容錯域的預設數量為 2，以後無法在線更改。</t>
         </is>
       </c>
       <c r="E754" s="18" t="n"/>
@@ -40002,7 +40014,7 @@
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t>根據操作系統的不同，使用以下服務之一來運行 SAP 中心服務群集。</t>
+          <t>使用以下服務之一運行 SAP Central Services 集群，具體取決於操作系統。</t>
         </is>
       </c>
       <c r="E757" s="18" t="n"/>
@@ -40057,7 +40069,7 @@
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>Azure 目前不支援將 ASCS 和 DB HA 組合在同一 Linux Pacemaker 群集中;將它們分成單獨的集群。但是，最多可以將五個多個中心服務群集合併到一對 VM 中。</t>
+          <t>Azure 目前不支援在同一個 Linux Pacemaker 群集中組合 ASCS 和 DB HA;將它們分成單獨的集群。但是，您最多可以將5個多個中央服務集群組合成一對VM。</t>
         </is>
       </c>
       <c r="E758" s="18" t="n"/>
@@ -40112,7 +40124,7 @@
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>在可用性集或可用性區域中的高可用性對中部署兩個 VM。這些 VM 的大小應相同，並具有相同的存儲配置。</t>
+          <t>將高可用性對中的兩個 VM 部署在可用性集或可用性區域中。這些 VM 的大小應相同，並且具有相同的存儲配置。</t>
         </is>
       </c>
       <c r="E759" s="18" t="n"/>
@@ -40133,7 +40145,11 @@
         </is>
       </c>
       <c r="J759" s="13" t="n"/>
-      <c r="K759" s="19" t="n"/>
+      <c r="K759" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Storage/storageAccounts' | where sku.name in~ ('Standard_LRS', 'Premium_LRS') | project name, id, tags, param1 = strcat('sku: ', sku.name)</t>
+        </is>
+      </c>
       <c r="L759" s="19" t="inlineStr">
         <is>
           <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
@@ -40163,7 +40179,7 @@
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>Azure 支援在 Red Hat Enterprise Linux （RHEL） 上運行的同一高可用性群集上安裝和配置 SAP HANA 和 ASCS/SCS 和 ERS 實例。</t>
+          <t>Azure 支援在 Red Hat Enterprise Linux （RHEL） 上運行的同一高可用性群集上安裝和配置 SAP HANA 以及 ASCS/SCS 和 ERS 實例。</t>
         </is>
       </c>
       <c r="E760" s="18" t="n"/>
@@ -40218,7 +40234,7 @@
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp 檔或超級磁碟存儲。至少OS磁碟應位於高級層，以便您可以獲得更好的性能和最佳SLA。</t>
+          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp Files 或超級磁碟存儲。至少OS磁碟應位於高級層上，以便您可以獲得更好的性能和最佳SLA。</t>
         </is>
       </c>
       <c r="E761" s="18" t="n"/>
@@ -40273,7 +40289,7 @@
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>應僅在 SAP 認證的存儲類型上運行 Azure 上的 SAP HANA。請注意，某些卷必須在某些磁碟配置（如果適用）上運行。這些配置包括啟用寫入加速器和使用高級存儲。您還需要確保在儲存上運行的檔案系統與在電腦上運行的 DBMS 相容。</t>
+          <t>應僅在 SAP 認證的存儲類型上運行 Azure 上的 SAP HANA。請注意，某些卷必須在某些磁碟配置上運行（如果適用）。這些配置包括啟用 Write Accelerator 和使用高級存儲。您還需要確保在儲存上運行的檔案系統與計算機上運行的 DBMS 相容。</t>
         </is>
       </c>
       <c r="E762" s="18" t="n"/>
@@ -40328,7 +40344,7 @@
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>請考慮根據用於 SAP 工作負載的儲存類型配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
+          <t>考慮根據您用於 SAP 工作負載的儲存類型配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
         </is>
       </c>
       <c r="E763" s="18" t="n"/>
@@ -40383,7 +40399,7 @@
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>不同的本機 Azure 儲存服務（如 Azure 檔存儲、Azure NetApp 檔、Azure 共用磁碟）可能並非在所有區域都可用。因此，若要在故障轉移后在DR區域上設置類似的SAP，請確保在DR網站中提供相應的存儲服務。</t>
+          <t>不同的本機 Azure 儲存服務（如 Azure 檔、Azure NetApp 檔、Azure 共用磁碟）可能並非在所有區域都可用。因此，要在故障轉移后在DR區域上進行類似的SAP設置，請確保在DR網站中提供相應的存儲服務。</t>
         </is>
       </c>
       <c r="E764" s="18" t="n"/>
@@ -40434,7 +40450,7 @@
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>自動執行 SAP System Start-Stop 以管理成本。</t>
+          <t>自動化 SAP System Start-Stop 以管理成本。</t>
         </is>
       </c>
       <c r="E765" s="18" t="n"/>
@@ -40485,7 +40501,7 @@
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>如果將 Azure 高級存儲與 SAP HANA 配合使用，則可以使用 Azure 標準 SSD 儲存來選擇成本敏感的儲存解決方案。但是，請注意，選擇“標準 SSD”或“標準 HDD Azure”存儲將影響各個 VM 的 SLA。此外，對於具有較低 I/O 輸送量和低延遲的系統（例如非生產環境），可以使用較低系列的 VM。</t>
+          <t>如果將 Azure 高級存儲與 SAP HANA 配合使用，則可以使用 Azure 標準 SSD 儲存來選擇注重成本的儲存解決方案。但是，請注意，選擇標準 SSD 或標準 HDD Azure 儲存將影響單個 VM 的 SLA。此外，對於 I/O 輸送量較低且延遲較低的系統（如非生產環境），可以使用較低系列的 VM。</t>
         </is>
       </c>
       <c r="E766" s="18" t="n"/>
@@ -40536,7 +40552,7 @@
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>作為成本較低的替代配置（多用途），可以為非生產 HANA 資料庫伺服器 VM 選擇低性能 SKU。但是，請務必注意，某些 VM 類型（如 E 系列）未經 HANA 認證（SAP HANA 硬體目錄），或者無法實現小於 1 毫秒的存儲延遲。</t>
+          <t>作為成本較低的替代配置（多用途），您可以為非生產 HANA 資料庫伺服器 VM 選擇低性能 SKU。但是，請務必注意，某些 VM 類型（如 E 系列）未經過 HANA 認證（SAP HANA 硬體目錄），或者無法實現小於 1 毫秒的存儲延遲。</t>
         </is>
       </c>
       <c r="E767" s="18" t="n"/>
@@ -40612,7 +40628,11 @@
           <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
-      <c r="K768" s="19" t="n"/>
+      <c r="K768" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.aad/domainservices' | extend replicaSets = properties.replicaSets | where array_length(replicaSets) &lt; 2 | project name=name, id=id, tags=tags, param1=strcat('replicaSetLocation:', replicaSets[0].location)</t>
+        </is>
+      </c>
       <c r="L768" s="19" t="inlineStr">
         <is>
           <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
@@ -40697,7 +40717,7 @@
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>使用 SAML 通過 Azure AD 實現 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
+          <t>使用 SAML 通過 Azure AD 實現對 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
         </is>
       </c>
       <c r="E770" s="18" t="n"/>
@@ -40854,7 +40874,7 @@
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>可以使用SAP NetWeaver SSO 或合作夥伴解決方案將 SSO 實現到 SAP GUI。</t>
+          <t>您可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現對 SAP GUI 的 SSO。</t>
         </is>
       </c>
       <c r="E773" s="18" t="n"/>
@@ -40909,7 +40929,7 @@
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>對於 SAP GUI 和 Web 瀏覽器訪問的 SSO，實施 SNC / Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP Secure Login Server，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="E774" s="18" t="n"/>
@@ -40960,7 +40980,7 @@
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>對於 SAP GUI 和 Web 瀏覽器訪問的 SSO，實施 SNC / Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP Secure Login Server，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="E775" s="18" t="n"/>
@@ -41011,7 +41031,7 @@
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>使用 OAuth for SAP NetWeaver 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
+          <t>通過使用 SAP NetWeaver 的 OAuth 實施 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
         </is>
       </c>
       <c r="E776" s="18" t="n"/>
@@ -41062,7 +41082,7 @@
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>實現 SSO 到 SAP HANA</t>
+          <t>實施SAP HANA的 SSO</t>
         </is>
       </c>
       <c r="E777" s="18" t="n"/>
@@ -41164,7 +41184,7 @@
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>對於訪問 SAP 的應用程式，可能需要使用主體傳播來建立 SSO。</t>
+          <t>對於訪問 SAP 的應用程式，您可能希望使用主體傳播來建立 SSO。</t>
         </is>
       </c>
       <c r="E779" s="18" t="n"/>
@@ -41215,7 +41235,7 @@
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>如果使用的是需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到 Azure AD，作為中央使用者存儲和標識提供者。</t>
+          <t>如果使用需要 SAP 身份驗證服務 （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication 服務和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到作為中央使用者存儲和標識提供者的 Azure AD。</t>
         </is>
       </c>
       <c r="E780" s="18" t="n"/>
@@ -41266,7 +41286,7 @@
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>實現 SSO 到 SAP BTP</t>
+          <t>實施 SSO 到 SAP BTP</t>
         </is>
       </c>
       <c r="E781" s="18" t="n"/>
@@ -41317,7 +41337,7 @@
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，當你向 SAP SuccessFactors 添加新員工時，可以在 Azure AD 中自動建立使用者帳戶。 （可選）可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中建立使用者帳戶。 使用將電子郵件地址寫回 SAP SuccessFactors。</t>
+          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，當您將新員工添加到 SAP SuccessFactors 時，您可以在 Azure AD 中自動建立其用戶帳戶。（可選）您可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中創建用戶帳戶。</t>
         </is>
       </c>
       <c r="E782" s="18" t="n"/>
@@ -41368,10 +41388,14 @@
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>對 SAP 訂閱強制實施現有管理組策略</t>
-        </is>
-      </c>
-      <c r="E783" s="18" t="n"/>
+          <t>對 SAP 訂閱實施現有管理組策略</t>
+        </is>
+      </c>
+      <c r="E783" s="18" t="inlineStr">
+        <is>
+          <t>保持管理組層次結構合理平坦，不超過 4 個。</t>
+        </is>
+      </c>
       <c r="F783" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -41393,7 +41417,11 @@
           <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
-      <c r="K783" s="19" t="n"/>
+      <c r="K783" s="19" t="inlineStr">
+        <is>
+          <t>resourcecontainers| where type =~ 'microsoft.resources/subscriptions'| extend ManagementGroup = tostring(tags),mgmtChain = properties.managementGroupAncestorsChain| extend compliant =( array_length(mgmtChain) &lt;= 4 and array_length(mgmtChain) &gt; 1)</t>
+        </is>
+      </c>
       <c r="L783" s="19" t="inlineStr">
         <is>
           <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
@@ -41423,7 +41451,7 @@
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>將緊密耦合的應用程式集成到同一個 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
+          <t>將緊密耦合的應用程式集成到同一 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
         </is>
       </c>
       <c r="E784" s="18" t="n"/>
@@ -41448,7 +41476,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
-      <c r="K784" s="19" t="n"/>
+      <c r="K784" s="19" t="inlineStr">
+        <is>
+          <t>Resources | summarize count()</t>
+        </is>
+      </c>
       <c r="L784" s="19" t="inlineStr">
         <is>
           <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
@@ -41478,7 +41510,7 @@
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>利用訂閱作為縮放單元並擴展我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
+          <t>利用 Subscription 作為縮放單元並擴展我們的資源，考慮為每個環境部署 Subscription，例如。沙箱、非生產、生產</t>
         </is>
       </c>
       <c r="E785" s="18" t="n"/>
@@ -41503,7 +41535,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
-      <c r="K785" s="19" t="n"/>
+      <c r="K785" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type contains 'publicIPAddresses' and isnotempty(properties.ipAddress) | summarize count () by subscriptionId</t>
+        </is>
+      </c>
       <c r="L785" s="19" t="inlineStr">
         <is>
           <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
@@ -41533,7 +41569,7 @@
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>確保在訂閱預配過程中增加配額（例如，訂閱中可用的 VM 核心總數）</t>
+          <t>確保在訂閱預配過程中增加配額（例如，訂閱中的可用 VM 核心總數）</t>
         </is>
       </c>
       <c r="E786" s="18" t="n"/>
@@ -41558,7 +41594,11 @@
           <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
-      <c r="K786" s="19" t="n"/>
+      <c r="K786" s="19" t="inlineStr">
+        <is>
+          <t>QuotaResources | where type =~ 'microsoft.compute/locations/usages' | where subscriptionId in~ ('&lt;Subscription1&gt;','&lt;Subscription2&gt;') | mv-expand json = properties.value limit 400 | extend usagevCPUs = json.currentValue, QuotaLimit = json['limit'], quotaName = tostring(json['name'].localizedValue) | extend usagePercent = toint(usagevCPUs)*100 / toint(QuotaLimit) |where quotaName =~ 'Total Regional vCPUs' or quotaName =~ 'Total Regional Low-priority vCPUs' |project subscriptionId,quotaName,usagevCPUs,QuotaLimit,usagePercent,location,['json'] | order by ['usagePercent'] desc</t>
+        </is>
+      </c>
       <c r="L786" s="19" t="inlineStr">
         <is>
           <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
@@ -41639,7 +41679,7 @@
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>如果部署到可用性區域，請確保在配額獲得批准后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
+          <t>如果部署到可用區，請確保在配額獲得批准后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用區。</t>
         </is>
       </c>
       <c r="E788" s="18" t="n"/>
@@ -41690,7 +41730,7 @@
       </c>
       <c r="D789" s="18" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在所選部署區域內可用，例如。ANF、區域等</t>
+          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF 、 Zone 等</t>
         </is>
       </c>
       <c r="E789" s="18" t="n"/>
@@ -41745,7 +41785,7 @@
       </c>
       <c r="D790" s="18" t="inlineStr">
         <is>
-          <t>利用 Azure 資源標記進行成本分類和資源分組（：BillTo、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、ProjectName）</t>
+          <t>利用 Azure 資源標籤進行成本分類和資源組（：BillTo、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用程式層）、應用程式擁有者、ProjectName）</t>
         </is>
       </c>
       <c r="E790" s="18" t="n"/>
@@ -41770,7 +41810,11 @@
           <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
-      <c r="K790" s="19" t="n"/>
+      <c r="K790" s="19" t="inlineStr">
+        <is>
+          <t>resources | extend compliant = isnotnull(['tags']) | project name, id, subscriptionId, resourceGroup, tags, compliant</t>
+        </is>
+      </c>
       <c r="L790" s="19" t="inlineStr">
         <is>
           <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
@@ -41855,7 +41899,7 @@
       </c>
       <c r="D792" s="18" t="inlineStr">
         <is>
-          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具（ AzAcSnap ）來創建應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
+          <t>如果您為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 拍攝應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。考慮在中央 VM 上使用 AzAcSnap ，而不是在單個 VM 上使用。</t>
         </is>
       </c>
       <c r="E792" s="18" t="n"/>
@@ -41957,7 +42001,7 @@
       </c>
       <c r="D794" s="18" t="inlineStr">
         <is>
-          <t>不要將不同的應用程式服務分組到同一個集群中。例如，不要將DRBD和中央服務集群組合在同一集群上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中心服務（多 SID 群集）。</t>
+          <t>不要將不同的應用程式服務分組到同一個集群中。例如，不要將DRBD和中央服務集群合併到同一個集群上。但是，您可以使用同一個 Pacemaker 集群來管理大約五個不同的中央服務（多 SID 集群）。</t>
         </is>
       </c>
       <c r="E794" s="18" t="n"/>
@@ -42012,7 +42056,7 @@
       </c>
       <c r="D795" s="18" t="inlineStr">
         <is>
-          <t>請考慮在暫停模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
+          <t>考慮在推遲模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
         </is>
       </c>
       <c r="E795" s="18" t="n"/>
@@ -42063,7 +42107,7 @@
       </c>
       <c r="D796" s="18" t="inlineStr">
         <is>
-          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務對客戶的環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的行為。</t>
+          <t>如果你通過管理客戶的 SAP 資產來與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 原生標識服務對客戶的環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的行為。</t>
         </is>
       </c>
       <c r="E796" s="18" t="n"/>
@@ -42114,7 +42158,7 @@
       </c>
       <c r="D797" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Update Manager 檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
+          <t>使用 Azure Update Manager 檢查單個 VM 或多個 VM 的可用更新的狀態，並考慮計劃定期修補。</t>
         </is>
       </c>
       <c r="E797" s="18" t="n"/>
@@ -42169,7 +42213,7 @@
       </c>
       <c r="D798" s="18" t="inlineStr">
         <is>
-          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 運營。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
+          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 運營。使用適用於 Azure 的 SAP LaMa 連接器來重新定位、複製、克隆和刷新 SAP 系統。</t>
         </is>
       </c>
       <c r="E798" s="18" t="n"/>
@@ -42224,7 +42268,7 @@
       </c>
       <c r="D799" s="18" t="inlineStr">
         <is>
-          <t>使用用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
+          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充適用於 SAP 解決方案的 Azure Monitor。</t>
         </is>
       </c>
       <c r="E799" s="18" t="n"/>
@@ -42279,7 +42323,7 @@
       </c>
       <c r="D800" s="18" t="inlineStr">
         <is>
-          <t>運行適用於 SAP 的 VM 擴展檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
+          <t>運行 VM Extension for SAP 檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
         </is>
       </c>
       <c r="E800" s="18" t="n"/>
@@ -42334,7 +42378,7 @@
       </c>
       <c r="D801" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供了強制實施組織範圍設置的功能，以確保一致的策略遵守和快速違規檢測。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供了強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
         </is>
       </c>
       <c r="E801" s="18" t="n"/>
@@ -42389,7 +42433,7 @@
       </c>
       <c r="D802" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 網路觀察程式中的連接監視器監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量。</t>
+          <t>使用 Azure 網路觀察程式中的連接監視器來監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲測量值。</t>
         </is>
       </c>
       <c r="E802" s="18" t="n"/>
@@ -42495,7 +42539,7 @@
       </c>
       <c r="D804" s="18" t="inlineStr">
         <is>
-          <t>對於每個 Azure 訂閱，請在區域部署之前對 Azure 可用性區域運行延遲測試，以選擇用於在 Azure 上部署 SAP 的低延遲區域。</t>
+          <t>對於每個 Azure 訂閱，在區域部署之前，請在 Azure 可用性區域上運行延遲測試，以選擇低延遲區域以在 Azure 上部署 SAP。</t>
         </is>
       </c>
       <c r="E804" s="18" t="n"/>
@@ -42550,7 +42594,7 @@
       </c>
       <c r="D805" s="18" t="inlineStr">
         <is>
-          <t>運行復原報告，確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合適用於 Azure 的 Cloud Adaption Framework 定義的配置。</t>
+          <t>運行彈性報告，確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合 Cloud Adaption Framework for Azure 定義的配置。</t>
         </is>
       </c>
       <c r="E805" s="18" t="n"/>
@@ -42605,7 +42649,7 @@
       </c>
       <c r="D806" s="18" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案監視 SAP 系統，並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
+          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實現威脅防護。使用此解決方案可監控您的 SAP 系統並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
         </is>
       </c>
       <c r="E806" s="18" t="n"/>
@@ -42660,7 +42704,7 @@
       </c>
       <c r="D807" s="18" t="inlineStr">
         <is>
-          <t>Azure 標記可用於對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所發生成本的可見性。</t>
+          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤、自動化部署，最重要的是，提供對所產生成本的可見性。</t>
         </is>
       </c>
       <c r="E807" s="18" t="n"/>
@@ -42685,7 +42729,11 @@
           <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
-      <c r="K807" s="19" t="n"/>
+      <c r="K807" s="19" t="inlineStr">
+        <is>
+          <t>resources | extend compliant = isnotnull(['tags']) | project name, id, subscriptionId, resourceGroup, tags, compliant</t>
+        </is>
+      </c>
       <c r="L807" s="19" t="inlineStr">
         <is>
           <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
@@ -42715,7 +42763,7 @@
       </c>
       <c r="D808" s="18" t="inlineStr">
         <is>
-          <t>對延遲敏感型應用程式使用虛擬機間延遲監視。</t>
+          <t>對延遲敏感型應用程式使用虛擬機間延遲監控。</t>
         </is>
       </c>
       <c r="E808" s="18" t="n"/>
@@ -42821,7 +42869,7 @@
       </c>
       <c r="D810" s="18" t="inlineStr">
         <is>
-          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包含它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單中的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
+          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包含它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解有關排除清單的規範性詳細資訊。例如，Oracle 建議從防病毒掃描中排除 /oracle/&lt;sid&gt;/sapdata。</t>
         </is>
       </c>
       <c r="E810" s="18" t="n"/>
@@ -42872,7 +42920,7 @@
       </c>
       <c r="D811" s="18" t="inlineStr">
         <is>
-          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實施SAP 註釋1020260 - 交付 Oracle 統計資訊。</t>
+          <t>考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實施SAP註釋 1020260 - Oracle 統計資訊的交付。</t>
         </is>
       </c>
       <c r="E811" s="18" t="n"/>
@@ -42923,7 +42971,7 @@
       </c>
       <c r="D812" s="18" t="inlineStr">
         <is>
-          <t>請考慮將 Oracle 自動儲存管理 （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
+          <t>請考慮將 Oracle Automatic Storage Management （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
         </is>
       </c>
       <c r="E812" s="18" t="n"/>
@@ -42978,7 +43026,7 @@
       </c>
       <c r="D813" s="18" t="inlineStr">
         <is>
-          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 自動工作負載存儲庫 （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋範圍。</t>
+          <t>對於運行 Oracle 的 Azure 上的 SAP，一組 SQL 腳本可以説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋範圍。</t>
         </is>
       </c>
       <c r="E813" s="18" t="n"/>
@@ -43088,7 +43136,7 @@
       </c>
       <c r="D815" s="18" t="inlineStr">
         <is>
-          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保啟用 WAF 保護和策略。</t>
+          <t>為了安全交付 HTTP/S 應用程式，請使用應用程式閘道 v2 並確保啟用 WAF 保護和策略。</t>
         </is>
       </c>
       <c r="E815" s="18" t="n"/>
@@ -43143,7 +43191,7 @@
       </c>
       <c r="D816" s="18" t="inlineStr">
         <is>
-          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱將連接 SAP 環境中的許多系統介面，並且客戶有時只會知道開發人員隨時間推移定義的介面。遷移后，當虛擬或 DNS 名稱更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現此類困難。</t>
+          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱將連接 SAP 環境中的許多系統介面，並且客戶有時只會知道開發人員隨時間定義的介面。遷移后，當虛擬或 DNS 名稱發生變化時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現這些類型的困難。</t>
         </is>
       </c>
       <c r="E816" s="18" t="n"/>
@@ -43253,10 +43301,14 @@
       </c>
       <c r="D818" s="18" t="inlineStr">
         <is>
-          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署的登陸區域之間的連接的首選方法</t>
-        </is>
-      </c>
-      <c r="E818" s="18" t="n"/>
+          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域進行 SAP 部署的登陸區域之間建立連接的首選方法</t>
+        </is>
+      </c>
+      <c r="E818" s="18" t="inlineStr">
+        <is>
+          <t>配置 VNet 對等互連時，請使用允許流量流向遠端虛擬網路設置。</t>
+        </is>
+      </c>
       <c r="F818" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -43278,7 +43330,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
-      <c r="K818" s="19" t="n"/>
+      <c r="K818" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess =~ True)</t>
+        </is>
+      </c>
       <c r="L818" s="19" t="inlineStr">
         <is>
           <t>a3592829-e6e2-4061-9368-6af46791f893</t>
@@ -43363,7 +43419,7 @@
       </c>
       <c r="D820" s="18" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置的全域傳輸連接的新網路、大型網路或全球網路中使用虛擬 WAN 進行 Azure 部署。使用此方法，無需手動設置 Azure 網路的可傳遞路由，並且可以遵循 Azure 部署上的 SAP 標準。</t>
+          <t>在需要跨 Azure 區域和本地位置建立全球傳輸連接的新網路、大型網路或全球網路中，使用虛擬 WAN 進行 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署標準。</t>
         </is>
       </c>
       <c r="E820" s="18" t="n"/>
@@ -43388,7 +43444,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="K820" s="19" t="n"/>
+      <c r="K820" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type =~ 'microsoft.network/virtualwans' | extend compliant= (properties.allowBranchToBranchTraffic =~ 'true') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L820" s="19" t="inlineStr">
         <is>
           <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
@@ -43418,7 +43478,7 @@
       </c>
       <c r="D821" s="18" t="inlineStr">
         <is>
-          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路衝突的配置。</t>
+          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路的衝突配置。</t>
         </is>
       </c>
       <c r="E821" s="18" t="n"/>
@@ -43473,7 +43533,7 @@
       </c>
       <c r="D822" s="18" t="inlineStr">
         <is>
-          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 G。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
+          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 Gb。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
         </is>
       </c>
       <c r="E822" s="18" t="n"/>
@@ -43553,7 +43613,11 @@
           <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
-      <c r="K823" s="19" t="n"/>
+      <c r="K823" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Network/publicIPAddresses' and sku.tier =~ 'Regional' | where isempty(zones) or array_length(zones) &lt;= 1 | extend az = case(isempty(zones), 'Non-zonal', array_length(zones) &lt;= 1, strcat('Zonal (', strcat_array(zones, ','), ')'), zones) | project name, id, tags, param1 = strcat('sku: ', sku.name), param2 = strcat('availabilityZone: ', az)</t>
+        </is>
+      </c>
       <c r="L823" s="19" t="inlineStr">
         <is>
           <t>82734c88-6ba2-4802-8459-11475e39e530</t>
@@ -43608,7 +43672,11 @@
           <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
-      <c r="K824" s="19" t="n"/>
+      <c r="K824" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type contains 'publicIPAddresses' and isnotempty(properties.ipAddress) | summarize count () by subscriptionId</t>
+        </is>
+      </c>
       <c r="L824" s="19" t="inlineStr">
         <is>
           <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
@@ -43638,7 +43706,7 @@
       </c>
       <c r="D825" s="18" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>避免對生產和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="E825" s="18" t="n"/>
@@ -43693,7 +43761,7 @@
       </c>
       <c r="D826" s="18" t="inlineStr">
         <is>
-          <t>雖然 Azure 確實可以説明您在 VNet 中創建多個委派子網，但 Azure NetApp 檔的 VNet 中只能存在一個委派子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
+          <t>雖然 Azure 確實可以説明您在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果為 Azure NetApp Files 使用多個委託子網，則嘗試創建新卷將失敗。</t>
         </is>
       </c>
       <c r="E826" s="18" t="n"/>
@@ -43748,7 +43816,7 @@
       </c>
       <c r="D827" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
+          <t>使用 Azure 防火牆來管理到 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="E827" s="18" t="n"/>
@@ -43773,7 +43841,11 @@
           <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
-      <c r="K827" s="19" t="n"/>
+      <c r="K827" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=~'microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L827" s="19" t="inlineStr">
         <is>
           <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
@@ -43858,7 +43930,7 @@
       </c>
       <c r="D829" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為與登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="E829" s="18" t="n"/>
@@ -43968,7 +44040,7 @@
       </c>
       <c r="D831" s="18" t="inlineStr">
         <is>
-          <t>使用 Web 應用程式防火牆在流量暴露於 Internet 時對其進行掃描。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
+          <t>使用 Web 應用程式防火牆在流量暴露於 Internet 時對其進行掃描。另一種選擇是將它與負載均衡器或具有內置防火牆功能的資源（如應用程式閘道或第三方解決方案）一起使用。</t>
         </is>
       </c>
       <c r="E831" s="18" t="n"/>
@@ -44023,7 +44095,7 @@
       </c>
       <c r="D832" s="18" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置的全域傳輸連接的新網路、大型網路或全球網路中使用虛擬 WAN 進行 Azure 部署。使用此方法，無需手動設置 Azure 網路的可傳遞路由，並且可以遵循 Azure 部署上的 SAP 標準。</t>
+          <t>在需要跨 Azure 區域和本地位置建立全球傳輸連接的新網路、大型網路或全球網路中，使用虛擬 WAN 進行 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署標準。</t>
         </is>
       </c>
       <c r="E832" s="18" t="n"/>
@@ -44078,7 +44150,7 @@
       </c>
       <c r="D833" s="18" t="inlineStr">
         <is>
-          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還有助於保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露在公共 Internet 上。</t>
+          <t>為了防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還可以幫助保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用了專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露在公共 Internet 上。</t>
         </is>
       </c>
       <c r="E833" s="18" t="n"/>
@@ -44133,7 +44205,7 @@
       </c>
       <c r="D834" s="18" t="inlineStr">
         <is>
-          <t>請確保在 SAP 應用程式和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
+          <t>確保在 SAP 應用程式和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
         </is>
       </c>
       <c r="E834" s="18" t="n"/>
@@ -44158,7 +44230,11 @@
           <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
-      <c r="K834" s="19" t="n"/>
+      <c r="K834" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Network/NetworkInterfaces' | where properties.enableAcceleratedNetworking =~ 'false' | project name, subscriptionId, properties.enableAcceleratedNetworking</t>
+        </is>
+      </c>
       <c r="L834" s="19" t="inlineStr">
         <is>
           <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
@@ -44188,7 +44264,7 @@
       </c>
       <c r="D835" s="18" t="inlineStr">
         <is>
-          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。此設置（啟用浮動IP）將減少內部負載均衡器配置用於 DBMS 層上的高可用性配置時的延遲。</t>
+          <t>確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載均衡器配置用於 DBMS 層上的高可用性配置時，此設置 （Enabling Floating IP） 將減少延遲。</t>
         </is>
       </c>
       <c r="E835" s="18" t="n"/>
@@ -44243,7 +44319,7 @@
       </c>
       <c r="D836" s="18" t="inlineStr">
         <is>
-          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組，以説明管理其安全性。</t>
+          <t>您可以使用應用程式安全組 （ASG） 和 NSG 規則來定義 SAP 應用程式和 DBMS 層之間的網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
         </is>
       </c>
       <c r="E836" s="18" t="n"/>
@@ -44268,7 +44344,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
-      <c r="K836" s="19" t="n"/>
+      <c r="K836" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'microsoft.network/networksecuritygroups' and isnull(properties.networkInterfaces) and isnull(properties.subnets) | project name, resourceGroup | sort by name asc</t>
+        </is>
+      </c>
       <c r="L836" s="19" t="inlineStr">
         <is>
           <t>6791f893-5ada-4433-84e1-3811523181aa</t>
@@ -44353,7 +44433,7 @@
       </c>
       <c r="D838" s="18" t="inlineStr">
         <is>
-          <t>若要優化 SAP 應用程式的網路延遲，請考慮使用 Azure 鄰近放置組。</t>
+          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
         </is>
       </c>
       <c r="E838" s="18" t="n"/>
@@ -44408,7 +44488,7 @@
       </c>
       <c r="D839" s="18" t="inlineStr">
         <is>
-          <t>根本不支援在本地和 Azure 之間運行 SAP Application Server 層和 DBMS 層拆分。這兩個層都需要完全駐留在本地或 Azure 中。</t>
+          <t>根本不支援在本地和 Azure 之間運行 SAP Application Server 層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
         </is>
       </c>
       <c r="E839" s="18" t="n"/>
@@ -44463,7 +44543,7 @@
       </c>
       <c r="D840" s="18" t="inlineStr">
         <is>
-          <t>不建議將資料庫管理系統 （DBMS） 和 SAP 系統的應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間的過多網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
+          <t>建議不要將 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間過多的網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
         </is>
       </c>
       <c r="E840" s="18" t="n"/>
@@ -44518,7 +44598,7 @@
       </c>
       <c r="D841" s="18" t="inlineStr">
         <is>
-          <t>如果將負載均衡器與Linux客戶機作業系統配合使用，請檢查Linux網路參數 net.ipv4.tcp_timestamps是否設置為0。</t>
+          <t>如果將負載均衡器與 Linux 客戶機作業系統一起使用，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
         </is>
       </c>
       <c r="E841" s="18" t="n"/>
@@ -44573,7 +44653,7 @@
       </c>
       <c r="D842" s="18" t="inlineStr">
         <is>
-          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP vnet 和客戶 vnet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
+          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶的現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受到網路安全組 （NSG） 的保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
         </is>
       </c>
       <c r="E842" s="18" t="n"/>
@@ -44726,7 +44806,7 @@
       </c>
       <c r="D845" s="18" t="inlineStr">
         <is>
-          <t>查看監視 SAP HANA 系統環境指南。</t>
+          <t>查看監控 SAP HANA 系統環境指南。</t>
         </is>
       </c>
       <c r="E845" s="18" t="n"/>
@@ -44777,7 +44857,7 @@
       </c>
       <c r="D846" s="18" t="inlineStr">
         <is>
-          <t>查看 Azure Linux VM 中的 Oracle 資料庫備份策略。</t>
+          <t>查看 Azure Linux VM 中的 Oracle Database 備份策略。</t>
         </is>
       </c>
       <c r="E846" s="18" t="n"/>
@@ -44828,7 +44908,7 @@
       </c>
       <c r="D847" s="18" t="inlineStr">
         <is>
-          <t>查看 Azure Blob 儲存與 SQL Server 2016 的配合。</t>
+          <t>查看 Azure Blob Storage 與 SQL Server 2016 的使用方式。</t>
         </is>
       </c>
       <c r="E847" s="18" t="n"/>
@@ -44879,7 +44959,7 @@
       </c>
       <c r="D848" s="18" t="inlineStr">
         <is>
-          <t>查看 Azure VM 自動備份 v2 的使用方式。</t>
+          <t>查看 Azure VM 的自動備份 v2 的使用方式。</t>
         </is>
       </c>
       <c r="E848" s="18" t="n"/>
@@ -44930,7 +45010,7 @@
       </c>
       <c r="D849" s="18" t="inlineStr">
         <is>
-          <t>使用進階磁碟時開啟M系列的寫入加速器（V1）</t>
+          <t>使用進階磁碟時為 M 系列開啟寫入加速器 （V1）</t>
         </is>
       </c>
       <c r="E849" s="18" t="n"/>
@@ -44977,7 +45057,7 @@
       </c>
       <c r="D850" s="18" t="inlineStr">
         <is>
-          <t>測試可用性區域延遲。</t>
+          <t>測試可用區延遲。</t>
         </is>
       </c>
       <c r="E850" s="18" t="n"/>
@@ -45083,7 +45163,7 @@
       </c>
       <c r="D852" s="18" t="inlineStr">
         <is>
-          <t>使用 SAP ABAPMeter 報表 /SSA/CAT 查看 SAP 應用程式伺服器到資料庫伺服器的延遲。</t>
+          <t>使用 SAP ABAPMeter 報告 /SSA/CAT 查看 SAP 應用程式伺服器到資料庫伺服器的延遲。</t>
         </is>
       </c>
       <c r="E852" s="18" t="n"/>
@@ -45138,7 +45218,7 @@
       </c>
       <c r="D853" s="18" t="inlineStr">
         <is>
-          <t>查看使用 CCMS 的 SQL Server 性能監視。</t>
+          <t>查看使用 CCMS 的 SQL Server 性能監控。</t>
         </is>
       </c>
       <c r="E853" s="18" t="n"/>
@@ -45185,7 +45265,7 @@
       </c>
       <c r="D854" s="18" t="inlineStr">
         <is>
-          <t>測試 SAP 應用程式層 VM 和 DBMS VM （NIPING） 之間的網路延遲。</t>
+          <t>測試 SAP 應用層 VM 和 DBMS VM 之間的網路延遲 （NIPING）。</t>
         </is>
       </c>
       <c r="E854" s="18" t="n"/>
@@ -45342,7 +45422,7 @@
       </c>
       <c r="D857" s="18" t="inlineStr">
         <is>
-          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
+          <t>如果您在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理操作系統更新，包括安全補丁。</t>
         </is>
       </c>
       <c r="E857" s="18" t="n"/>
@@ -45397,7 +45477,7 @@
       </c>
       <c r="D858" s="18" t="inlineStr">
         <is>
-          <t>定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取行動來保護 SAP 系統。</t>
+          <t>定期查看 SAP 安全 OSS 說明，因為 SAP 發佈了高度關鍵的安全補丁或熱修復程式，需要立即採取措施保護您的 SAP 系統。</t>
         </is>
       </c>
       <c r="E858" s="18" t="n"/>
@@ -45452,7 +45532,7 @@
       </c>
       <c r="D859" s="18" t="inlineStr">
         <is>
-          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
+          <t>對於 SQL Server 上的 SAP，您可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
         </is>
       </c>
       <c r="E859" s="18" t="n"/>
@@ -45503,7 +45583,7 @@
       </c>
       <c r="D860" s="18" t="inlineStr">
         <is>
-          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
+          <t>禁用 xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令 shell。這是安全審計中的潛在風險。</t>
         </is>
       </c>
       <c r="E860" s="18" t="n"/>
@@ -45558,7 +45638,7 @@
       </c>
       <c r="D861" s="18" t="inlineStr">
         <is>
-          <t>加密 Azure 上的 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
+          <t>在 Azure 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果使用 Azure 上的 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
         </is>
       </c>
       <c r="E861" s="18" t="n"/>
@@ -45613,7 +45693,7 @@
       </c>
       <c r="D862" s="18" t="inlineStr">
         <is>
-          <t>為所有 Azure 資源管理器和經典記憶體啟用了 Azure 儲存加密，並且無法禁用。由於預設情況下數據是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
+          <t>Azure 儲存加密已為所有 Azure Resource Manager 和經典存儲帳戶啟用，並且無法禁用。由於數據預設加密，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
         </is>
       </c>
       <c r="E862" s="18" t="n"/>
@@ -45693,7 +45773,11 @@
           <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
-      <c r="K863" s="19" t="n"/>
+      <c r="K863" s="19" t="inlineStr">
+        <is>
+          <t>Resources | join kind=leftouter (ResourceContainers | where type=~'microsoft.resources/subscriptions' | project SubName=name, subscriptionId) on subscriptionId | where type =~ 'microsoft.keyvault/vaults' | project type, name, SubName</t>
+        </is>
+      </c>
       <c r="L863" s="19" t="inlineStr">
         <is>
           <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
@@ -45723,7 +45807,7 @@
       </c>
       <c r="D864" s="18" t="inlineStr">
         <is>
-          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
+          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。您還可以使用自定義的 Azure 策略（自定義角色）按訂閱強制實施 LOCK 約束和規則。</t>
         </is>
       </c>
       <c r="E864" s="18" t="n"/>
@@ -45778,7 +45862,7 @@
       </c>
       <c r="D865" s="18" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>預配 Azure Key Vault 並啟用軟刪除和清除策略，以允許對已刪除的物件進行保留保護。</t>
         </is>
       </c>
       <c r="E865" s="18" t="n"/>
@@ -45833,7 +45917,7 @@
       </c>
       <c r="D866" s="18" t="inlineStr">
         <is>
-          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
+          <t>根據現有要求、法規和合規性控制（內部/外部）- 確定需要哪些 Azure 策略和 Azure RBAC 角色</t>
         </is>
       </c>
       <c r="E866" s="18" t="n"/>
@@ -45888,7 +45972,7 @@
       </c>
       <c r="D867" s="18" t="inlineStr">
         <is>
-          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是以所有伺服器為目標。排除目標檔時，請遵循 DBMS 供應商的建議。</t>
         </is>
       </c>
       <c r="E867" s="18" t="n"/>
@@ -45943,7 +46027,7 @@
       </c>
       <c r="D868" s="18" t="inlineStr">
         <is>
-          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+          <t>委派 SAP 管理員自定義角色，使其具有 Microsoft Defender for Cloud 的即時訪問許可權。</t>
         </is>
       </c>
       <c r="E868" s="18" t="n"/>
@@ -45998,7 +46082,7 @@
       </c>
       <c r="D869" s="18" t="inlineStr">
         <is>
-          <t>通過將第三方安全產品與 DIAG （SAP GUI）、RFC 和 SPNEGO for HTTPS 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+          <t>通過將第三方安全產品與適用於 DIAG （SAP GUI）、RFC 和 SPNEGO for HTTPS 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
         </is>
       </c>
       <c r="E869" s="18" t="n"/>
@@ -46053,7 +46137,7 @@
       </c>
       <c r="D870" s="18" t="inlineStr">
         <is>
-          <t>對於主體加密功能，預設使用 Microsoft 管理的金鑰，並在需要時使用客戶管理的密鑰。</t>
+          <t>預設使用 Microsoft 管理的金鑰來實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="E870" s="18" t="n"/>
@@ -46108,7 +46192,7 @@
       </c>
       <c r="D871" s="18" t="inlineStr">
         <is>
-          <t>對每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>每個區域每個環境的每個應用程式使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="E871" s="18" t="n"/>
@@ -46133,7 +46217,11 @@
           <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
-      <c r="K871" s="19" t="n"/>
+      <c r="K871" s="19" t="inlineStr">
+        <is>
+          <t>Resources | join kind=leftouter (ResourceContainers | where type=~'microsoft.resources/subscriptions' | project SubName=name, subscriptionId) on subscriptionId | where type =~ 'microsoft.keyvault/vaults' | project type, name, SubName</t>
+        </is>
+      </c>
       <c r="L871" s="19" t="inlineStr">
         <is>
           <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
@@ -46163,7 +46251,7 @@
       </c>
       <c r="D872" s="18" t="inlineStr">
         <is>
-          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等替代方法。</t>
+          <t>要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等替代方法。</t>
         </is>
       </c>
       <c r="E872" s="18" t="n"/>
@@ -46218,7 +46306,7 @@
       </c>
       <c r="D873" s="18" t="inlineStr">
         <is>
-          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免意外的與網路相關的更改</t>
         </is>
       </c>
       <c r="E873" s="18" t="n"/>
@@ -46273,7 +46361,7 @@
       </c>
       <c r="D874" s="18" t="inlineStr">
         <is>
-          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
         </is>
       </c>
       <c r="E874" s="18" t="n"/>
@@ -46328,7 +46416,7 @@
       </c>
       <c r="D875" s="18" t="inlineStr">
         <is>
-          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+          <t>考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意文件、廣告軟體和其他威脅的侵害。</t>
         </is>
       </c>
       <c r="E875" s="18" t="n"/>
@@ -46383,7 +46471,7 @@
       </c>
       <c r="D876" s="18" t="inlineStr">
         <is>
-          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+          <t>要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
         </is>
       </c>
       <c r="E876" s="18" t="n"/>
@@ -46438,7 +46526,7 @@
       </c>
       <c r="D877" s="18" t="inlineStr">
         <is>
-          <t>通過中心虛擬網路傳遞所有流量，將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來，該中心虛擬網路通過虛擬網路對等互連連接到分支網路。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+          <t>通過中心虛擬網路傳遞所有流量，將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來，該虛擬網路通過虛擬網路對等互連連接到輻射網路。對等互連的虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
         </is>
       </c>
       <c r="E877" s="18" t="n"/>
@@ -46493,7 +46581,7 @@
       </c>
       <c r="D878" s="18" t="inlineStr">
         <is>
-          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保根據應用程式要求分配負載，同時保持安全級別。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保根據應用程式要求分配負載，同時保持安全級別。對於第 7 層安全性，您可以使用 Azure Marketplace 中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
         </is>
       </c>
       <c r="E878" s="18" t="n"/>
@@ -46548,7 +46636,7 @@
       </c>
       <c r="D879" s="18" t="inlineStr">
         <is>
-          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+          <t>若要在適用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
         </is>
       </c>
       <c r="E879" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -57843,7 +57843,11 @@
         </is>
       </c>
       <c r="J1089" s="13" t="n"/>
-      <c r="K1089" s="19" t="n"/>
+      <c r="K1089" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['requestBodyCheck'] == 'true' and properties['policySettings']['state'] =~ 'Enabled') | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L1089" s="19" t="inlineStr">
         <is>
           <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
@@ -57945,7 +57949,11 @@
         </is>
       </c>
       <c r="J1091" s="13" t="n"/>
-      <c r="K1091" s="19" t="n"/>
+      <c r="K1091" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['mode'] =~ 'Prevention')| where properties['policySettings']['mode'] =~ 'Prevention' | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L1091" s="19" t="inlineStr">
         <is>
           <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
@@ -58506,7 +58514,11 @@
         </is>
       </c>
       <c r="J1102" s="13" t="n"/>
-      <c r="K1102" s="19" t="n"/>
+      <c r="K1102" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgateways'| extend compliant = (properties['backendHttpSettingsCollection'][0]['properties']['port'] =~ '443') |where properties['backendHttpSettingsCollection'][0]['properties']['port'] =~ '443'|distinct id,name,compliant</t>
+        </is>
+      </c>
       <c r="L1102" s="19" t="inlineStr">
         <is>
           <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>

--- a/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.zh-Hant.xlsx
@@ -8404,7 +8404,7 @@
       </c>
       <c r="C146" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D146" s="18" t="inlineStr">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="C147" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D147" s="18" t="inlineStr">
